--- a/pcxzf/pcxzf/jiyuehua/kaipumodify/modifyfile/sendfile/网站改错记录.xlsx
+++ b/pcxzf/pcxzf/jiyuehua/kaipumodify/modifyfile/sendfile/网站改错记录.xlsx
@@ -1,224 +1,177 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30720" windowHeight="13644"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="30720" windowHeight="13644" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
-  <si>
-    <t>机器人添加时间</t>
-  </si>
-  <si>
-    <t>附件地址或文章所在地</t>
-  </si>
-  <si>
-    <t>快照</t>
-  </si>
-  <si>
-    <t>错敏词</t>
-  </si>
-  <si>
-    <t>推荐词</t>
-  </si>
-  <si>
-    <t>附件标题</t>
-  </si>
-  <si>
-    <t>父页面地址</t>
-  </si>
-  <si>
-    <t>父页面标题</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="20">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <u val="single"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <u val="single"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <color rgb="FFFF0000"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="18"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="15"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="13"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <color rgb="FF006100"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <color rgb="FF9C0006"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <color rgb="FF9C6500"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <color theme="0"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="33">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -518,159 +471,159 @@
     </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -918,7 +871,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStylePreset3_Accent1" defaultPivotStyle="PivotStylePreset2_Accent1">
-    <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7" xr9:uid="{59DB682C-5494-4EDE-A608-00C9E5F0F923}">
+    <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7">
       <tableStyleElement type="wholeTable" dxfId="6"/>
       <tableStyleElement type="headerRow" dxfId="5"/>
       <tableStyleElement type="totalRow" dxfId="4"/>
@@ -927,7 +880,7 @@
       <tableStyleElement type="firstRowStripe" dxfId="1"/>
       <tableStyleElement type="firstColumnStripe" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10" xr9:uid="{267968C8-6FFD-4C36-ACC1-9EA1FD1885CA}">
+    <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10">
       <tableStyleElement type="headerRow" dxfId="16"/>
       <tableStyleElement type="totalRow" dxfId="15"/>
       <tableStyleElement type="firstRowStripe" dxfId="14"/>
@@ -940,11 +893,74 @@
       <tableStyleElement type="pageFieldValues" dxfId="7"/>
     </tableStyle>
   </tableStyles>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -1196,44 +1212,1297 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:H1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="$A1:$XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="7"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.888888888888889" defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:8">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
+    <row r="1" customFormat="1" s="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>机器人添加时间</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>附件地址或文章所在地</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>快照</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>错敏词</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>推荐词</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>附件标题</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>父页面地址</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>父页面标题</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-17 14:02</t>
+        </is>
+      </c>
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/ywdt/pcyw/13890205.html</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=f3e9a9300c574e319ca5bd956fc1c326&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D2" s="1" t="inlineStr">
+        <is>
+          <t>总书记关于党的建设的重要思想</t>
+        </is>
+      </c>
+      <c r="E2" s="1" t="inlineStr">
+        <is>
+          <t>习近平总书记关于党的建设的重要思想</t>
+        </is>
+      </c>
+      <c r="F2" s="1" t="inlineStr">
+        <is>
+          <t>王晓晖在全省组织工作会议上强调 深入学习贯彻习近平总书记关于党的建设的重要思想 以新担当新作为不断开创全省组织工作新局面</t>
+        </is>
+      </c>
+      <c r="G2" s="1" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/content/column/6789791?pageIndex=127</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-17 14:02</t>
+        </is>
+      </c>
+      <c r="B3" s="1" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/ywdt/pcyw/13890205.html</t>
+        </is>
+      </c>
+      <c r="C3" s="1" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=0bd63ff54bc24dc3a5df32e66a3f57e7&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D3" s="1" t="inlineStr">
+        <is>
+          <t>总书记关于党的建设的重要思想</t>
+        </is>
+      </c>
+      <c r="E3" s="1" t="inlineStr">
+        <is>
+          <t>习近平总书记关于党的建设的重要思想</t>
+        </is>
+      </c>
+      <c r="F3" s="1" t="inlineStr">
+        <is>
+          <t>王晓晖在全省组织工作会议上强调 深入学习贯彻习近平总书记关于党的建设的重要思想 以新担当新作为不断开创全省组织工作新局面</t>
+        </is>
+      </c>
+      <c r="G3" s="1" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/content/column/6789791?pageIndex=127</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-17 14:02</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/ywdt/pcyw/13890205.html</t>
+        </is>
+      </c>
+      <c r="C4" s="1" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=39e5cc99f9d8445f827d86829faa58ce&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D4" s="1" t="inlineStr">
+        <is>
+          <t>总书记关于党的建设的重要思想</t>
+        </is>
+      </c>
+      <c r="E4" s="1" t="inlineStr">
+        <is>
+          <t>习近平总书记关于党的建设的重要思想</t>
+        </is>
+      </c>
+      <c r="F4" s="1" t="inlineStr">
+        <is>
+          <t>王晓晖在全省组织工作会议上强调 深入学习贯彻习近平总书记关于党的建设的重要思想 以新担当新作为不断开创全省组织工作新局面</t>
+        </is>
+      </c>
+      <c r="G4" s="1" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/content/column/6789791?pageIndex=127</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-17 14:02</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/ywdt/pcyw/13890205.html</t>
+        </is>
+      </c>
+      <c r="C5" s="1" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=de38a1dd449e4841b22157c1594f54ed&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D5" s="1" t="inlineStr">
+        <is>
+          <t>总书记关于党的建设的重要思想</t>
+        </is>
+      </c>
+      <c r="E5" s="1" t="inlineStr">
+        <is>
+          <t>习近平总书记关于党的建设的重要思想</t>
+        </is>
+      </c>
+      <c r="F5" s="1" t="inlineStr">
+        <is>
+          <t>王晓晖在全省组织工作会议上强调 深入学习贯彻习近平总书记关于党的建设的重要思想 以新担当新作为不断开创全省组织工作新局面</t>
+        </is>
+      </c>
+      <c r="G5" s="1" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/content/column/6789791?pageIndex=127</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-17 14:14</t>
+        </is>
+      </c>
+      <c r="B6" s="1" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/group3/M00/04/9A/rBUtImCjhp6ATmojAAOCABkKJdE132.xls</t>
+        </is>
+      </c>
+      <c r="C6" s="1" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=e713c8d60ec74921af74db65355849ea&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D6" s="1" t="inlineStr">
+        <is>
+          <t>养老养老保险</t>
+        </is>
+      </c>
+      <c r="E6" s="1" t="inlineStr">
+        <is>
+          <t>养老保险</t>
+        </is>
+      </c>
+      <c r="F6" s="1" t="inlineStr">
+        <is>
+          <t>平昌县江口镇2019年部门预算公开表.xls</t>
+        </is>
+      </c>
+      <c r="G6" s="1" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/ztzl/pcxczyjsgk/bmys/13195201.html</t>
+        </is>
+      </c>
+      <c r="H6" s="1" t="inlineStr">
+        <is>
+          <t>平昌县江口镇人民政府2019年度部门预算公开目录</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-17 14:15</t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/group3/M00/04/9A/rBUtImCjgqmAXKv1AAPOAOeU1Us793.xls</t>
+        </is>
+      </c>
+      <c r="C7" s="1" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=8b18fec9f78d4278a6d2179928d4a3fb&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D7" s="1" t="inlineStr">
+        <is>
+          <t>养老养老保险</t>
+        </is>
+      </c>
+      <c r="E7" s="1" t="inlineStr">
+        <is>
+          <t>养老保险</t>
+        </is>
+      </c>
+      <c r="F7" s="1" t="inlineStr">
+        <is>
+          <t>平昌县笔山镇2019年部门预算公开表.xls</t>
+        </is>
+      </c>
+      <c r="G7" s="1" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/ztzl/pcxczyjsgk/bmys/13195091.html</t>
+        </is>
+      </c>
+      <c r="H7" s="1" t="inlineStr">
+        <is>
+          <t>平昌县笔山镇人民政府2019年度部门预算公开目录</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-17 14:16</t>
+        </is>
+      </c>
+      <c r="B8" s="1" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/group3/M00/04/9A/rBUtImCjisOAE9jbAALiAEal1WA733.xls</t>
+        </is>
+      </c>
+      <c r="C8" s="1" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=c9e271c0d92a4a218dba1bdd4c244083&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D8" s="1" t="inlineStr">
+        <is>
+          <t>养老养老保险</t>
+        </is>
+      </c>
+      <c r="E8" s="1" t="inlineStr">
+        <is>
+          <t>养老保险</t>
+        </is>
+      </c>
+      <c r="F8" s="1" t="inlineStr">
+        <is>
+          <t>平昌县邱家镇2019年部门预算公开表.xls</t>
+        </is>
+      </c>
+      <c r="G8" s="1" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/ztzl/pcxczyjsgk/bmys/13195431.html</t>
+        </is>
+      </c>
+      <c r="H8" s="1" t="inlineStr">
+        <is>
+          <t>平昌县邱家镇人民政府2019年度部门预算公开目录</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-17 14:16</t>
+        </is>
+      </c>
+      <c r="B9" s="1" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/group3/M00/04/9B/rBUtImCjj7-AfLB8AALiAN2ljXs890.xls</t>
+        </is>
+      </c>
+      <c r="C9" s="1" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=bc44aedcc3914da48ef2b154822d3b6c&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D9" s="1" t="inlineStr">
+        <is>
+          <t>养老养老保险</t>
+        </is>
+      </c>
+      <c r="E9" s="1" t="inlineStr">
+        <is>
+          <t>养老保险</t>
+        </is>
+      </c>
+      <c r="F9" s="1" t="inlineStr">
+        <is>
+          <t>平昌县元石镇2019年部门预算公开表.xls</t>
+        </is>
+      </c>
+      <c r="G9" s="1" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/ztzl/pcxczyjsgk/bmys/13195631.html</t>
+        </is>
+      </c>
+      <c r="H9" s="1" t="inlineStr">
+        <is>
+          <t>平昌县元石镇人民政府2019年度部门预算公开目录</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-17 14:17</t>
+        </is>
+      </c>
+      <c r="B10" s="1" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/group3/M00/04/9A/rBUtImCjgwmAbyuFAALWAGsgF_c952.xls</t>
+        </is>
+      </c>
+      <c r="C10" s="1" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=65f8f421f19e4e20be542a852dd87e55&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D10" s="1" t="inlineStr">
+        <is>
+          <t>养老养老保险</t>
+        </is>
+      </c>
+      <c r="E10" s="1" t="inlineStr">
+        <is>
+          <t>养老保险</t>
+        </is>
+      </c>
+      <c r="F10" s="1" t="inlineStr">
+        <is>
+          <t>平昌县大寨镇2019年部门预算公开表.xls</t>
+        </is>
+      </c>
+      <c r="G10" s="1" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/ztzl/pcxczyjsgk/bmys/13195101.html</t>
+        </is>
+      </c>
+      <c r="H10" s="1" t="inlineStr">
+        <is>
+          <t>平昌县大寨镇人民政府2019年度部门预算公开目录</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-17 14:17</t>
+        </is>
+      </c>
+      <c r="B11" s="1" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/group3/M00/04/9B/rBUtImCjj3eAa22qAAMuAC0968k318.xls</t>
+        </is>
+      </c>
+      <c r="C11" s="1" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=c8d7656580de43beb5161f07e594c0a9&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D11" s="1" t="inlineStr">
+        <is>
+          <t>养老养老保险</t>
+        </is>
+      </c>
+      <c r="E11" s="1" t="inlineStr">
+        <is>
+          <t>养老保险</t>
+        </is>
+      </c>
+      <c r="F11" s="1" t="inlineStr">
+        <is>
+          <t>平昌县元山镇2019年部门预算公开表.xls</t>
+        </is>
+      </c>
+      <c r="G11" s="1" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/ztzl/pcxczyjsgk/bmys/13195621.html</t>
+        </is>
+      </c>
+      <c r="H11" s="1" t="inlineStr">
+        <is>
+          <t>平昌县元山镇人民政府2019年度部门预算公开目录</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-17 14:17</t>
+        </is>
+      </c>
+      <c r="B12" s="1" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/group3/M00/04/9B/rBUtImCjjvOAK7HaAAM-AAapCtE220.xls</t>
+        </is>
+      </c>
+      <c r="C12" s="1" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=5ea69868a3a44684895464a9d798d76f&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D12" s="1" t="inlineStr">
+        <is>
+          <t>养老养老保险</t>
+        </is>
+      </c>
+      <c r="E12" s="1" t="inlineStr">
+        <is>
+          <t>养老保险</t>
+        </is>
+      </c>
+      <c r="F12" s="1" t="inlineStr">
+        <is>
+          <t>平昌县响滩镇2019年部门预算公开表.xls</t>
+        </is>
+      </c>
+      <c r="G12" s="1" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/ztzl/pcxczyjsgk/bmys/13195601.html</t>
+        </is>
+      </c>
+      <c r="H12" s="1" t="inlineStr">
+        <is>
+          <t>平昌县响滩镇人民政府2019年度部门预算公开目录</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-17 14:17</t>
+        </is>
+      </c>
+      <c r="B13" s="1" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/group3/M00/15/4C/rBUtImeKHRmAEwEcAAEuALXINpc623.xls</t>
+        </is>
+      </c>
+      <c r="C13" s="1" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=3c2ee5871da5491ea2ad30bebe9e94cd&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D13" s="1" t="inlineStr">
+        <is>
+          <t>养老养老保险</t>
+        </is>
+      </c>
+      <c r="E13" s="1" t="inlineStr">
+        <is>
+          <t>养老保险</t>
+        </is>
+      </c>
+      <c r="F13" s="1" t="inlineStr">
+        <is>
+          <t>平昌县人民检察院2019年部门预算公开表.xls</t>
+        </is>
+      </c>
+      <c r="G13" s="1" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/ztzl/pcxczyjsgk/bmys/11336681.html</t>
+        </is>
+      </c>
+      <c r="H13" s="1" t="inlineStr">
+        <is>
+          <t>平昌县人民检察院 2019年度部门预算公开目录</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-17 14:18</t>
+        </is>
+      </c>
+      <c r="B14" s="1" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/group3/M00/15/4C/rBUtImeKIeKAHqAeAAM6AOzb2cE180.xls</t>
+        </is>
+      </c>
+      <c r="C14" s="1" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=9d408bf3a0154ff0812d55675be50b00&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D14" s="1" t="inlineStr">
+        <is>
+          <t>养老养老保险</t>
+        </is>
+      </c>
+      <c r="E14" s="1" t="inlineStr">
+        <is>
+          <t>养老保险</t>
+        </is>
+      </c>
+      <c r="F14" s="1" t="inlineStr">
+        <is>
+          <t>平昌县卫生健康局2019年部门预算公开表.xls</t>
+        </is>
+      </c>
+      <c r="G14" s="1" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/ztzl/pcxczyjsgk/bmys/11336991.html</t>
+        </is>
+      </c>
+      <c r="H14" s="1" t="inlineStr">
+        <is>
+          <t>平昌县卫生健康局2019年度部门预算公开目录</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-17 14:19</t>
+        </is>
+      </c>
+      <c r="B15" s="1" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/group3/M00/15/4C/rBUtImeKIHyATTkpAAEKAPxvIOw389.XLS</t>
+        </is>
+      </c>
+      <c r="C15" s="1" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=59f614761ba1434080ad9f9e95f7cfb9&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D15" s="1" t="inlineStr">
+        <is>
+          <t>养老养老保险</t>
+        </is>
+      </c>
+      <c r="E15" s="1" t="inlineStr">
+        <is>
+          <t>养老保险</t>
+        </is>
+      </c>
+      <c r="F15" s="1" t="inlineStr">
+        <is>
+          <t>2018年预算公开.XLS</t>
+        </is>
+      </c>
+      <c r="G15" s="1" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/ztzl/pcxczyjsgk/bmys/11336051.html</t>
+        </is>
+      </c>
+      <c r="H15" s="1" t="inlineStr">
+        <is>
+          <t>平昌县审计局2018年度部门预算公开</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-17 14:19</t>
+        </is>
+      </c>
+      <c r="B16" s="1" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/group3/M00/04/9A/rBUtImCjid2AMaqKAALCAI9Ay6c094.xls</t>
+        </is>
+      </c>
+      <c r="C16" s="1" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=a0b1fc8009654e1db2433410a318fcc3&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D16" s="1" t="inlineStr">
+        <is>
+          <t>养老养老保险</t>
+        </is>
+      </c>
+      <c r="E16" s="1" t="inlineStr">
+        <is>
+          <t>养老保险</t>
+        </is>
+      </c>
+      <c r="F16" s="1" t="inlineStr">
+        <is>
+          <t>平昌县泥龙镇2019年部门预算公开表.xls</t>
+        </is>
+      </c>
+      <c r="G16" s="1" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/ztzl/pcxczyjsgk/bmys/13195371.html</t>
+        </is>
+      </c>
+      <c r="H16" s="1" t="inlineStr">
+        <is>
+          <t>平昌县泥龙镇人民政府2019年度部门预算公开目录</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-17 14:19</t>
+        </is>
+      </c>
+      <c r="B17" s="1" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/group3/M00/04/9A/rBUtImCjg22AZDVHAAKMAKMKFqA612.xls</t>
+        </is>
+      </c>
+      <c r="C17" s="1" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=bf6535133d854aedbf5b9b3c2cf31257&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D17" s="1" t="inlineStr">
+        <is>
+          <t>养老养老保险</t>
+        </is>
+      </c>
+      <c r="E17" s="1" t="inlineStr">
+        <is>
+          <t>养老保险</t>
+        </is>
+      </c>
+      <c r="F17" s="1" t="inlineStr">
+        <is>
+          <t>平昌县得胜镇2019年部门预算公开表.xls</t>
+        </is>
+      </c>
+      <c r="G17" s="1" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/ztzl/pcxczyjsgk/bmys/13195111.html</t>
+        </is>
+      </c>
+      <c r="H17" s="1" t="inlineStr">
+        <is>
+          <t>平昌县得胜镇人民政府2019年度部门预算公开目录</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-17 14:19</t>
+        </is>
+      </c>
+      <c r="B18" s="1" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/group3/M00/04/9A/rBUtImCjjUOAWwjsAAK4AKYbWD4433.xls</t>
+        </is>
+      </c>
+      <c r="C18" s="1" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=4078a5961d1b4d90abc3b78949ed5435&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D18" s="1" t="inlineStr">
+        <is>
+          <t>养老养老保险</t>
+        </is>
+      </c>
+      <c r="E18" s="1" t="inlineStr">
+        <is>
+          <t>养老保险</t>
+        </is>
+      </c>
+      <c r="F18" s="1" t="inlineStr">
+        <is>
+          <t>平昌县土兴镇2019年部门预算公开表.xls</t>
+        </is>
+      </c>
+      <c r="G18" s="1" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/ztzl/pcxczyjsgk/bmys/13195511.html</t>
+        </is>
+      </c>
+      <c r="H18" s="1" t="inlineStr">
+        <is>
+          <t>平昌县土兴镇人民政府2019年度部门预算公开目录</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-17 14:20</t>
+        </is>
+      </c>
+      <c r="B19" s="1" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/group3/M00/15/3E/rBUtImd7UyqAXJUWAAEgAGfut_4303.xls</t>
+        </is>
+      </c>
+      <c r="C19" s="1" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=827a092a84204f2080b336dcc2b737d5&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D19" s="1" t="inlineStr">
+        <is>
+          <t>养老养老保险</t>
+        </is>
+      </c>
+      <c r="E19" s="1" t="inlineStr">
+        <is>
+          <t>养老保险</t>
+        </is>
+      </c>
+      <c r="F19" s="1" t="inlineStr">
+        <is>
+          <t>平昌县应急管理局2019年部门预算公开表.xls</t>
+        </is>
+      </c>
+      <c r="G19" s="1" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/public/6602201/13866223.html</t>
+        </is>
+      </c>
+      <c r="H19" s="1" t="inlineStr">
+        <is>
+          <t>平昌县应急管理局2019年度部门预算公开目录</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-17 14:20</t>
+        </is>
+      </c>
+      <c r="B20" s="1" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/group3/M00/0F/1C/rBUtImVLIeuAMbltAANSAF97wzE995.xls</t>
+        </is>
+      </c>
+      <c r="C20" s="1" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=e1b953d5f9f140029429a12000e500a7&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D20" s="1" t="inlineStr">
+        <is>
+          <t>养老养老保险</t>
+        </is>
+      </c>
+      <c r="E20" s="1" t="inlineStr">
+        <is>
+          <t>养老保险</t>
+        </is>
+      </c>
+      <c r="F20" s="1" t="inlineStr">
+        <is>
+          <t>驷马镇2018年预算.xls</t>
+        </is>
+      </c>
+      <c r="G20" s="1" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/public/6603061/13901489.html</t>
+        </is>
+      </c>
+      <c r="H20" s="1" t="inlineStr">
+        <is>
+          <t>平昌县驷马镇人民政府2018年度部门预算</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-17 14:20</t>
+        </is>
+      </c>
+      <c r="B21" s="1" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/group3/M00/15/4C/rBUtImeKGzGAP_wXAAK0ANmLFb0979.xls</t>
+        </is>
+      </c>
+      <c r="C21" s="1" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=939246185f7448f4aa3d72c9bfe4587c&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D21" s="1" t="inlineStr">
+        <is>
+          <t>养老养老保险</t>
+        </is>
+      </c>
+      <c r="E21" s="1" t="inlineStr">
+        <is>
+          <t>养老保险</t>
+        </is>
+      </c>
+      <c r="F21" s="1" t="inlineStr">
+        <is>
+          <t>平昌县交通运输局2019年部门预算公开表.xls</t>
+        </is>
+      </c>
+      <c r="G21" s="1" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/ztzl/pcxczyjsgk/bmys/11336641.html</t>
+        </is>
+      </c>
+      <c r="H21" s="1" t="inlineStr">
+        <is>
+          <t>平昌县交通运输局 2019年度部门预算公开目录</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-17 14:20</t>
+        </is>
+      </c>
+      <c r="B22" s="1" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/group3/M00/15/4D/rBUtImeMXwSAVtJtAALSAEBoK14098.xls</t>
+        </is>
+      </c>
+      <c r="C22" s="1" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=61250225960e4cfbaab9b60ccc45ab53&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D22" s="1" t="inlineStr">
+        <is>
+          <t>养老养老保险</t>
+        </is>
+      </c>
+      <c r="E22" s="1" t="inlineStr">
+        <is>
+          <t>养老保险</t>
+        </is>
+      </c>
+      <c r="F22" s="1" t="inlineStr">
+        <is>
+          <t>平昌县江口镇2018年部门决算公开表.xls</t>
+        </is>
+      </c>
+      <c r="G22" s="1" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/ztzl/pcxczyjsgk/bmjs/11339661.html</t>
+        </is>
+      </c>
+      <c r="H22" s="1" t="inlineStr">
+        <is>
+          <t>平昌县江口镇人民政府2017年部门决算编制说明</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-17 14:21</t>
+        </is>
+      </c>
+      <c r="B23" s="1" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/group3/M00/0F/1B/rBUtImVLA06Ae4bEAAFGAExLj1s441.xls</t>
+        </is>
+      </c>
+      <c r="C23" s="1" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=39e36fd6012c448ba4681e15afce7851&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D23" s="1" t="inlineStr">
+        <is>
+          <t>养老养老保险</t>
+        </is>
+      </c>
+      <c r="E23" s="1" t="inlineStr">
+        <is>
+          <t>养老保险</t>
+        </is>
+      </c>
+      <c r="F23" s="1" t="inlineStr">
+        <is>
+          <t>2018年度部门预算公开表.xls</t>
+        </is>
+      </c>
+      <c r="G23" s="1" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/public/6602401/13901460.html</t>
+        </is>
+      </c>
+      <c r="H23" s="1" t="inlineStr">
+        <is>
+          <t>平昌县综合行政执法局2018年度部门预算公开</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-17 14:21</t>
+        </is>
+      </c>
+      <c r="B24" s="1" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/group3/M00/0D/E3/rBUtImSFN7eAeQOnAALqAAhw9bo368.xls</t>
+        </is>
+      </c>
+      <c r="C24" s="1" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=b6579924694646a783a70147dac9d2ea&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D24" s="1" t="inlineStr">
+        <is>
+          <t>养老养老保险</t>
+        </is>
+      </c>
+      <c r="E24" s="1" t="inlineStr">
+        <is>
+          <t>养老保险</t>
+        </is>
+      </c>
+      <c r="F24" s="1" t="inlineStr">
+        <is>
+          <t>2019年预算表.xls</t>
+        </is>
+      </c>
+      <c r="G24" s="1" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/public/6602001/13865939.html</t>
+        </is>
+      </c>
+      <c r="H24" s="1" t="inlineStr">
+        <is>
+          <t>平昌县人力资源和社会保障局2019年度部门预算公开目录</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-17 14:21</t>
+        </is>
+      </c>
+      <c r="B25" s="1" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/group3/M00/15/4C/rBUtImeKEy-APdGgAAD8AOSF_-4664.xls</t>
+        </is>
+      </c>
+      <c r="C25" s="1" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=2594350f67bc4b40a25883050b74f968&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D25" s="1" t="inlineStr">
+        <is>
+          <t>养老养老保险</t>
+        </is>
+      </c>
+      <c r="E25" s="1" t="inlineStr">
+        <is>
+          <t>养老保险</t>
+        </is>
+      </c>
+      <c r="F25" s="1" t="inlineStr">
+        <is>
+          <t>2018年部门预算公开表（县志办）.xls</t>
+        </is>
+      </c>
+      <c r="G25" s="1" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/ztzl/pcxczyjsgk/bmys/11336411.html</t>
+        </is>
+      </c>
+      <c r="H25" s="1" t="inlineStr">
+        <is>
+          <t>平昌县志办2018部门预算公开</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-17 14:22</t>
+        </is>
+      </c>
+      <c r="B26" s="1" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/group3/M00/0E/33/rBUtImSL4EGATDOBAAJMAM5XOwE913.xls</t>
+        </is>
+      </c>
+      <c r="C26" s="1" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=4cbc810f6ad9491f950d5bd2530274f6&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D26" s="1" t="inlineStr">
+        <is>
+          <t>养老养老保险</t>
+        </is>
+      </c>
+      <c r="E26" s="1" t="inlineStr">
+        <is>
+          <t>养老保险</t>
+        </is>
+      </c>
+      <c r="F26" s="1" t="inlineStr">
+        <is>
+          <t>2019年灵山镇部门预算公开.xls</t>
+        </is>
+      </c>
+      <c r="G26" s="1" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/public/6603741/13863167.html</t>
+        </is>
+      </c>
+      <c r="H26" s="1" t="inlineStr">
+        <is>
+          <t>平昌县灵山镇2019年度部门预算公开</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-17 14:22</t>
+        </is>
+      </c>
+      <c r="B27" s="1" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/group3/M00/15/4D/rBUtImeMYNiAKQNcAAUQAANnWB0365.xls</t>
+        </is>
+      </c>
+      <c r="C27" s="1" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=ac9408204d5443d38111a512ba9e6f53&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D27" s="1" t="inlineStr">
+        <is>
+          <t>养老养老保险</t>
+        </is>
+      </c>
+      <c r="E27" s="1" t="inlineStr">
+        <is>
+          <t>养老保险</t>
+        </is>
+      </c>
+      <c r="F27" s="1" t="inlineStr">
+        <is>
+          <t>平昌县教育科技和体育局2019年部门预算公开表.xls</t>
+        </is>
+      </c>
+      <c r="G27" s="1" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/ztzl/pcxczyjsgk/bmys/11336911.html</t>
+        </is>
+      </c>
+      <c r="H27" s="1" t="inlineStr">
+        <is>
+          <t>平昌县教育科技和体育局2019年度部门预算公开目录</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-17 14:22</t>
+        </is>
+      </c>
+      <c r="B28" s="1" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/group3/M00/15/4D/rBUtImeMYVqAF8YlAAJ4ABvxEhk218.xls</t>
+        </is>
+      </c>
+      <c r="C28" s="1" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=3f34783ee8034288862066d1aadd6677&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D28" s="1" t="inlineStr">
+        <is>
+          <t>养老养老保险</t>
+        </is>
+      </c>
+      <c r="E28" s="1" t="inlineStr">
+        <is>
+          <t>养老保险</t>
+        </is>
+      </c>
+      <c r="F28" s="1" t="inlineStr">
+        <is>
+          <t>2018年部门预算公开表教科体局（含下属单位）.xls</t>
+        </is>
+      </c>
+      <c r="G28" s="1" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/ztzl/pcxczyjsgk/bmys/11336381.html</t>
+        </is>
+      </c>
+      <c r="H28" s="1" t="inlineStr">
+        <is>
+          <t>县教科体局（含下属单位）2018部门预算公开</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-18 08:52</t>
+        </is>
+      </c>
+      <c r="B29" s="1" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/ztzl/lhzt/13982919.html</t>
+        </is>
+      </c>
+      <c r="C29" s="1" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=414d3748d1f14b43a0314ea51524cbfa&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D29" s="1" t="inlineStr">
+        <is>
+          <t>贯彻党中央国务院</t>
+        </is>
+      </c>
+      <c r="E29" s="1" t="inlineStr">
+        <is>
+          <t>贯彻党中央、国务院</t>
+        </is>
+      </c>
+      <c r="F29" s="1" t="inlineStr">
+        <is>
+          <t>【两会报道】县十九届人大六次会议开幕</t>
+        </is>
+      </c>
+      <c r="G29" s="1" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/ztzl/lhzt/index.html</t>
+        </is>
+      </c>
+      <c r="H29" s="1" t="inlineStr">
+        <is>
+          <t>两会专题</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-18 08:52</t>
+        </is>
+      </c>
+      <c r="B30" s="1" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/ywdt/pcyw/13982900.html</t>
+        </is>
+      </c>
+      <c r="C30" s="1" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=3745aa683d1d49a8a2047cee97a29f55&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D30" s="1" t="inlineStr">
+        <is>
+          <t>贯彻党中央国务院</t>
+        </is>
+      </c>
+      <c r="E30" s="1" t="inlineStr">
+        <is>
+          <t>贯彻党中央、国务院</t>
+        </is>
+      </c>
+      <c r="F30" s="1" t="inlineStr">
+        <is>
+          <t>【两会报道】县十九届人大六次会议开幕</t>
+        </is>
+      </c>
+      <c r="G30" s="1" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/</t>
+        </is>
+      </c>
+      <c r="H30" s="1" t="inlineStr">
+        <is>
+          <t>平昌县人民政府</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>2025-02-18 08:59</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/group3/M00/15/4D/rBUtImeMYbOAaeLtAANAACCoI70783.xls</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=ec2a3d78772e440692e43fcd73912c6a&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>养老养老保险</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>养老保险</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>平昌县水利局2019年部门预算公开表.xls</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/ztzl/pcxczyjsgk/bmys/11337081.html</t>
+        </is>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/pcxzf/pcxzf/jiyuehua/kaipumodify/modifyfile/sendfile/网站改错记录.xlsx
+++ b/pcxzf/pcxzf/jiyuehua/kaipumodify/modifyfile/sendfile/网站改错记录.xlsx
@@ -1217,7 +1217,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:H44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="$A1:$XFD1"/>
@@ -2466,39 +2466,585 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr">
+      <c r="A31" s="1" t="inlineStr">
         <is>
           <t>2025-02-18 08:59</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B31" s="1" t="inlineStr">
         <is>
           <t>http://www.scpc.gov.cn/group3/M00/15/4D/rBUtImeMYbOAaeLtAANAACCoI70783.xls</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="C31" s="1" t="inlineStr">
         <is>
           <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=ec2a3d78772e440692e43fcd73912c6a&amp;type=0</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="D31" s="1" t="inlineStr">
         <is>
           <t>养老养老保险</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="E31" s="1" t="inlineStr">
         <is>
           <t>养老保险</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="F31" s="1" t="inlineStr">
         <is>
           <t>平昌县水利局2019年部门预算公开表.xls</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="G31" s="1" t="inlineStr">
         <is>
           <t>http://www.scpc.gov.cn/ztzl/pcxczyjsgk/bmys/11337081.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-18 17:16</t>
+        </is>
+      </c>
+      <c r="B32" s="1" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/ztzl/yfzx/13482091.html</t>
+        </is>
+      </c>
+      <c r="C32" s="1" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=6df21ed732a845fe95d3152b58e2bde9&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D32" s="1" t="inlineStr">
+        <is>
+          <t>以习近平新时代中国特色社会主义思想重要思想为指导</t>
+        </is>
+      </c>
+      <c r="E32" s="1" t="inlineStr">
+        <is>
+          <t>以习近平新时代中国特色社会主义思想为指导</t>
+        </is>
+      </c>
+      <c r="F32" s="1" t="inlineStr">
+        <is>
+          <t>中共得胜镇委员会 得胜镇人民政府 2020年度法治政府建设工作报告</t>
+        </is>
+      </c>
+      <c r="G32" s="1" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/content/column/6790051?pageIndex=14</t>
+        </is>
+      </c>
+      <c r="H32" s="1" t="inlineStr">
+        <is>
+          <t>翻页</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-19 09:02</t>
+        </is>
+      </c>
+      <c r="B33" s="1" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/ywdt/pcyw/9989581.html</t>
+        </is>
+      </c>
+      <c r="C33" s="1" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=3d473de8c77f4157b51c2f49d240e233&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D33" s="1" t="inlineStr">
+        <is>
+          <t>十九大会议</t>
+        </is>
+      </c>
+      <c r="E33" s="1" t="inlineStr">
+        <is>
+          <t>党的十九大</t>
+        </is>
+      </c>
+      <c r="F33" s="1" t="inlineStr">
+        <is>
+          <t>【深入贯彻十九大精神】大寨镇多措并举宣讲党的十九大精神</t>
+        </is>
+      </c>
+      <c r="G33" s="1" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/content/column/6789791?pageIndex=857</t>
+        </is>
+      </c>
+      <c r="H33" s="1" t="inlineStr">
+        <is>
+          <t>翻页</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-20 09:08</t>
+        </is>
+      </c>
+      <c r="B34" s="1" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/group3/M00/0E/7B/rBUtImTlwqyAVw80AB7MOyiflvI965.pdf</t>
+        </is>
+      </c>
+      <c r="C34" s="1" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=d58ea60d810a4630afa095c8cd7f3057&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D34" s="1" t="inlineStr">
+        <is>
+          <t>建设项目环境保护管理条列</t>
+        </is>
+      </c>
+      <c r="E34" s="1" t="inlineStr">
+        <is>
+          <t>建设项目环境保护管理条例</t>
+        </is>
+      </c>
+      <c r="F34" s="1" t="inlineStr">
+        <is>
+          <t>平昌经开区鲜味食品生产线建设项目-公示本.pdf</t>
+        </is>
+      </c>
+      <c r="G34" s="1" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/public/6602261/13883611.html</t>
+        </is>
+      </c>
+      <c r="H34" s="1" t="inlineStr">
+        <is>
+          <t>关于2023年8月23日已受理建设项目环评文件公告(平昌经开区鲜味食品生产线建设项目</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-20 09:08</t>
+        </is>
+      </c>
+      <c r="B35" s="1" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/group3/M00/0E/7B/rBUtImTlwqyAVw80AB7MOyiflvI965.pdf</t>
+        </is>
+      </c>
+      <c r="C35" s="1" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=16a43fc1dff54765860d6440262bbeb7&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D35" s="1" t="inlineStr">
+        <is>
+          <t>《建设项目环境管理保护条列》</t>
+        </is>
+      </c>
+      <c r="E35" s="1" t="inlineStr">
+        <is>
+          <t>《建设项目环境保护管理条例》</t>
+        </is>
+      </c>
+      <c r="F35" s="1" t="inlineStr">
+        <is>
+          <t>平昌经开区鲜味食品生产线建设项目-公示本.pdf</t>
+        </is>
+      </c>
+      <c r="G35" s="1" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/public/6602261/13883611.html</t>
+        </is>
+      </c>
+      <c r="H35" s="1" t="inlineStr">
+        <is>
+          <t>关于2023年8月23日已受理建设项目环评文件公告(平昌经开区鲜味食品生产线建设项目</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-20 09:08</t>
+        </is>
+      </c>
+      <c r="B36" s="1" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/group3/M00/0E/7B/rBUtImTlwqyAVw80AB7MOyiflvI965.pdf</t>
+        </is>
+      </c>
+      <c r="C36" s="1" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=025ccb645e4948c0b5b72f34eb038a98&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D36" s="1" t="inlineStr">
+        <is>
+          <t>《建设项目环境管理保护条列》</t>
+        </is>
+      </c>
+      <c r="E36" s="1" t="inlineStr">
+        <is>
+          <t>《建设项目环境保护管理条例》</t>
+        </is>
+      </c>
+      <c r="F36" s="1" t="inlineStr">
+        <is>
+          <t>平昌经开区鲜味食品生产线建设项目-公示本.pdf</t>
+        </is>
+      </c>
+      <c r="G36" s="1" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/public/6602261/13883611.html</t>
+        </is>
+      </c>
+      <c r="H36" s="1" t="inlineStr">
+        <is>
+          <t>关于2023年8月24日已受理建设项目环评文件公告(平昌经开区鲜味食品生产线建设项目)</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-20 09:08</t>
+        </is>
+      </c>
+      <c r="B37" s="1" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/group3/M00/0E/7B/rBUtImTlwqyAVw80AB7MOyiflvI965.pdf</t>
+        </is>
+      </c>
+      <c r="C37" s="1" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=bc35c0986884478a9c9cb4ff579e29f3&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D37" s="1" t="inlineStr">
+        <is>
+          <t>建设项目环境保护管理条列</t>
+        </is>
+      </c>
+      <c r="E37" s="1" t="inlineStr">
+        <is>
+          <t>建设项目环境保护管理条例</t>
+        </is>
+      </c>
+      <c r="F37" s="1" t="inlineStr">
+        <is>
+          <t>平昌经开区鲜味食品生产线建设项目-公示本.pdf</t>
+        </is>
+      </c>
+      <c r="G37" s="1" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/public/6602261/13883611.html</t>
+        </is>
+      </c>
+      <c r="H37" s="1" t="inlineStr">
+        <is>
+          <t>关于2023年8月24日已受理建设项目环评文件公告(平昌经开区鲜味食品生产线建设项目)</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-20 09:08</t>
+        </is>
+      </c>
+      <c r="B38" s="1" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/group3/M00/11/62/rBUtImYLxj2AdHByAAHVZWhVKRs395.pdf</t>
+        </is>
+      </c>
+      <c r="C38" s="1" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=88af267623164d3da3084acc1e8247b2&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D38" s="1" t="inlineStr">
+        <is>
+          <t>《四川省消防条列》</t>
+        </is>
+      </c>
+      <c r="E38" s="1" t="inlineStr">
+        <is>
+          <t>《四川省消防条例》</t>
+        </is>
+      </c>
+      <c r="F38" s="1" t="inlineStr">
+        <is>
+          <t>平昌县2024年3月行政处罚信用信息公示数据汇总表.pdf</t>
+        </is>
+      </c>
+      <c r="G38" s="1" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/ztzl/xyxxsgs/xzcf/13933900.html</t>
+        </is>
+      </c>
+      <c r="H38" s="1" t="inlineStr">
+        <is>
+          <t>平昌县2024年3月行政处罚信用信息公示数据汇总表</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-20 09:08</t>
+        </is>
+      </c>
+      <c r="B39" s="1" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/group3/M00/11/62/rBUtImYLxj2AdHByAAHVZWhVKRs395.pdf</t>
+        </is>
+      </c>
+      <c r="C39" s="1" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=b4dcdb2db3da418b99345001dcb6341c&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D39" s="1" t="inlineStr">
+        <is>
+          <t>《四川省消防条列》</t>
+        </is>
+      </c>
+      <c r="E39" s="1" t="inlineStr">
+        <is>
+          <t>《四川省消防条例》</t>
+        </is>
+      </c>
+      <c r="F39" s="1" t="inlineStr">
+        <is>
+          <t>平昌县2024年3月行政处罚信用信息公示数据汇总表.pdf</t>
+        </is>
+      </c>
+      <c r="G39" s="1" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/ztzl/xyxxsgs/xzcf/13933900.html</t>
+        </is>
+      </c>
+      <c r="H39" s="1" t="inlineStr">
+        <is>
+          <t>平昌县2024年3月行政处罚信用信息公示数据汇总表</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-20 09:08</t>
+        </is>
+      </c>
+      <c r="B40" s="1" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/group3/M00/12/74/rBUtImcF4DqAc584AATapxb_8rw184.pdf</t>
+        </is>
+      </c>
+      <c r="C40" s="1" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=b582fe48eb8549b5ba67ebe96789a787&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D40" s="1" t="inlineStr">
+        <is>
+          <t>《四川省消防条列》</t>
+        </is>
+      </c>
+      <c r="E40" s="1" t="inlineStr">
+        <is>
+          <t>《四川省消防条例》</t>
+        </is>
+      </c>
+      <c r="F40" s="1" t="inlineStr">
+        <is>
+          <t>平昌县2024年9月行政处罚信用信息公示数据汇总表.pdf</t>
+        </is>
+      </c>
+      <c r="G40" s="1" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/ztzl/xyxxsgs/xzcf/13965519.html</t>
+        </is>
+      </c>
+      <c r="H40" s="1" t="inlineStr">
+        <is>
+          <t>平昌县2024年9月行政处罚信用信息公示数据汇总表</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-20 09:08</t>
+        </is>
+      </c>
+      <c r="B41" s="1" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/group3/M00/12/74/rBUtImcF4DqAc584AATapxb_8rw184.pdf</t>
+        </is>
+      </c>
+      <c r="C41" s="1" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=9f9f51909d6946eab43f6cc146e44f9e&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D41" s="1" t="inlineStr">
+        <is>
+          <t>《四川省消防条列》</t>
+        </is>
+      </c>
+      <c r="E41" s="1" t="inlineStr">
+        <is>
+          <t>《四川省消防条例》</t>
+        </is>
+      </c>
+      <c r="F41" s="1" t="inlineStr">
+        <is>
+          <t>平昌县2024年9月行政处罚信用信息公示数据汇总表.pdf</t>
+        </is>
+      </c>
+      <c r="G41" s="1" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/ztzl/xyxxsgs/xzcf/13965519.html</t>
+        </is>
+      </c>
+      <c r="H41" s="1" t="inlineStr">
+        <is>
+          <t>平昌县2024年9月行政处罚信用信息公示数据汇总表</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-20 09:08</t>
+        </is>
+      </c>
+      <c r="B42" s="1" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/group3/M00/15/14/rBUtImdOe5aAStW7AAIy10AnzWA171.pdf</t>
+        </is>
+      </c>
+      <c r="C42" s="1" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=e893710b7d9e412b8a971661547d4fba&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D42" s="1" t="inlineStr">
+        <is>
+          <t>《四川省消防条列》</t>
+        </is>
+      </c>
+      <c r="E42" s="1" t="inlineStr">
+        <is>
+          <t>《四川省消防条例》</t>
+        </is>
+      </c>
+      <c r="F42" s="1" t="inlineStr">
+        <is>
+          <t>平昌县2024年11月行政处罚信用信息公示数据汇总表.pdf</t>
+        </is>
+      </c>
+      <c r="G42" s="1" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/ztzl/xyxxsgs/xzcf/13973215.html</t>
+        </is>
+      </c>
+      <c r="H42" s="1" t="inlineStr">
+        <is>
+          <t>平昌县2024年11月行政处罚信用信息公示数据汇总表</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-20 14:12</t>
+        </is>
+      </c>
+      <c r="B43" s="1" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/zwgk/zdlyxxgk/bdcdj/13983166.html</t>
+        </is>
+      </c>
+      <c r="C43" s="1" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=e4578241a5e24a2a84c03b618bba7484&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D43" s="1" t="inlineStr">
+        <is>
+          <t>《不动产暂行条例实施细则》</t>
+        </is>
+      </c>
+      <c r="E43" s="1" t="inlineStr">
+        <is>
+          <t>《不动产登记暂行条例实施细则》</t>
+        </is>
+      </c>
+      <c r="F43" s="1" t="inlineStr">
+        <is>
+          <t>遗失声明（李沛林）</t>
+        </is>
+      </c>
+      <c r="G43" s="1" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/zwgk/zdlyxxgk/index.html</t>
+        </is>
+      </c>
+      <c r="H43" s="1" t="inlineStr">
+        <is>
+          <t>重点领域信息公开</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>2025-02-20 14:12</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/zwgk/zdlyxxgk/bdcdj/13983166.html</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=5f19ec5edfde444886ae27d30a4e50f1&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>《不动产暂行条例实施细则》</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>《不动产登记暂行条例实施细则》</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>遗失声明（李沛林）</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/zwgk/zdlyxxgk/index.html</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>重点领域信息公开</t>
         </is>
       </c>
     </row>

--- a/pcxzf/pcxzf/jiyuehua/kaipumodify/modifyfile/sendfile/网站改错记录.xlsx
+++ b/pcxzf/pcxzf/jiyuehua/kaipumodify/modifyfile/sendfile/网站改错记录.xlsx
@@ -1217,7 +1217,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H44"/>
+  <dimension ref="A1:H81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="$A1:$XFD1"/>
@@ -3007,44 +3007,1598 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="inlineStr">
+      <c r="A44" s="1" t="inlineStr">
         <is>
           <t>2025-02-20 14:12</t>
         </is>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B44" s="1" t="inlineStr">
         <is>
           <t>http://www.scpc.gov.cn/zwgk/zdlyxxgk/bdcdj/13983166.html</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="C44" s="1" t="inlineStr">
         <is>
           <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=5f19ec5edfde444886ae27d30a4e50f1&amp;type=0</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="D44" s="1" t="inlineStr">
         <is>
           <t>《不动产暂行条例实施细则》</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="E44" s="1" t="inlineStr">
         <is>
           <t>《不动产登记暂行条例实施细则》</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="F44" s="1" t="inlineStr">
         <is>
           <t>遗失声明（李沛林）</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
+      <c r="G44" s="1" t="inlineStr">
         <is>
           <t>http://www.scpc.gov.cn/zwgk/zdlyxxgk/index.html</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
+      <c r="H44" s="1" t="inlineStr">
         <is>
           <t>重点领域信息公开</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-21 09:03</t>
+        </is>
+      </c>
+      <c r="B45" s="1" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/group3/M00/15/65/rBUtImelm9iAEJZeACufkO-Kxas582.pdf</t>
+        </is>
+      </c>
+      <c r="C45" s="1" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=7a1fcf62842d4296a5a19a1d078337d6&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D45" s="1" t="inlineStr">
+        <is>
+          <t>县委、政府</t>
+        </is>
+      </c>
+      <c r="E45" s="1" t="inlineStr">
+        <is>
+          <t>县委、县政府</t>
+        </is>
+      </c>
+      <c r="F45" s="1" t="inlineStr">
+        <is>
+          <t>腻子粉生产项目--公示本.pdf</t>
+        </is>
+      </c>
+      <c r="G45" s="1" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/public/6602261/13851360.html</t>
+        </is>
+      </c>
+      <c r="H45" s="1" t="inlineStr">
+        <is>
+          <t>关于2019年9月26日已受理建设项目环评文件公告(腻子粉生产项目)</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-21 09:03</t>
+        </is>
+      </c>
+      <c r="B46" s="1" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/ztzl/jczwgk/gkly/shjz/zhyw/jdjc/13983350.html</t>
+        </is>
+      </c>
+      <c r="C46" s="1" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=f7d408df692c4785bda47555fd3c5eed&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D46" s="1" t="inlineStr">
+        <is>
+          <t>深人开展</t>
+        </is>
+      </c>
+      <c r="E46" s="1" t="inlineStr">
+        <is>
+          <t>深入开展</t>
+        </is>
+      </c>
+      <c r="F46" s="1" t="inlineStr">
+        <is>
+          <t>平昌县民政局社会救助监督检查情况（2024年第三期）</t>
+        </is>
+      </c>
+      <c r="G46" s="1" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/ztzl/jczwgk/gkly/shjz/zhyw/jdjc/index.html</t>
+        </is>
+      </c>
+      <c r="H46" s="1" t="inlineStr">
+        <is>
+          <t>监督检查</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-21 09:03</t>
+        </is>
+      </c>
+      <c r="B47" s="1" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/ztzl/jczwgk/gkly/shjz/zhyw/jdjc/13983350.html</t>
+        </is>
+      </c>
+      <c r="C47" s="1" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=2124e40a91c046cf9c2ca9ee659441a1&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D47" s="1" t="inlineStr">
+        <is>
+          <t>深人开展</t>
+        </is>
+      </c>
+      <c r="E47" s="1" t="inlineStr">
+        <is>
+          <t>深入开展</t>
+        </is>
+      </c>
+      <c r="F47" s="1" t="inlineStr">
+        <is>
+          <t>平昌县民政局社会救助监督检查情况（2024年第三期）</t>
+        </is>
+      </c>
+      <c r="G47" s="1" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/ztzl/jczwgk/gkly/shjz/zhyw/jdjc/index.html</t>
+        </is>
+      </c>
+      <c r="H47" s="1" t="inlineStr">
+        <is>
+          <t>监督检查</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-21 09:03</t>
+        </is>
+      </c>
+      <c r="B48" s="1" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/group3/M00/15/65/rBUtImelafKAZpClABxDzrvWzzo357.pdf</t>
+        </is>
+      </c>
+      <c r="C48" s="1" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=f189a4f8b7944ded97b43681368eb8eb&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D48" s="1" t="inlineStr">
+        <is>
+          <t>》（试行）</t>
+        </is>
+      </c>
+      <c r="E48" s="1" t="inlineStr">
+        <is>
+          <t>（试行）》</t>
+        </is>
+      </c>
+      <c r="F48" s="1" t="inlineStr">
+        <is>
+          <t>平昌县新庙卫生院业务综合楼建设项目--公示本.pdf</t>
+        </is>
+      </c>
+      <c r="G48" s="1" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/public/6602261/13851537.html</t>
+        </is>
+      </c>
+      <c r="H48" s="1" t="inlineStr">
+        <is>
+          <t>关于2017年9月21日已受理建设项目环评文件公告</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-21 09:03</t>
+        </is>
+      </c>
+      <c r="B49" s="1" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/group3/M00/15/65/rBUtImelafKAZpClABxDzrvWzzo357.pdf</t>
+        </is>
+      </c>
+      <c r="C49" s="1" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=5400a723b8a345fe9bbe6c3e9f85f00b&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D49" s="1" t="inlineStr">
+        <is>
+          <t>中华人民共和国《药品管理法》</t>
+        </is>
+      </c>
+      <c r="E49" s="1" t="inlineStr">
+        <is>
+          <t>《中华人民共和国药品管理法》</t>
+        </is>
+      </c>
+      <c r="F49" s="1" t="inlineStr">
+        <is>
+          <t>平昌县新庙卫生院业务综合楼建设项目--公示本.pdf</t>
+        </is>
+      </c>
+      <c r="G49" s="1" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/public/6602261/13851537.html</t>
+        </is>
+      </c>
+      <c r="H49" s="1" t="inlineStr">
+        <is>
+          <t>关于2017年9月21日已受理建设项目环评文件公告</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-21 09:03</t>
+        </is>
+      </c>
+      <c r="B50" s="1" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/zwgk/zdlyxxgk/bdcdj/13983320.html</t>
+        </is>
+      </c>
+      <c r="C50" s="1" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=00d6a647ed3742ceab3d8f5c585d7fe5&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D50" s="1" t="inlineStr">
+        <is>
+          <t>《不动产暂行条例实施细则》</t>
+        </is>
+      </c>
+      <c r="E50" s="1" t="inlineStr">
+        <is>
+          <t>《不动产登记暂行条例实施细则》</t>
+        </is>
+      </c>
+      <c r="F50" s="1" t="inlineStr">
+        <is>
+          <t>遗失声明（吴勇祥）</t>
+        </is>
+      </c>
+      <c r="G50" s="1" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/zwgk/zdlyxxgk/bdcdj/index.html</t>
+        </is>
+      </c>
+      <c r="H50" s="1" t="inlineStr">
+        <is>
+          <t>不动产登记</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-21 09:03</t>
+        </is>
+      </c>
+      <c r="B51" s="1" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/zwgk/zdlyxxgk/bdcdj/13983320.html</t>
+        </is>
+      </c>
+      <c r="C51" s="1" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=005c6df01b644988b22e265e8d1b95d0&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D51" s="1" t="inlineStr">
+        <is>
+          <t>《不动产暂行条例实施细则》</t>
+        </is>
+      </c>
+      <c r="E51" s="1" t="inlineStr">
+        <is>
+          <t>《不动产登记暂行条例实施细则》</t>
+        </is>
+      </c>
+      <c r="F51" s="1" t="inlineStr">
+        <is>
+          <t>遗失声明（吴勇祥）</t>
+        </is>
+      </c>
+      <c r="G51" s="1" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/zwgk/zdlyxxgk/bdcdj/index.html</t>
+        </is>
+      </c>
+      <c r="H51" s="1" t="inlineStr">
+        <is>
+          <t>不动产登记</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-22 09:32</t>
+        </is>
+      </c>
+      <c r="B52" s="1" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/ywdt/pcyw/13983655.html</t>
+        </is>
+      </c>
+      <c r="C52" s="1" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=54d0c86b541c4c04bda957893ef486dd&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D52" s="1" t="inlineStr">
+        <is>
+          <t>县委政府</t>
+        </is>
+      </c>
+      <c r="E52" s="1" t="inlineStr">
+        <is>
+          <t>县委县政府</t>
+        </is>
+      </c>
+      <c r="F52" s="1" t="inlineStr">
+        <is>
+          <t>张勋出席指导县发改局党组班子2024年度民主生活会</t>
+        </is>
+      </c>
+      <c r="G52" s="1" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/</t>
+        </is>
+      </c>
+      <c r="H52" s="1" t="inlineStr">
+        <is>
+          <t>平昌县人民政府</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-22 09:32</t>
+        </is>
+      </c>
+      <c r="B53" s="1" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/ztzl/pcxczyjsgk/bmys/11336941.html</t>
+        </is>
+      </c>
+      <c r="C53" s="1" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=890946807aa04397ba4b295ea6fff868&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D53" s="1" t="inlineStr">
+        <is>
+          <t>“三公经费”</t>
+        </is>
+      </c>
+      <c r="E53" s="1" t="inlineStr">
+        <is>
+          <t>“三公”经费</t>
+        </is>
+      </c>
+      <c r="F53" s="1" t="inlineStr">
+        <is>
+          <t>平昌县经济和信息化局2019年度部门预算公开目录</t>
+        </is>
+      </c>
+      <c r="G53" s="1" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/content/column/6794785?pageIndex=28</t>
+        </is>
+      </c>
+      <c r="H53" s="1" t="inlineStr">
+        <is>
+          <t>翻页</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-22 09:32</t>
+        </is>
+      </c>
+      <c r="B54" s="1" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/ztzl/pcxczyjsgk/bmys/11336941.html</t>
+        </is>
+      </c>
+      <c r="C54" s="1" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=e655fbb6f2ba480ab3ca0bd60baff019&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D54" s="1" t="inlineStr">
+        <is>
+          <t>“三公经费”</t>
+        </is>
+      </c>
+      <c r="E54" s="1" t="inlineStr">
+        <is>
+          <t>“三公”经费</t>
+        </is>
+      </c>
+      <c r="F54" s="1" t="inlineStr">
+        <is>
+          <t>平昌县经济和信息化局2019年度部门预算公开目录</t>
+        </is>
+      </c>
+      <c r="G54" s="1" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/content/column/6794785?pageIndex=28</t>
+        </is>
+      </c>
+      <c r="H54" s="1" t="inlineStr">
+        <is>
+          <t>翻页</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-22 09:32</t>
+        </is>
+      </c>
+      <c r="B55" s="1" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/ztzl/pcxczyjsgk/bmys/13859179.html</t>
+        </is>
+      </c>
+      <c r="C55" s="1" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=7399d56ccda04ade8d0f2b6c3c219f93&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D55" s="1" t="inlineStr">
+        <is>
+          <t>人力资源和社会保险</t>
+        </is>
+      </c>
+      <c r="E55" s="1" t="inlineStr">
+        <is>
+          <t>人力资源和社会保障</t>
+        </is>
+      </c>
+      <c r="F55" s="1" t="inlineStr">
+        <is>
+          <t>平昌县人力资源和社会保障局2023年部门预算公开</t>
+        </is>
+      </c>
+      <c r="G55" s="1" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/content/column/6794785?pageIndex=8</t>
+        </is>
+      </c>
+      <c r="H55" s="1" t="inlineStr">
+        <is>
+          <t>翻页</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-22 09:32</t>
+        </is>
+      </c>
+      <c r="B56" s="1" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/ztzl/pcxczyjsgk/bmys/11337011.html</t>
+        </is>
+      </c>
+      <c r="C56" s="1" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=d3428fef23124fb4a4271edf2981c6b3&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D56" s="1" t="inlineStr">
+        <is>
+          <t>“三公经费”</t>
+        </is>
+      </c>
+      <c r="E56" s="1" t="inlineStr">
+        <is>
+          <t>“三公”经费</t>
+        </is>
+      </c>
+      <c r="F56" s="1" t="inlineStr">
+        <is>
+          <t>平昌县财政局2019年度部门预算公开目录</t>
+        </is>
+      </c>
+      <c r="G56" s="1" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/content/column/6794785?pageIndex=29</t>
+        </is>
+      </c>
+      <c r="H56" s="1" t="inlineStr">
+        <is>
+          <t>翻页</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-22 09:32</t>
+        </is>
+      </c>
+      <c r="B57" s="1" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/ztzl/pcxczyjsgk/bmys/11337011.html</t>
+        </is>
+      </c>
+      <c r="C57" s="1" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=90b796b511324bb68ce7c292b519796f&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D57" s="1" t="inlineStr">
+        <is>
+          <t>“三公经费”</t>
+        </is>
+      </c>
+      <c r="E57" s="1" t="inlineStr">
+        <is>
+          <t>“三公”经费</t>
+        </is>
+      </c>
+      <c r="F57" s="1" t="inlineStr">
+        <is>
+          <t>平昌县财政局2019年度部门预算公开目录</t>
+        </is>
+      </c>
+      <c r="G57" s="1" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/content/column/6794785?pageIndex=29</t>
+        </is>
+      </c>
+      <c r="H57" s="1" t="inlineStr">
+        <is>
+          <t>翻页</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-22 09:32</t>
+        </is>
+      </c>
+      <c r="B58" s="1" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/ztzl/pcxczyjsgk/bmys/11337101.html</t>
+        </is>
+      </c>
+      <c r="C58" s="1" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=a856490ede8142d3821f0ba833f127f8&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D58" s="1" t="inlineStr">
+        <is>
+          <t>“三公经费”</t>
+        </is>
+      </c>
+      <c r="E58" s="1" t="inlineStr">
+        <is>
+          <t>“三公”经费</t>
+        </is>
+      </c>
+      <c r="F58" s="1" t="inlineStr">
+        <is>
+          <t>平昌县纪委2019年度部门预算公开目录</t>
+        </is>
+      </c>
+      <c r="G58" s="1" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/content/column/6794785?pageIndex=27</t>
+        </is>
+      </c>
+      <c r="H58" s="1" t="inlineStr">
+        <is>
+          <t>翻页</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-22 09:32</t>
+        </is>
+      </c>
+      <c r="B59" s="1" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/ztzl/pcxczyjsgk/bmys/11337101.html</t>
+        </is>
+      </c>
+      <c r="C59" s="1" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=ded39bdeab95482c92c06ecbbb8ba1f5&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D59" s="1" t="inlineStr">
+        <is>
+          <t>“三公经费”</t>
+        </is>
+      </c>
+      <c r="E59" s="1" t="inlineStr">
+        <is>
+          <t>“三公”经费</t>
+        </is>
+      </c>
+      <c r="F59" s="1" t="inlineStr">
+        <is>
+          <t>平昌县纪委2019年度部门预算公开目录</t>
+        </is>
+      </c>
+      <c r="G59" s="1" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/content/column/6794785?pageIndex=27</t>
+        </is>
+      </c>
+      <c r="H59" s="1" t="inlineStr">
+        <is>
+          <t>翻页</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-22 09:32</t>
+        </is>
+      </c>
+      <c r="B60" s="1" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/ztzl/pcxczyjsgk/bmys/11337091.html</t>
+        </is>
+      </c>
+      <c r="C60" s="1" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=c756593c1214489d91384a26e6ea2a32&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D60" s="1" t="inlineStr">
+        <is>
+          <t>“三公经费”</t>
+        </is>
+      </c>
+      <c r="E60" s="1" t="inlineStr">
+        <is>
+          <t>“三公”经费</t>
+        </is>
+      </c>
+      <c r="F60" s="1" t="inlineStr">
+        <is>
+          <t>平昌县团县委2019年度部门预算公开目录</t>
+        </is>
+      </c>
+      <c r="G60" s="1" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/content/column/6794785?pageIndex=25</t>
+        </is>
+      </c>
+      <c r="H60" s="1" t="inlineStr">
+        <is>
+          <t>翻页</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-22 09:32</t>
+        </is>
+      </c>
+      <c r="B61" s="1" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/ztzl/pcxczyjsgk/bmys/11337091.html</t>
+        </is>
+      </c>
+      <c r="C61" s="1" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=76af991d3cea450ba704bee19dbe8828&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D61" s="1" t="inlineStr">
+        <is>
+          <t>“三公经费”</t>
+        </is>
+      </c>
+      <c r="E61" s="1" t="inlineStr">
+        <is>
+          <t>“三公”经费</t>
+        </is>
+      </c>
+      <c r="F61" s="1" t="inlineStr">
+        <is>
+          <t>平昌县团县委2019年度部门预算公开目录</t>
+        </is>
+      </c>
+      <c r="G61" s="1" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/content/column/6794785?pageIndex=25</t>
+        </is>
+      </c>
+      <c r="H61" s="1" t="inlineStr">
+        <is>
+          <t>翻页</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-22 09:32</t>
+        </is>
+      </c>
+      <c r="B62" s="1" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/ztzl/pcxczyjsgk/bmys/11336831.html</t>
+        </is>
+      </c>
+      <c r="C62" s="1" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=44d704116907432fbc8538a95a42fa03&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D62" s="1" t="inlineStr">
+        <is>
+          <t>“三公经费”</t>
+        </is>
+      </c>
+      <c r="E62" s="1" t="inlineStr">
+        <is>
+          <t>“三公”经费</t>
+        </is>
+      </c>
+      <c r="F62" s="1" t="inlineStr">
+        <is>
+          <t>中共平昌县委统战部2019年度部门预算公开目录</t>
+        </is>
+      </c>
+      <c r="G62" s="1" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/content/column/6794785?pageIndex=28</t>
+        </is>
+      </c>
+      <c r="H62" s="1" t="inlineStr">
+        <is>
+          <t>翻页</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-22 09:32</t>
+        </is>
+      </c>
+      <c r="B63" s="1" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/ztzl/pcxczyjsgk/bmys/11336831.html</t>
+        </is>
+      </c>
+      <c r="C63" s="1" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=55132d0da4ad48128f6eaaf953a267ba&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D63" s="1" t="inlineStr">
+        <is>
+          <t>“三公经费”</t>
+        </is>
+      </c>
+      <c r="E63" s="1" t="inlineStr">
+        <is>
+          <t>“三公”经费</t>
+        </is>
+      </c>
+      <c r="F63" s="1" t="inlineStr">
+        <is>
+          <t>中共平昌县委统战部2019年度部门预算公开目录</t>
+        </is>
+      </c>
+      <c r="G63" s="1" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/content/column/6794785?pageIndex=28</t>
+        </is>
+      </c>
+      <c r="H63" s="1" t="inlineStr">
+        <is>
+          <t>翻页</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-22 09:32</t>
+        </is>
+      </c>
+      <c r="B64" s="1" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/ztzl/pcxczyjsgk/bmys/11337051.html</t>
+        </is>
+      </c>
+      <c r="C64" s="1" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=3142e40df8354b87adc7c9b457c0b502&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D64" s="1" t="inlineStr">
+        <is>
+          <t>“三公经费”</t>
+        </is>
+      </c>
+      <c r="E64" s="1" t="inlineStr">
+        <is>
+          <t>“三公”经费</t>
+        </is>
+      </c>
+      <c r="F64" s="1" t="inlineStr">
+        <is>
+          <t>平昌县行政审批局2019年度部门预算公开目录</t>
+        </is>
+      </c>
+      <c r="G64" s="1" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/content/column/6794785?pageIndex=27</t>
+        </is>
+      </c>
+      <c r="H64" s="1" t="inlineStr">
+        <is>
+          <t>翻页</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-22 09:32</t>
+        </is>
+      </c>
+      <c r="B65" s="1" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/ztzl/pcxczyjsgk/bmys/11337051.html</t>
+        </is>
+      </c>
+      <c r="C65" s="1" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=d459a7b87fa446b4bed6374ba45ef269&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D65" s="1" t="inlineStr">
+        <is>
+          <t>“三公经费”</t>
+        </is>
+      </c>
+      <c r="E65" s="1" t="inlineStr">
+        <is>
+          <t>“三公”经费</t>
+        </is>
+      </c>
+      <c r="F65" s="1" t="inlineStr">
+        <is>
+          <t>平昌县行政审批局2019年度部门预算公开目录</t>
+        </is>
+      </c>
+      <c r="G65" s="1" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/content/column/6794785?pageIndex=27</t>
+        </is>
+      </c>
+      <c r="H65" s="1" t="inlineStr">
+        <is>
+          <t>翻页</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-22 09:32</t>
+        </is>
+      </c>
+      <c r="B66" s="1" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/ztzl/jczwgk/gkly/shjz/zhyw/zcfgwj/13982684.html</t>
+        </is>
+      </c>
+      <c r="C66" s="1" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=bc4ca2e8082648e58b21fd6ee2ca6a65&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D66" s="1" t="inlineStr">
+        <is>
+          <t>“放、管、服”</t>
+        </is>
+      </c>
+      <c r="E66" s="1" t="inlineStr">
+        <is>
+          <t>“放管服”</t>
+        </is>
+      </c>
+      <c r="F66" s="1" t="inlineStr">
+        <is>
+          <t>关于印发平昌县社会救助审核确认权限下放工作实施方案的通知</t>
+        </is>
+      </c>
+      <c r="G66" s="1" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/ztzl/jczwgk/gkly/shjz/zhyw/zcfgwj/index.html</t>
+        </is>
+      </c>
+      <c r="H66" s="1" t="inlineStr">
+        <is>
+          <t>政策法规文件</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-22 09:32</t>
+        </is>
+      </c>
+      <c r="B67" s="1" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/group3/M00/15/65/rBUtImelXcCADiRyADQFCbvLhhM299.pdf</t>
+        </is>
+      </c>
+      <c r="C67" s="1" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=7dba3e05c3c347ce8a90fa951e5e0327&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D67" s="1" t="inlineStr">
+        <is>
+          <t>》（试行）</t>
+        </is>
+      </c>
+      <c r="E67" s="1" t="inlineStr">
+        <is>
+          <t>（试行）》</t>
+        </is>
+      </c>
+      <c r="F67" s="1" t="inlineStr">
+        <is>
+          <t>平昌经济开发区调味品制造项目--公示本.pdf</t>
+        </is>
+      </c>
+      <c r="G67" s="1" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/public/6602261/13851210.html</t>
+        </is>
+      </c>
+      <c r="H67" s="1" t="inlineStr">
+        <is>
+          <t>关于2022年6月2日已受理建设项目环评文件公告</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-22 09:32</t>
+        </is>
+      </c>
+      <c r="B68" s="1" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/group3/M00/15/65/rBUtImelXcCADiRyADQFCbvLhhM299.pdf</t>
+        </is>
+      </c>
+      <c r="C68" s="1" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=72e1845c41a84754ae62754389fc4823&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D68" s="1" t="inlineStr">
+        <is>
+          <t>》（试行）</t>
+        </is>
+      </c>
+      <c r="E68" s="1" t="inlineStr">
+        <is>
+          <t>（试行）》</t>
+        </is>
+      </c>
+      <c r="F68" s="1" t="inlineStr">
+        <is>
+          <t>平昌经济开发区调味品制造项目--公示本.pdf</t>
+        </is>
+      </c>
+      <c r="G68" s="1" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/public/6602261/13851210.html</t>
+        </is>
+      </c>
+      <c r="H68" s="1" t="inlineStr">
+        <is>
+          <t>关于2022年6月2日已受理建设项目环评文件公告</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-22 09:32</t>
+        </is>
+      </c>
+      <c r="B69" s="1" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/ztzl/pcxczyjsgk/bmys/11337121.html</t>
+        </is>
+      </c>
+      <c r="C69" s="1" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=10a6c3afe8fb42419a6317ff687a31fa&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D69" s="1" t="inlineStr">
+        <is>
+          <t>“三公经费”</t>
+        </is>
+      </c>
+      <c r="E69" s="1" t="inlineStr">
+        <is>
+          <t>“三公”经费</t>
+        </is>
+      </c>
+      <c r="F69" s="1" t="inlineStr">
+        <is>
+          <t>中共平昌县委巡察工作领导小组办公室2019年度部门预算公开目录</t>
+        </is>
+      </c>
+      <c r="G69" s="1" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/content/column/6794785?pageIndex=27</t>
+        </is>
+      </c>
+      <c r="H69" s="1" t="inlineStr">
+        <is>
+          <t>翻页</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-22 09:32</t>
+        </is>
+      </c>
+      <c r="B70" s="1" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/ztzl/pcxczyjsgk/bmys/11337121.html</t>
+        </is>
+      </c>
+      <c r="C70" s="1" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=c2fc780aa88c4729bdce11533280ce3d&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D70" s="1" t="inlineStr">
+        <is>
+          <t>“三公经费”</t>
+        </is>
+      </c>
+      <c r="E70" s="1" t="inlineStr">
+        <is>
+          <t>“三公”经费</t>
+        </is>
+      </c>
+      <c r="F70" s="1" t="inlineStr">
+        <is>
+          <t>中共平昌县委巡察工作领导小组办公室2019年度部门预算公开目录</t>
+        </is>
+      </c>
+      <c r="G70" s="1" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/content/column/6794785?pageIndex=27</t>
+        </is>
+      </c>
+      <c r="H70" s="1" t="inlineStr">
+        <is>
+          <t>翻页</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-22 09:32</t>
+        </is>
+      </c>
+      <c r="B71" s="1" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/ztzl/pcxczyjsgk/bmys/11336571.html</t>
+        </is>
+      </c>
+      <c r="C71" s="1" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=c392f0cbdc1a42b18cdecccfec244086&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D71" s="1" t="inlineStr">
+        <is>
+          <t>“三公经费”</t>
+        </is>
+      </c>
+      <c r="E71" s="1" t="inlineStr">
+        <is>
+          <t>“三公”经费</t>
+        </is>
+      </c>
+      <c r="F71" s="1" t="inlineStr">
+        <is>
+          <t>平昌县佛头山文化产业园管理委员会 2019年度部门预算公开目录</t>
+        </is>
+      </c>
+      <c r="G71" s="1" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/content/column/6794785?pageIndex=30</t>
+        </is>
+      </c>
+      <c r="H71" s="1" t="inlineStr">
+        <is>
+          <t>翻页</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-22 09:32</t>
+        </is>
+      </c>
+      <c r="B72" s="1" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/ztzl/pcxczyjsgk/bmys/11336571.html</t>
+        </is>
+      </c>
+      <c r="C72" s="1" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=1a0147b4b98c41ac9761481b732dfb13&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D72" s="1" t="inlineStr">
+        <is>
+          <t>“三公经费”</t>
+        </is>
+      </c>
+      <c r="E72" s="1" t="inlineStr">
+        <is>
+          <t>“三公”经费</t>
+        </is>
+      </c>
+      <c r="F72" s="1" t="inlineStr">
+        <is>
+          <t>平昌县佛头山文化产业园管理委员会 2019年度部门预算公开目录</t>
+        </is>
+      </c>
+      <c r="G72" s="1" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/content/column/6794785?pageIndex=30</t>
+        </is>
+      </c>
+      <c r="H72" s="1" t="inlineStr">
+        <is>
+          <t>翻页</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-22 09:32</t>
+        </is>
+      </c>
+      <c r="B73" s="1" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/ztzl/pcxczyjsgk/bmys/11337141.html</t>
+        </is>
+      </c>
+      <c r="C73" s="1" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=bb39c668aaca4033b61b7cefa2b8d425&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D73" s="1" t="inlineStr">
+        <is>
+          <t>“三公经费”</t>
+        </is>
+      </c>
+      <c r="E73" s="1" t="inlineStr">
+        <is>
+          <t>“三公”经费</t>
+        </is>
+      </c>
+      <c r="F73" s="1" t="inlineStr">
+        <is>
+          <t>平昌县粮食和物资储备中心2019年度部门预算公开目录</t>
+        </is>
+      </c>
+      <c r="G73" s="1" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/content/column/6794785?pageIndex=25</t>
+        </is>
+      </c>
+      <c r="H73" s="1" t="inlineStr">
+        <is>
+          <t>翻页</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-22 09:32</t>
+        </is>
+      </c>
+      <c r="B74" s="1" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/ztzl/pcxczyjsgk/bmys/11337141.html</t>
+        </is>
+      </c>
+      <c r="C74" s="1" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=56481958bf9d48f08645ce7e878ee96f&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D74" s="1" t="inlineStr">
+        <is>
+          <t>“三公经费”</t>
+        </is>
+      </c>
+      <c r="E74" s="1" t="inlineStr">
+        <is>
+          <t>“三公”经费</t>
+        </is>
+      </c>
+      <c r="F74" s="1" t="inlineStr">
+        <is>
+          <t>平昌县粮食和物资储备中心2019年度部门预算公开目录</t>
+        </is>
+      </c>
+      <c r="G74" s="1" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/content/column/6794785?pageIndex=25</t>
+        </is>
+      </c>
+      <c r="H74" s="1" t="inlineStr">
+        <is>
+          <t>翻页</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-22 09:32</t>
+        </is>
+      </c>
+      <c r="B75" s="1" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/ztzl/pcxczyjsgk/bmys/11337141.html</t>
+        </is>
+      </c>
+      <c r="C75" s="1" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=ce8bf4099e654e6588090662cffe6e0a&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D75" s="1" t="inlineStr">
+        <is>
+          <t>“三公经费”</t>
+        </is>
+      </c>
+      <c r="E75" s="1" t="inlineStr">
+        <is>
+          <t>“三公”经费</t>
+        </is>
+      </c>
+      <c r="F75" s="1" t="inlineStr">
+        <is>
+          <t>平昌县粮食和物资储备中心2019年度部门预算公开目录</t>
+        </is>
+      </c>
+      <c r="G75" s="1" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/content/column/6794785?pageIndex=25</t>
+        </is>
+      </c>
+      <c r="H75" s="1" t="inlineStr">
+        <is>
+          <t>翻页</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-22 09:32</t>
+        </is>
+      </c>
+      <c r="B76" s="1" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/group3/M00/15/65/rBUtImela4WARHAJACDfSuA9uTM718.pdf</t>
+        </is>
+      </c>
+      <c r="C76" s="1" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=6cfb225ba0d740f495d5dec5c720fbac&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D76" s="1" t="inlineStr">
+        <is>
+          <t>坚持生态优先，绿色发展</t>
+        </is>
+      </c>
+      <c r="E76" s="1" t="inlineStr">
+        <is>
+          <t>坚持生态优先、绿色发展</t>
+        </is>
+      </c>
+      <c r="F76" s="1" t="inlineStr">
+        <is>
+          <t>平安103井钻井工程--公示本.pdf</t>
+        </is>
+      </c>
+      <c r="G76" s="1" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/public/6602261/13943997.html</t>
+        </is>
+      </c>
+      <c r="H76" s="1" t="inlineStr">
+        <is>
+          <t>关于2024年5月29日已受理建设项目环评文件公告</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-22 09:32</t>
+        </is>
+      </c>
+      <c r="B77" s="1" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/group3/M00/15/65/rBUtImelZkaALNAaABmomUgS_TE856.pdf</t>
+        </is>
+      </c>
+      <c r="C77" s="1" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=5bbf1602c3514a1f80bff7a6d66ece7a&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D77" s="1" t="inlineStr">
+        <is>
+          <t>》（试行）</t>
+        </is>
+      </c>
+      <c r="E77" s="1" t="inlineStr">
+        <is>
+          <t>（试行）》</t>
+        </is>
+      </c>
+      <c r="F77" s="1" t="inlineStr">
+        <is>
+          <t>土兴加油站项目--公示本.pdf</t>
+        </is>
+      </c>
+      <c r="G77" s="1" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/public/6602261/13851273.html</t>
+        </is>
+      </c>
+      <c r="H77" s="1" t="inlineStr">
+        <is>
+          <t>关于2020年12月21日已受理建设项目环评文件公告</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-22 09:32</t>
+        </is>
+      </c>
+      <c r="B78" s="1" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/zwgk/zdlyxxgk/bdcdj/13983512.html</t>
+        </is>
+      </c>
+      <c r="C78" s="1" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=9ebea1e6754c405e9aea4825bf21ca1b&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D78" s="1" t="inlineStr">
+        <is>
+          <t>《不动产暂行条例实施细则》</t>
+        </is>
+      </c>
+      <c r="E78" s="1" t="inlineStr">
+        <is>
+          <t>《不动产登记暂行条例实施细则》</t>
+        </is>
+      </c>
+      <c r="F78" s="1" t="inlineStr">
+        <is>
+          <t>遗失声明（四川天府银行巴中平昌支行）</t>
+        </is>
+      </c>
+      <c r="G78" s="1" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/zwgk/zdlyxxgk/bdcdj/index.html</t>
+        </is>
+      </c>
+      <c r="H78" s="1" t="inlineStr">
+        <is>
+          <t>不动产登记</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-22 09:32</t>
+        </is>
+      </c>
+      <c r="B79" s="1" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/zwgk/zdlyxxgk/bdcdj/13983512.html</t>
+        </is>
+      </c>
+      <c r="C79" s="1" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=04f4960e52914e05871efba58784dc19&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D79" s="1" t="inlineStr">
+        <is>
+          <t>《不动产暂行条例实施细则》</t>
+        </is>
+      </c>
+      <c r="E79" s="1" t="inlineStr">
+        <is>
+          <t>《不动产登记暂行条例实施细则》</t>
+        </is>
+      </c>
+      <c r="F79" s="1" t="inlineStr">
+        <is>
+          <t>遗失声明（四川天府银行巴中平昌支行）</t>
+        </is>
+      </c>
+      <c r="G79" s="1" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/zwgk/zdlyxxgk/bdcdj/index.html</t>
+        </is>
+      </c>
+      <c r="H79" s="1" t="inlineStr">
+        <is>
+          <t>不动产登记</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-22 09:32</t>
+        </is>
+      </c>
+      <c r="B80" s="1" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/ywdt/pcyw/13237191.html</t>
+        </is>
+      </c>
+      <c r="C80" s="1" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=a2bd379ee87548578350f1dd4fc5686c&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D80" s="1" t="inlineStr">
+        <is>
+          <t>县生态环境保护局</t>
+        </is>
+      </c>
+      <c r="E80" s="1" t="inlineStr">
+        <is>
+          <t>县生态环境局</t>
+        </is>
+      </c>
+      <c r="F80" s="1" t="inlineStr">
+        <is>
+          <t>【教育整顿•先进典型】百姓利益守护者</t>
+        </is>
+      </c>
+      <c r="G80" s="1" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/content/column/6789791?pageIndex=518</t>
+        </is>
+      </c>
+      <c r="H80" s="1" t="inlineStr">
+        <is>
+          <t>翻页</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>2025-02-22 09:32</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/ywdt/pcyw/13237191.html</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=34c031020cdd40178db95cdc0d09128f&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>县生态环境保护局</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>县生态环境局</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>【教育整顿•先进典型】百姓利益守护者</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/content/column/6789791?pageIndex=518</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>翻页</t>
         </is>
       </c>
     </row>

--- a/pcxzf/pcxzf/jiyuehua/kaipumodify/modifyfile/sendfile/网站改错记录.xlsx
+++ b/pcxzf/pcxzf/jiyuehua/kaipumodify/modifyfile/sendfile/网站改错记录.xlsx
@@ -1217,7 +1217,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H81"/>
+  <dimension ref="A1:H103"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="$A1:$XFD1"/>
@@ -4561,42 +4561,966 @@
       </c>
     </row>
     <row r="81">
-      <c r="A81" t="inlineStr">
+      <c r="A81" s="1" t="inlineStr">
         <is>
           <t>2025-02-22 09:32</t>
         </is>
       </c>
-      <c r="B81" t="inlineStr">
+      <c r="B81" s="1" t="inlineStr">
         <is>
           <t>http://www.scpc.gov.cn/ywdt/pcyw/13237191.html</t>
         </is>
       </c>
-      <c r="C81" t="inlineStr">
+      <c r="C81" s="1" t="inlineStr">
         <is>
           <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=34c031020cdd40178db95cdc0d09128f&amp;type=0</t>
         </is>
       </c>
-      <c r="D81" t="inlineStr">
+      <c r="D81" s="1" t="inlineStr">
         <is>
           <t>县生态环境保护局</t>
         </is>
       </c>
-      <c r="E81" t="inlineStr">
+      <c r="E81" s="1" t="inlineStr">
         <is>
           <t>县生态环境局</t>
         </is>
       </c>
-      <c r="F81" t="inlineStr">
+      <c r="F81" s="1" t="inlineStr">
         <is>
           <t>【教育整顿•先进典型】百姓利益守护者</t>
         </is>
       </c>
-      <c r="G81" t="inlineStr">
+      <c r="G81" s="1" t="inlineStr">
         <is>
           <t>http://www.scpc.gov.cn/content/column/6789791?pageIndex=518</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
+      <c r="H81" s="1" t="inlineStr">
+        <is>
+          <t>翻页</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-23 10:03</t>
+        </is>
+      </c>
+      <c r="B82" s="1" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/group3/M00/15/6C/rBUtImeunLCAE8iCAAw5j68scJg160.pdf</t>
+        </is>
+      </c>
+      <c r="C82" s="1" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=9fe11213ab5b4973821b04ac851026aa&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D82" s="1" t="inlineStr">
+        <is>
+          <t>县委、政府</t>
+        </is>
+      </c>
+      <c r="E82" s="1" t="inlineStr">
+        <is>
+          <t>县委、县政府</t>
+        </is>
+      </c>
+      <c r="F82" s="1" t="inlineStr">
+        <is>
+          <t>墙面涂料（不含危险品）生产项目-公示本.pdf</t>
+        </is>
+      </c>
+      <c r="G82" s="1" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/public/6602261/13851369.html</t>
+        </is>
+      </c>
+      <c r="H82" s="1" t="inlineStr">
+        <is>
+          <t>关于2019年7月17日已受理建设项目环评文件公告(墙面涂料（不含危险品）生产项目)</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-23 10:03</t>
+        </is>
+      </c>
+      <c r="B83" s="1" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/group3/M00/15/6C/rBUtImeunLCAE8iCAAw5j68scJg160.pdf</t>
+        </is>
+      </c>
+      <c r="C83" s="1" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=b4b6c6d629ab4874a8a0b79427153d2b&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D83" s="1" t="inlineStr">
+        <is>
+          <t>县委、政府</t>
+        </is>
+      </c>
+      <c r="E83" s="1" t="inlineStr">
+        <is>
+          <t>县委、县政府</t>
+        </is>
+      </c>
+      <c r="F83" s="1" t="inlineStr">
+        <is>
+          <t>墙面涂料（不含危险品）生产项目-公示本.pdf</t>
+        </is>
+      </c>
+      <c r="G83" s="1" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/public/6602261/13851369.html</t>
+        </is>
+      </c>
+      <c r="H83" s="1" t="inlineStr">
+        <is>
+          <t>关于2019年7月17日已受理建设项目环评文件公告(墙面涂料（不含危险品）生产项目)</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-23 10:09</t>
+        </is>
+      </c>
+      <c r="B84" s="1" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/content/article/13974926</t>
+        </is>
+      </c>
+      <c r="C84" s="1" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=d06fd8a5cf6e4728b1d362a6701fb172&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D84" s="1" t="inlineStr">
+        <is>
+          <t>县退伍军人事务局</t>
+        </is>
+      </c>
+      <c r="E84" s="1" t="inlineStr">
+        <is>
+          <t>县退役军人事务局</t>
+        </is>
+      </c>
+      <c r="F84" s="1" t="inlineStr">
+        <is>
+          <t>关于落实谭德福烈士相关荣誉的申请</t>
+        </is>
+      </c>
+      <c r="G84" s="1" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/content/column/6790321?pageIndex=3</t>
+        </is>
+      </c>
+      <c r="H84" s="1" t="inlineStr">
+        <is>
+          <t>翻页</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-23 10:10</t>
+        </is>
+      </c>
+      <c r="B85" s="1" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/ztzl/pcxczyjsgk/bmys/11337061.html</t>
+        </is>
+      </c>
+      <c r="C85" s="1" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=beb25722b381485897b9f67fcef49936&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D85" s="1" t="inlineStr">
+        <is>
+          <t>“三公经费”</t>
+        </is>
+      </c>
+      <c r="E85" s="1" t="inlineStr">
+        <is>
+          <t>“三公”经费</t>
+        </is>
+      </c>
+      <c r="F85" s="1" t="inlineStr">
+        <is>
+          <t>平昌县林业局2019年度部门预算公开目录</t>
+        </is>
+      </c>
+      <c r="G85" s="1" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/content/column/6794785?pageIndex=27</t>
+        </is>
+      </c>
+      <c r="H85" s="1" t="inlineStr">
+        <is>
+          <t>翻页</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-23 10:10</t>
+        </is>
+      </c>
+      <c r="B86" s="1" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/ztzl/pcxczyjsgk/bmys/11337061.html</t>
+        </is>
+      </c>
+      <c r="C86" s="1" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=6f1c52c824884a299aaef6581c4572be&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D86" s="1" t="inlineStr">
+        <is>
+          <t>“三公经费”</t>
+        </is>
+      </c>
+      <c r="E86" s="1" t="inlineStr">
+        <is>
+          <t>“三公”经费</t>
+        </is>
+      </c>
+      <c r="F86" s="1" t="inlineStr">
+        <is>
+          <t>平昌县林业局2019年度部门预算公开目录</t>
+        </is>
+      </c>
+      <c r="G86" s="1" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/content/column/6794785?pageIndex=27</t>
+        </is>
+      </c>
+      <c r="H86" s="1" t="inlineStr">
+        <is>
+          <t>翻页</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-23 10:10</t>
+        </is>
+      </c>
+      <c r="B87" s="1" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/ztzl/pcxczyjsgk/bmys/11336591.html</t>
+        </is>
+      </c>
+      <c r="C87" s="1" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=a185c84427264233978be1e18ddec45c&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D87" s="1" t="inlineStr">
+        <is>
+          <t>“三公经费”</t>
+        </is>
+      </c>
+      <c r="E87" s="1" t="inlineStr">
+        <is>
+          <t>“三公”经费</t>
+        </is>
+      </c>
+      <c r="F87" s="1" t="inlineStr">
+        <is>
+          <t>平昌县档案馆 2019年度部门预算公开目录</t>
+        </is>
+      </c>
+      <c r="G87" s="1" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/content/column/6794785?pageIndex=30</t>
+        </is>
+      </c>
+      <c r="H87" s="1" t="inlineStr">
+        <is>
+          <t>翻页</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-23 10:10</t>
+        </is>
+      </c>
+      <c r="B88" s="1" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/ztzl/pcxczyjsgk/bmys/11336591.html</t>
+        </is>
+      </c>
+      <c r="C88" s="1" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=9fac89c80b134df4a6b9239492ec6e59&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D88" s="1" t="inlineStr">
+        <is>
+          <t>“三公经费”</t>
+        </is>
+      </c>
+      <c r="E88" s="1" t="inlineStr">
+        <is>
+          <t>“三公”经费</t>
+        </is>
+      </c>
+      <c r="F88" s="1" t="inlineStr">
+        <is>
+          <t>平昌县档案馆 2019年度部门预算公开目录</t>
+        </is>
+      </c>
+      <c r="G88" s="1" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/content/column/6794785?pageIndex=30</t>
+        </is>
+      </c>
+      <c r="H88" s="1" t="inlineStr">
+        <is>
+          <t>翻页</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-23 10:11</t>
+        </is>
+      </c>
+      <c r="B89" s="1" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/content/article/13974928</t>
+        </is>
+      </c>
+      <c r="C89" s="1" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=c52a1923df7d48a584581b07dee55d6b&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D89" s="1" t="inlineStr">
+        <is>
+          <t>县退伍军人事务局</t>
+        </is>
+      </c>
+      <c r="E89" s="1" t="inlineStr">
+        <is>
+          <t>县退役军人事务局</t>
+        </is>
+      </c>
+      <c r="F89" s="1" t="inlineStr">
+        <is>
+          <t>关于落实谭德福烈士相关荣誉的申请</t>
+        </is>
+      </c>
+      <c r="G89" s="1" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/content/column/6790331?pageIndex=2</t>
+        </is>
+      </c>
+      <c r="H89" s="1" t="inlineStr">
+        <is>
+          <t>县长信箱</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-23 10:13</t>
+        </is>
+      </c>
+      <c r="B90" s="1" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/group3/M00/15/64/rBUtImekLemADdTUACPQ5eDQU-U254.pdf</t>
+        </is>
+      </c>
+      <c r="C90" s="1" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=9d2cdc1e2cb446ccb950671c7d4df588&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D90" s="1" t="inlineStr">
+        <is>
+          <t>》（试行）</t>
+        </is>
+      </c>
+      <c r="E90" s="1" t="inlineStr">
+        <is>
+          <t>（试行）》</t>
+        </is>
+      </c>
+      <c r="F90" s="1" t="inlineStr">
+        <is>
+          <t>平昌县喜神乡三官村滑渐沟砂岩矿项目--公示本.pdf.pdf</t>
+        </is>
+      </c>
+      <c r="G90" s="1" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/public/6602261/13851231.html</t>
+        </is>
+      </c>
+      <c r="H90" s="1" t="inlineStr">
+        <is>
+          <t>关于2021年11月15日已受理建设项目环评文件公告</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-23 10:13</t>
+        </is>
+      </c>
+      <c r="B91" s="1" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/group3/M00/15/64/rBUtImekLemADdTUACPQ5eDQU-U254.pdf</t>
+        </is>
+      </c>
+      <c r="C91" s="1" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=e69bed6a69294afca9d3718dca12ba46&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D91" s="1" t="inlineStr">
+        <is>
+          <t>》（试行）</t>
+        </is>
+      </c>
+      <c r="E91" s="1" t="inlineStr">
+        <is>
+          <t>（试行）》</t>
+        </is>
+      </c>
+      <c r="F91" s="1" t="inlineStr">
+        <is>
+          <t>平昌县喜神乡三官村滑渐沟砂岩矿项目--公示本.pdf.pdf</t>
+        </is>
+      </c>
+      <c r="G91" s="1" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/public/6602261/13851231.html</t>
+        </is>
+      </c>
+      <c r="H91" s="1" t="inlineStr">
+        <is>
+          <t>关于2021年11月15日已受理建设项目环评文件公告</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-23 10:13</t>
+        </is>
+      </c>
+      <c r="B92" s="1" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/ztzl/pcxczyjsgk/bmys/11336731.html</t>
+        </is>
+      </c>
+      <c r="C92" s="1" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=27b647922da24aaca63e888f7cca9394&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D92" s="1" t="inlineStr">
+        <is>
+          <t>“三公经费”</t>
+        </is>
+      </c>
+      <c r="E92" s="1" t="inlineStr">
+        <is>
+          <t>“三公”经费</t>
+        </is>
+      </c>
+      <c r="F92" s="1" t="inlineStr">
+        <is>
+          <t>平昌县残疾人联合会 2019年度部门预算公开目录</t>
+        </is>
+      </c>
+      <c r="G92" s="1" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/content/column/6794785?pageIndex=29</t>
+        </is>
+      </c>
+      <c r="H92" s="1" t="inlineStr">
+        <is>
+          <t>翻页</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-23 10:13</t>
+        </is>
+      </c>
+      <c r="B93" s="1" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/ztzl/pcxczyjsgk/bmys/11336731.html</t>
+        </is>
+      </c>
+      <c r="C93" s="1" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=46ba50b2b5db494ab8bd87460e60da9a&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D93" s="1" t="inlineStr">
+        <is>
+          <t>“三公经费”</t>
+        </is>
+      </c>
+      <c r="E93" s="1" t="inlineStr">
+        <is>
+          <t>“三公”经费</t>
+        </is>
+      </c>
+      <c r="F93" s="1" t="inlineStr">
+        <is>
+          <t>平昌县残疾人联合会 2019年度部门预算公开目录</t>
+        </is>
+      </c>
+      <c r="G93" s="1" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/content/column/6794785?pageIndex=29</t>
+        </is>
+      </c>
+      <c r="H93" s="1" t="inlineStr">
+        <is>
+          <t>翻页</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-23 10:14</t>
+        </is>
+      </c>
+      <c r="B94" s="1" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/ztzl/pcxczyjsgk/bmys/11336851.html</t>
+        </is>
+      </c>
+      <c r="C94" s="1" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=584013e1716041f08773facef7327e43&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D94" s="1" t="inlineStr">
+        <is>
+          <t>“三公经费”</t>
+        </is>
+      </c>
+      <c r="E94" s="1" t="inlineStr">
+        <is>
+          <t>“三公”经费</t>
+        </is>
+      </c>
+      <c r="F94" s="1" t="inlineStr">
+        <is>
+          <t>平昌县直工委2019年度部门预算公开目录</t>
+        </is>
+      </c>
+      <c r="G94" s="1" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/content/column/6794785?pageIndex=28</t>
+        </is>
+      </c>
+      <c r="H94" s="1" t="inlineStr">
+        <is>
+          <t>翻页</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-23 10:14</t>
+        </is>
+      </c>
+      <c r="B95" s="1" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/ztzl/pcxczyjsgk/bmys/11336851.html</t>
+        </is>
+      </c>
+      <c r="C95" s="1" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=93050419ffb1488ebe2334c51e7c1fb3&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D95" s="1" t="inlineStr">
+        <is>
+          <t>“三公经费”</t>
+        </is>
+      </c>
+      <c r="E95" s="1" t="inlineStr">
+        <is>
+          <t>“三公”经费</t>
+        </is>
+      </c>
+      <c r="F95" s="1" t="inlineStr">
+        <is>
+          <t>平昌县直工委2019年度部门预算公开目录</t>
+        </is>
+      </c>
+      <c r="G95" s="1" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/content/column/6794785?pageIndex=28</t>
+        </is>
+      </c>
+      <c r="H95" s="1" t="inlineStr">
+        <is>
+          <t>翻页</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-23 10:14</t>
+        </is>
+      </c>
+      <c r="B96" s="1" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/ztzl/pcxczyjsgk/bmys/11336701.html</t>
+        </is>
+      </c>
+      <c r="C96" s="1" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=c9a1ccd6c9244e55923956912783a843&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D96" s="1" t="inlineStr">
+        <is>
+          <t>“三公经费”</t>
+        </is>
+      </c>
+      <c r="E96" s="1" t="inlineStr">
+        <is>
+          <t>“三公”经费</t>
+        </is>
+      </c>
+      <c r="F96" s="1" t="inlineStr">
+        <is>
+          <t>平昌县医疗保障局2019年度部门预算公开目录</t>
+        </is>
+      </c>
+      <c r="G96" s="1" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/content/column/6794785?pageIndex=29</t>
+        </is>
+      </c>
+      <c r="H96" s="1" t="inlineStr">
+        <is>
+          <t>翻页</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-23 10:14</t>
+        </is>
+      </c>
+      <c r="B97" s="1" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/ztzl/pcxczyjsgk/bmys/11336701.html</t>
+        </is>
+      </c>
+      <c r="C97" s="1" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=16cd610730ad48bea15a517ed513fde1&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D97" s="1" t="inlineStr">
+        <is>
+          <t>“三公经费”</t>
+        </is>
+      </c>
+      <c r="E97" s="1" t="inlineStr">
+        <is>
+          <t>“三公”经费</t>
+        </is>
+      </c>
+      <c r="F97" s="1" t="inlineStr">
+        <is>
+          <t>平昌县医疗保障局2019年度部门预算公开目录</t>
+        </is>
+      </c>
+      <c r="G97" s="1" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/content/column/6794785?pageIndex=29</t>
+        </is>
+      </c>
+      <c r="H97" s="1" t="inlineStr">
+        <is>
+          <t>翻页</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-23 10:15</t>
+        </is>
+      </c>
+      <c r="B98" s="1" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/ztzl/pcxczyjsgk/bmys/11336901.html</t>
+        </is>
+      </c>
+      <c r="C98" s="1" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=b1c24825aeee4645bb9a3a91df4995fe&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D98" s="1" t="inlineStr">
+        <is>
+          <t>“三公经费”</t>
+        </is>
+      </c>
+      <c r="E98" s="1" t="inlineStr">
+        <is>
+          <t>“三公”经费</t>
+        </is>
+      </c>
+      <c r="F98" s="1" t="inlineStr">
+        <is>
+          <t>平昌县司法局2019年度部门预算公开目录</t>
+        </is>
+      </c>
+      <c r="G98" s="1" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/content/column/6794785?pageIndex=28</t>
+        </is>
+      </c>
+      <c r="H98" s="1" t="inlineStr">
+        <is>
+          <t>翻页</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-23 10:15</t>
+        </is>
+      </c>
+      <c r="B99" s="1" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/ztzl/pcxczyjsgk/bmys/11336901.html</t>
+        </is>
+      </c>
+      <c r="C99" s="1" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=a81c8ddc06ef4588858aaa56c6db9462&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D99" s="1" t="inlineStr">
+        <is>
+          <t>“三公经费”</t>
+        </is>
+      </c>
+      <c r="E99" s="1" t="inlineStr">
+        <is>
+          <t>“三公”经费</t>
+        </is>
+      </c>
+      <c r="F99" s="1" t="inlineStr">
+        <is>
+          <t>平昌县司法局2019年度部门预算公开目录</t>
+        </is>
+      </c>
+      <c r="G99" s="1" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/content/column/6794785?pageIndex=28</t>
+        </is>
+      </c>
+      <c r="H99" s="1" t="inlineStr">
+        <is>
+          <t>翻页</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-23 10:15</t>
+        </is>
+      </c>
+      <c r="B100" s="1" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/ztzl/pcxczyjsgk/bmys/11337151.html</t>
+        </is>
+      </c>
+      <c r="C100" s="1" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=619879937dcf4c4f860924bd902f3c76&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D100" s="1" t="inlineStr">
+        <is>
+          <t>“三公经费”</t>
+        </is>
+      </c>
+      <c r="E100" s="1" t="inlineStr">
+        <is>
+          <t>“三公”经费</t>
+        </is>
+      </c>
+      <c r="F100" s="1" t="inlineStr">
+        <is>
+          <t>平昌县妇女联合会2019年度部门预算公开目录</t>
+        </is>
+      </c>
+      <c r="G100" s="1" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/content/column/6794785?pageIndex=25</t>
+        </is>
+      </c>
+      <c r="H100" s="1" t="inlineStr">
+        <is>
+          <t>翻页</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-23 10:15</t>
+        </is>
+      </c>
+      <c r="B101" s="1" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/ztzl/pcxczyjsgk/bmys/11337151.html</t>
+        </is>
+      </c>
+      <c r="C101" s="1" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=2947d4b5a9df4864806703c683c74fe4&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D101" s="1" t="inlineStr">
+        <is>
+          <t>“三公经费”</t>
+        </is>
+      </c>
+      <c r="E101" s="1" t="inlineStr">
+        <is>
+          <t>“三公”经费</t>
+        </is>
+      </c>
+      <c r="F101" s="1" t="inlineStr">
+        <is>
+          <t>平昌县妇女联合会2019年度部门预算公开目录</t>
+        </is>
+      </c>
+      <c r="G101" s="1" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/content/column/6794785?pageIndex=25</t>
+        </is>
+      </c>
+      <c r="H101" s="1" t="inlineStr">
+        <is>
+          <t>翻页</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-23 10:16</t>
+        </is>
+      </c>
+      <c r="B102" s="1" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/ztzl/pcxczyjsgk/bmys/11336791.html</t>
+        </is>
+      </c>
+      <c r="C102" s="1" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=49142ac4050a4f819f2b8647b4991688&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D102" s="1" t="inlineStr">
+        <is>
+          <t>“三公经费”</t>
+        </is>
+      </c>
+      <c r="E102" s="1" t="inlineStr">
+        <is>
+          <t>“三公”经费</t>
+        </is>
+      </c>
+      <c r="F102" s="1" t="inlineStr">
+        <is>
+          <t>平昌县文化广播电视和旅游局 2019年度部门预算公开目录</t>
+        </is>
+      </c>
+      <c r="G102" s="1" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/content/column/6794785?pageIndex=29</t>
+        </is>
+      </c>
+      <c r="H102" s="1" t="inlineStr">
+        <is>
+          <t>翻页</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>2025-02-23 10:16</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/ztzl/pcxczyjsgk/bmys/11336791.html</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=e0e893840b824c7788387cc9e7b61872&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>“三公经费”</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>“三公”经费</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>平昌县文化广播电视和旅游局 2019年度部门预算公开目录</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/content/column/6794785?pageIndex=29</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
         <is>
           <t>翻页</t>
         </is>

--- a/pcxzf/pcxzf/jiyuehua/kaipumodify/modifyfile/sendfile/网站改错记录.xlsx
+++ b/pcxzf/pcxzf/jiyuehua/kaipumodify/modifyfile/sendfile/网站改错记录.xlsx
@@ -1217,7 +1217,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H103"/>
+  <dimension ref="A1:H118"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="$A1:$XFD1"/>
@@ -5485,44 +5485,629 @@
       </c>
     </row>
     <row r="103">
-      <c r="A103" t="inlineStr">
+      <c r="A103" s="1" t="inlineStr">
         <is>
           <t>2025-02-23 10:16</t>
         </is>
       </c>
-      <c r="B103" t="inlineStr">
+      <c r="B103" s="1" t="inlineStr">
         <is>
           <t>http://www.scpc.gov.cn/ztzl/pcxczyjsgk/bmys/11336791.html</t>
         </is>
       </c>
-      <c r="C103" t="inlineStr">
+      <c r="C103" s="1" t="inlineStr">
         <is>
           <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=e0e893840b824c7788387cc9e7b61872&amp;type=0</t>
         </is>
       </c>
-      <c r="D103" t="inlineStr">
+      <c r="D103" s="1" t="inlineStr">
         <is>
           <t>“三公经费”</t>
         </is>
       </c>
-      <c r="E103" t="inlineStr">
+      <c r="E103" s="1" t="inlineStr">
         <is>
           <t>“三公”经费</t>
         </is>
       </c>
-      <c r="F103" t="inlineStr">
+      <c r="F103" s="1" t="inlineStr">
         <is>
           <t>平昌县文化广播电视和旅游局 2019年度部门预算公开目录</t>
         </is>
       </c>
-      <c r="G103" t="inlineStr">
+      <c r="G103" s="1" t="inlineStr">
         <is>
           <t>http://www.scpc.gov.cn/content/column/6794785?pageIndex=29</t>
         </is>
       </c>
-      <c r="H103" t="inlineStr">
+      <c r="H103" s="1" t="inlineStr">
         <is>
           <t>翻页</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-24 14:33</t>
+        </is>
+      </c>
+      <c r="B104" s="1" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/public/6602161/11246171.html</t>
+        </is>
+      </c>
+      <c r="C104" s="1" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=afdf61d3919d4a35992b109abe3add05&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D104" s="1" t="inlineStr">
+        <is>
+          <t>县入民医院</t>
+        </is>
+      </c>
+      <c r="E104" s="1" t="inlineStr">
+        <is>
+          <t>县人民医院</t>
+        </is>
+      </c>
+      <c r="F104" s="1" t="inlineStr">
+        <is>
+          <t>四川省2019年贫困白内障患者复明手术项目定点医院名单</t>
+        </is>
+      </c>
+      <c r="G104" s="1" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/public/column/6602161?type=4&amp;action=list</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-25 08:38</t>
+        </is>
+      </c>
+      <c r="B105" s="1" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/group3/M00/15/7D/rBUtIme7y-yAJ4kdACbkrvVIkSY915.pdf</t>
+        </is>
+      </c>
+      <c r="C105" s="1" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=03bf9f7a7b064bd1afe2cfe6dd3fa099&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D105" s="1" t="inlineStr">
+        <is>
+          <t>坚持生态优先，绿色发展</t>
+        </is>
+      </c>
+      <c r="E105" s="1" t="inlineStr">
+        <is>
+          <t>坚持生态优先、绿色发展</t>
+        </is>
+      </c>
+      <c r="F105" s="1" t="inlineStr">
+        <is>
+          <t>平安 21H 井钻井工程－公示本.pdf</t>
+        </is>
+      </c>
+      <c r="G105" s="1" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/public/6602261/13983766.html</t>
+        </is>
+      </c>
+      <c r="H105" s="1" t="inlineStr">
+        <is>
+          <t>关于2025年2月21日已受理建设项目环评文件公告</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-26 09:07</t>
+        </is>
+      </c>
+      <c r="B106" s="1" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/ztzl/yfzx/13984076.html</t>
+        </is>
+      </c>
+      <c r="C106" s="1" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=78413666052143a2838d952113c37af8&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D106" s="1" t="inlineStr">
+        <is>
+          <t>“12.4”国家宪法日</t>
+        </is>
+      </c>
+      <c r="E106" s="1" t="inlineStr">
+        <is>
+          <t>“12·4”国家宪法日</t>
+        </is>
+      </c>
+      <c r="F106" s="1" t="inlineStr">
+        <is>
+          <t>平昌县粉壁镇人民政府关于2024年度法治政府建设工作情况的报告</t>
+        </is>
+      </c>
+      <c r="G106" s="1" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/ztzl/yfzx/index.html</t>
+        </is>
+      </c>
+      <c r="H106" s="1" t="inlineStr">
+        <is>
+          <t>依法治县</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-26 09:07</t>
+        </is>
+      </c>
+      <c r="B107" s="1" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/public/6601841/13766648.html</t>
+        </is>
+      </c>
+      <c r="C107" s="1" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=d9594a16fb0d4c51857242e96b3554f5&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D107" s="1" t="inlineStr">
+        <is>
+          <t>截至时间</t>
+        </is>
+      </c>
+      <c r="E107" s="1" t="inlineStr">
+        <is>
+          <t>截止时间</t>
+        </is>
+      </c>
+      <c r="F107" s="1" t="inlineStr">
+        <is>
+          <t>平昌县储备林暨森林康养基地项目设计施工总承包</t>
+        </is>
+      </c>
+      <c r="G107" s="1" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/public/column/6601841?type=4&amp;action=list</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-26 09:07</t>
+        </is>
+      </c>
+      <c r="B108" s="1" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/public/6601841/13231381.html</t>
+        </is>
+      </c>
+      <c r="C108" s="1" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=b8931c4af78f49f68c02b010d279e541&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D108" s="1" t="inlineStr">
+        <is>
+          <t>截至时间</t>
+        </is>
+      </c>
+      <c r="E108" s="1" t="inlineStr">
+        <is>
+          <t>截止时间</t>
+        </is>
+      </c>
+      <c r="F108" s="1" t="inlineStr">
+        <is>
+          <t>平昌县2021年上半年公开考试招聘事业单位工作人员公告</t>
+        </is>
+      </c>
+      <c r="G108" s="1" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/public/column/6601841?type=4&amp;action=list</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-26 09:07</t>
+        </is>
+      </c>
+      <c r="B109" s="1" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/ywdt/rdgz/13120161.html</t>
+        </is>
+      </c>
+      <c r="C109" s="1" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=322aa02b12d441839c8b099e7cfe47b7&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D109" s="1" t="inlineStr">
+        <is>
+          <t>截至时间</t>
+        </is>
+      </c>
+      <c r="E109" s="1" t="inlineStr">
+        <is>
+          <t>截止时间</t>
+        </is>
+      </c>
+      <c r="F109" s="1" t="inlineStr">
+        <is>
+          <t>平昌县2021年上半年公开考试招聘事业单位工作人员公告</t>
+        </is>
+      </c>
+      <c r="G109" s="1" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/content/column/6789821?pageIndex=4</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-26 09:07</t>
+        </is>
+      </c>
+      <c r="B110" s="1" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/public/6601841/13766642.html</t>
+        </is>
+      </c>
+      <c r="C110" s="1" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=e34adc63414a40b3a031b6c1997b3092&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D110" s="1" t="inlineStr">
+        <is>
+          <t>截至时间</t>
+        </is>
+      </c>
+      <c r="E110" s="1" t="inlineStr">
+        <is>
+          <t>截止时间</t>
+        </is>
+      </c>
+      <c r="F110" s="1" t="inlineStr">
+        <is>
+          <t>平昌县油房沟等 3 座小型病险水库除险加固项目土垭镇胜利水库标段施工招标（第二次）</t>
+        </is>
+      </c>
+      <c r="G110" s="1" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/public/column/6601841?type=4&amp;action=list</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-26 09:07</t>
+        </is>
+      </c>
+      <c r="B111" s="1" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/ywdt/gsgg/13120151.html</t>
+        </is>
+      </c>
+      <c r="C111" s="1" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=be555ce45a48422caad5d3ba7e58fcbe&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D111" s="1" t="inlineStr">
+        <is>
+          <t>截至时间</t>
+        </is>
+      </c>
+      <c r="E111" s="1" t="inlineStr">
+        <is>
+          <t>截止时间</t>
+        </is>
+      </c>
+      <c r="F111" s="1" t="inlineStr">
+        <is>
+          <t>平昌县2021年上半年公开考试招聘事业单位工作人员公告</t>
+        </is>
+      </c>
+      <c r="G111" s="1" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/content/column/6789841?pageIndex=3</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-26 09:07</t>
+        </is>
+      </c>
+      <c r="B112" s="1" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/public/6601841/13766640.html</t>
+        </is>
+      </c>
+      <c r="C112" s="1" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=ad6ebae7d8a64090b0c216f868b00ea5&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D112" s="1" t="inlineStr">
+        <is>
+          <t>截至时间</t>
+        </is>
+      </c>
+      <c r="E112" s="1" t="inlineStr">
+        <is>
+          <t>截止时间</t>
+        </is>
+      </c>
+      <c r="F112" s="1" t="inlineStr">
+        <is>
+          <t>平昌县华严老旧小区配套基础设施建设项目、平昌县二水厂老旧小区配套基础设施建设项目、平昌县一水厂老旧小区配套基础设施建设项目设计施工总承包第二次</t>
+        </is>
+      </c>
+      <c r="G112" s="1" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/public/column/6601841?type=4&amp;action=list</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-26 09:07</t>
+        </is>
+      </c>
+      <c r="B113" s="1" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/public/6602001/13805076.html</t>
+        </is>
+      </c>
+      <c r="C113" s="1" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=58f76668ed954473a7aa29636e42c2e4&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D113" s="1" t="inlineStr">
+        <is>
+          <t>截至时间</t>
+        </is>
+      </c>
+      <c r="E113" s="1" t="inlineStr">
+        <is>
+          <t>截止时间</t>
+        </is>
+      </c>
+      <c r="F113" s="1" t="inlineStr">
+        <is>
+          <t>平昌县2021年上半年公开考试招聘事业单位工作人员公告</t>
+        </is>
+      </c>
+      <c r="G113" s="1" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/public/column/6602001?type=4&amp;action=list</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-26 09:07</t>
+        </is>
+      </c>
+      <c r="B114" s="1" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/ywdt/gsgg/13880133.html</t>
+        </is>
+      </c>
+      <c r="C114" s="1" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=17ff1effdf394a4e99330803f1e5115e&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D114" s="1" t="inlineStr">
+        <is>
+          <t>截至时间</t>
+        </is>
+      </c>
+      <c r="E114" s="1" t="inlineStr">
+        <is>
+          <t>截止时间</t>
+        </is>
+      </c>
+      <c r="F114" s="1" t="inlineStr">
+        <is>
+          <t>平昌县减轻企业负担工作领导小组办公室 关于平昌县2023年度逾期尚未支付中小企业款项情况的公示</t>
+        </is>
+      </c>
+      <c r="G114" s="1" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/content/column/6789841?pageIndex=7</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-26 14:31</t>
+        </is>
+      </c>
+      <c r="B115" s="1" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/public/6601841/13984267.html</t>
+        </is>
+      </c>
+      <c r="C115" s="1" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=c45d7036e28946598e0091a469f2af42&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D115" s="1" t="inlineStr">
+        <is>
+          <t>贯彻党中央国务院</t>
+        </is>
+      </c>
+      <c r="E115" s="1" t="inlineStr">
+        <is>
+          <t>贯彻党中央、国务院</t>
+        </is>
+      </c>
+      <c r="F115" s="1" t="inlineStr">
+        <is>
+          <t>2025年政府工作报告</t>
+        </is>
+      </c>
+      <c r="G115" s="1" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/zwgk/zcjd/13984276.html</t>
+        </is>
+      </c>
+      <c r="H115" s="1" t="inlineStr">
+        <is>
+          <t>图解｜《平昌县人民政府2025年工作报告》</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-27 09:13</t>
+        </is>
+      </c>
+      <c r="B116" s="1" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/group3/M00/13/27/rBUtImce9vmAXZWWAACYxY9BKmY21.docx</t>
+        </is>
+      </c>
+      <c r="C116" s="1" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=1ae0b36c99ba4d55af3fea6ffce001c9&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D116" s="1" t="inlineStr">
+        <is>
+          <t>办工室</t>
+        </is>
+      </c>
+      <c r="E116" s="1" t="inlineStr">
+        <is>
+          <t>办公室</t>
+        </is>
+      </c>
+      <c r="F116" s="1" t="inlineStr">
+        <is>
+          <t>平昌县总工会 2018年部门决算公开编制说明.docx</t>
+        </is>
+      </c>
+      <c r="G116" s="1" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/ztzl/pcxczyjsgk/bmjs/11340161.html</t>
+        </is>
+      </c>
+      <c r="H116" s="1" t="inlineStr">
+        <is>
+          <t>平昌县总工会2018年度部门决算公开</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-27 09:13</t>
+        </is>
+      </c>
+      <c r="B117" s="1" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/group3/M00/13/27/rBUtImce9vmAXZWWAACYxY9BKmY21.docx</t>
+        </is>
+      </c>
+      <c r="C117" s="1" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=2ab8d8361eb842669d5dd653be45fe12&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D117" s="1" t="inlineStr">
+        <is>
+          <t>办工室</t>
+        </is>
+      </c>
+      <c r="E117" s="1" t="inlineStr">
+        <is>
+          <t>办公室</t>
+        </is>
+      </c>
+      <c r="F117" s="1" t="inlineStr">
+        <is>
+          <t>平昌县总工会 2018年部门决算公开编制说明.docx</t>
+        </is>
+      </c>
+      <c r="G117" s="1" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/ztzl/pcxczyjsgk/bmjs/11340161.html</t>
+        </is>
+      </c>
+      <c r="H117" s="1" t="inlineStr">
+        <is>
+          <t>平昌县总工会2018年度部门决算公开</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>2025-02-27 09:15</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/content/article/13983630</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=9d27e3de9f7c462dbc43eea434f000e3&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>实事求事</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>实事求是</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>欠薪问题</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/</t>
+        </is>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>平昌县人民政府</t>
         </is>
       </c>
     </row>

--- a/pcxzf/pcxzf/jiyuehua/kaipumodify/modifyfile/sendfile/网站改错记录.xlsx
+++ b/pcxzf/pcxzf/jiyuehua/kaipumodify/modifyfile/sendfile/网站改错记录.xlsx
@@ -1217,7 +1217,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H118"/>
+  <dimension ref="A1:H136"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="$A1:$XFD1"/>
@@ -6070,44 +6070,800 @@
       </c>
     </row>
     <row r="118">
-      <c r="A118" t="inlineStr">
+      <c r="A118" s="1" t="inlineStr">
         <is>
           <t>2025-02-27 09:15</t>
         </is>
       </c>
-      <c r="B118" t="inlineStr">
+      <c r="B118" s="1" t="inlineStr">
         <is>
           <t>http://www.scpc.gov.cn/content/article/13983630</t>
         </is>
       </c>
-      <c r="C118" t="inlineStr">
+      <c r="C118" s="1" t="inlineStr">
         <is>
           <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=9d27e3de9f7c462dbc43eea434f000e3&amp;type=0</t>
         </is>
       </c>
-      <c r="D118" t="inlineStr">
+      <c r="D118" s="1" t="inlineStr">
         <is>
           <t>实事求事</t>
         </is>
       </c>
-      <c r="E118" t="inlineStr">
+      <c r="E118" s="1" t="inlineStr">
         <is>
           <t>实事求是</t>
         </is>
       </c>
-      <c r="F118" t="inlineStr">
+      <c r="F118" s="1" t="inlineStr">
         <is>
           <t>欠薪问题</t>
         </is>
       </c>
-      <c r="G118" t="inlineStr">
+      <c r="G118" s="1" t="inlineStr">
         <is>
           <t>http://www.scpc.gov.cn/</t>
         </is>
       </c>
-      <c r="H118" t="inlineStr">
+      <c r="H118" s="1" t="inlineStr">
         <is>
           <t>平昌县人民政府</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-28 14:11</t>
+        </is>
+      </c>
+      <c r="B119" s="1" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/group3/M00/03/0C/rBUtIl-h7zaAeIZpAAFVMDPCcqU08.docx</t>
+        </is>
+      </c>
+      <c r="C119" s="1" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=c26e0b0f892448f9bd3fb82c51b3982e&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D119" s="1" t="inlineStr">
+        <is>
+          <t>园满</t>
+        </is>
+      </c>
+      <c r="E119" s="1" t="inlineStr">
+        <is>
+          <t>圆满</t>
+        </is>
+      </c>
+      <c r="F119" s="1" t="inlineStr">
+        <is>
+          <t>平昌县双鹿乡2019年度部门决算公开编制说明.docx</t>
+        </is>
+      </c>
+      <c r="G119" s="1" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/ztzl/pcxczyjsgk/bmjs/12902171.html</t>
+        </is>
+      </c>
+      <c r="H119" s="1" t="inlineStr">
+        <is>
+          <t>平昌县双鹿乡2019年度部门决算公开</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-28 14:11</t>
+        </is>
+      </c>
+      <c r="B120" s="1" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/group3/M00/03/0C/rBUtIl-h7zaAeIZpAAFVMDPCcqU08.docx</t>
+        </is>
+      </c>
+      <c r="C120" s="1" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=899bed771cc04977ac3833a25bfa1f33&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D120" s="1" t="inlineStr">
+        <is>
+          <t>园满</t>
+        </is>
+      </c>
+      <c r="E120" s="1" t="inlineStr">
+        <is>
+          <t>圆满</t>
+        </is>
+      </c>
+      <c r="F120" s="1" t="inlineStr">
+        <is>
+          <t>平昌县双鹿乡2019年度部门决算公开编制说明.docx</t>
+        </is>
+      </c>
+      <c r="G120" s="1" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/public/6601841/13228591.html</t>
+        </is>
+      </c>
+      <c r="H120" s="1" t="inlineStr">
+        <is>
+          <t>平昌县双鹿乡2019年度部门决算公开</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-28 14:11</t>
+        </is>
+      </c>
+      <c r="B121" s="1" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/group3/M00/15/54/rBUtImeS9seARLt3ABfUBmnBnSc922.pdf</t>
+        </is>
+      </c>
+      <c r="C121" s="1" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=d05537ea6e6243ac9860dec42e682805&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D121" s="1" t="inlineStr">
+        <is>
+          <t>社会统一信用代码</t>
+        </is>
+      </c>
+      <c r="E121" s="1" t="inlineStr">
+        <is>
+          <t>统一社会信用代码</t>
+        </is>
+      </c>
+      <c r="F121" s="1" t="inlineStr">
+        <is>
+          <t>平昌颐和商品混凝土建设项目竣工环境保护验收监测表（固废、噪声）.pdf</t>
+        </is>
+      </c>
+      <c r="G121" s="1" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/public/6602261/13851819.html</t>
+        </is>
+      </c>
+      <c r="H121" s="1" t="inlineStr">
+        <is>
+          <t>关于2019年1月4日建设项目竣工环境保护验收(噪声、固体废物)申请受理情况的公示(平昌颐和商品混凝土建设项目)</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-02 14:10</t>
+        </is>
+      </c>
+      <c r="B122" s="1" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/ztzl/yfzx/13984782.html</t>
+        </is>
+      </c>
+      <c r="C122" s="1" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=59aedc7e9cee4c1aaf62a7ff2bac82cc&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D122" s="1" t="inlineStr">
+        <is>
+          <t>“12.4”国家宪法日</t>
+        </is>
+      </c>
+      <c r="E122" s="1" t="inlineStr">
+        <is>
+          <t>“12·4”国家宪法日</t>
+        </is>
+      </c>
+      <c r="F122" s="1" t="inlineStr">
+        <is>
+          <t>平昌县教育科技局2024年度法治政府建设工作情况报告</t>
+        </is>
+      </c>
+      <c r="G122" s="1" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/ztzl/yfzx/index.html</t>
+        </is>
+      </c>
+      <c r="H122" s="1" t="inlineStr">
+        <is>
+          <t>依法治县</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-04 08:28</t>
+        </is>
+      </c>
+      <c r="B123" s="1" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/ywdt/pcyw/13627751.html</t>
+        </is>
+      </c>
+      <c r="C123" s="1" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=d1f706eb06684952a2882a1b16e3a668&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D123" s="1" t="inlineStr">
+        <is>
+          <t>习近平总书记重要讲话精神和全国“两会”精神</t>
+        </is>
+      </c>
+      <c r="E123" s="1" t="inlineStr">
+        <is>
+          <t>习近平总书记重要讲话精神和全国两会精神</t>
+        </is>
+      </c>
+      <c r="F123" s="1" t="inlineStr">
+        <is>
+          <t>【图文】张勋主持召开县人民政府十九届第10次常务会议</t>
+        </is>
+      </c>
+      <c r="G123" s="1" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/content/column/6789791?pageIndex=424</t>
+        </is>
+      </c>
+      <c r="H123" s="1" t="inlineStr">
+        <is>
+          <t>翻页</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-04 08:29</t>
+        </is>
+      </c>
+      <c r="B124" s="1" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/ztzl/pcxczyjsgk/bmys/11336901.html</t>
+        </is>
+      </c>
+      <c r="C124" s="1" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=e84f655e74c04ed7be187f8ff884dc8d&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D124" s="1" t="inlineStr">
+        <is>
+          <t>《《</t>
+        </is>
+      </c>
+      <c r="E124" s="1" t="inlineStr">
+        <is>
+          <t>《</t>
+        </is>
+      </c>
+      <c r="F124" s="1" t="inlineStr">
+        <is>
+          <t>平昌县司法局2019年度部门预算公开目录</t>
+        </is>
+      </c>
+      <c r="G124" s="1" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/content/column/6794785?pageIndex=28</t>
+        </is>
+      </c>
+      <c r="H124" s="1" t="inlineStr">
+        <is>
+          <t>翻页</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-04 08:29</t>
+        </is>
+      </c>
+      <c r="B125" s="1" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/zwgk/xzfcwh/13645411.html</t>
+        </is>
+      </c>
+      <c r="C125" s="1" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=365e3f979c604730a1a25c942f32bbfb&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D125" s="1" t="inlineStr">
+        <is>
+          <t>习近平总书记重要讲话精神和全国“两会”精神</t>
+        </is>
+      </c>
+      <c r="E125" s="1" t="inlineStr">
+        <is>
+          <t>习近平总书记重要讲话精神和全国两会精神</t>
+        </is>
+      </c>
+      <c r="F125" s="1" t="inlineStr">
+        <is>
+          <t>县政府十九届第10次常务会议召开</t>
+        </is>
+      </c>
+      <c r="G125" s="1" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/content/column/6790961?pageIndex=3</t>
+        </is>
+      </c>
+      <c r="H125" s="1" t="inlineStr">
+        <is>
+          <t>翻页</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-05 09:04</t>
+        </is>
+      </c>
+      <c r="B126" s="1" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/ywdt/rdgz/13984883.html</t>
+        </is>
+      </c>
+      <c r="C126" s="1" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=9cf6f1dabe3b4890a97531e0662e6f12&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D126" s="1" t="inlineStr">
+        <is>
+          <t>“专精特新”中小企业</t>
+        </is>
+      </c>
+      <c r="E126" s="1" t="inlineStr">
+        <is>
+          <t>专精特新中小企业</t>
+        </is>
+      </c>
+      <c r="F126" s="1" t="inlineStr">
+        <is>
+          <t>秀我中国｜超燃！新质生产力这一年</t>
+        </is>
+      </c>
+      <c r="G126" s="1" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/ywdt/rdgz/index.html</t>
+        </is>
+      </c>
+      <c r="H126" s="1" t="inlineStr">
+        <is>
+          <t>热点关注</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-05 09:04</t>
+        </is>
+      </c>
+      <c r="B127" s="1" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/public/6601861/13985327.html</t>
+        </is>
+      </c>
+      <c r="C127" s="1" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=ebb0deea4cd74cdbb7c4ab63cce3a2ab&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D127" s="1" t="inlineStr">
+        <is>
+          <t>“两会”</t>
+        </is>
+      </c>
+      <c r="E127" s="1" t="inlineStr">
+        <is>
+          <t>注意区分是全国两会还是地方两会</t>
+        </is>
+      </c>
+      <c r="F127" s="1" t="inlineStr">
+        <is>
+          <t>平昌县油气资源开发转化利用产业链办公室关于印发《2025年平昌县油气资源勘探开发工作方案》的通知</t>
+        </is>
+      </c>
+      <c r="G127" s="1" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/public/column/6601861?type=4&amp;action=list&amp;nav=2&amp;sub=0&amp;catId=6717327</t>
+        </is>
+      </c>
+      <c r="H127" s="1" t="inlineStr">
+        <is>
+          <t>发改局政策</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-05 09:04</t>
+        </is>
+      </c>
+      <c r="B128" s="1" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/ztzl/jczwgk/gkly/ywjy/jydd/jgdw/13982773.html</t>
+        </is>
+      </c>
+      <c r="C128" s="1" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=3b42557d44214da3bda9779085db508d&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D128" s="1" t="inlineStr">
+        <is>
+          <t>中央“八项规定”</t>
+        </is>
+      </c>
+      <c r="E128" s="1" t="inlineStr">
+        <is>
+          <t>中央八项规定</t>
+        </is>
+      </c>
+      <c r="F128" s="1" t="inlineStr">
+        <is>
+          <t>关于开展2024年幼儿园督导评估及保育教育质量评估的通知</t>
+        </is>
+      </c>
+      <c r="G128" s="1" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/ztzl/jczwgk/gkly/ywjy/jydd/jgdw/index.html</t>
+        </is>
+      </c>
+      <c r="H128" s="1" t="inlineStr">
+        <is>
+          <t>机构队伍</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-05 09:04</t>
+        </is>
+      </c>
+      <c r="B129" s="1" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/ywdt/gsgg/13985147.html</t>
+        </is>
+      </c>
+      <c r="C129" s="1" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=6bb5ef1b19e74143969fac7ef2129401&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D129" s="1" t="inlineStr">
+        <is>
+          <t>县委政府</t>
+        </is>
+      </c>
+      <c r="E129" s="1" t="inlineStr">
+        <is>
+          <t>县委县政府</t>
+        </is>
+      </c>
+      <c r="F129" s="1" t="inlineStr">
+        <is>
+          <t>平昌县公安局 平昌县人力资源和社会保障局 关于平昌县2025年面向全县公安机关在职优秀警务辅助人员公开考试招聘事业单位工作人员的公告</t>
+        </is>
+      </c>
+      <c r="G129" s="1" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/index.html</t>
+        </is>
+      </c>
+      <c r="H129" s="1" t="inlineStr">
+        <is>
+          <t>图片链接标题</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-05 09:08</t>
+        </is>
+      </c>
+      <c r="B130" s="1" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/content/article/13983630</t>
+        </is>
+      </c>
+      <c r="C130" s="1" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=e6349433de2448189f5ee8e58d34e3ac&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D130" s="1" t="inlineStr">
+        <is>
+          <t>截止目前</t>
+        </is>
+      </c>
+      <c r="E130" s="1" t="inlineStr">
+        <is>
+          <t>截至目前</t>
+        </is>
+      </c>
+      <c r="F130" s="1" t="inlineStr">
+        <is>
+          <t>欠薪问题</t>
+        </is>
+      </c>
+      <c r="G130" s="1" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/</t>
+        </is>
+      </c>
+      <c r="H130" s="1" t="inlineStr">
+        <is>
+          <t>平昌县人民政府</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-06 08:38</t>
+        </is>
+      </c>
+      <c r="B131" s="1" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/ztzl/jczwgk/gkly/zrzy/gytdsyqcrhhb/13984261.html</t>
+        </is>
+      </c>
+      <c r="C131" s="1" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=224679555489422f8164ff8488156a15&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D131" s="1" t="inlineStr">
+        <is>
+          <t>坚持从严治党</t>
+        </is>
+      </c>
+      <c r="E131" s="1" t="inlineStr">
+        <is>
+          <t>坚持全面从严治党</t>
+        </is>
+      </c>
+      <c r="F131" s="1" t="inlineStr">
+        <is>
+          <t>平昌县自然资源和规划局关于平昌县自然资源（资产）管理情况的报告</t>
+        </is>
+      </c>
+      <c r="G131" s="1" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/ztzl/jczwgk/gkly/zrzy/gytdsyqcrhhb/index.html</t>
+        </is>
+      </c>
+      <c r="H131" s="1" t="inlineStr">
+        <is>
+          <t>土地管理</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-07 09:11</t>
+        </is>
+      </c>
+      <c r="B132" s="1" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/ztzl/yfzx/13985466.html</t>
+        </is>
+      </c>
+      <c r="C132" s="1" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=ced76c5f8c94441e9837f220d5d8faa1&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D132" s="1" t="inlineStr">
+        <is>
+          <t>理论中心组</t>
+        </is>
+      </c>
+      <c r="E132" s="1" t="inlineStr">
+        <is>
+          <t>理论学习中心组</t>
+        </is>
+      </c>
+      <c r="F132" s="1" t="inlineStr">
+        <is>
+          <t>平昌县民政局2024年法治政府建设年度报告</t>
+        </is>
+      </c>
+      <c r="G132" s="1" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/ztzl/yfzx/index.html</t>
+        </is>
+      </c>
+      <c r="H132" s="1" t="inlineStr">
+        <is>
+          <t>依法治县</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-07 09:11</t>
+        </is>
+      </c>
+      <c r="B133" s="1" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/ztzl/yfzx/13985120.html</t>
+        </is>
+      </c>
+      <c r="C133" s="1" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=5d277e92f41044b5ae21f612d10cf6b8&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D133" s="1" t="inlineStr">
+        <is>
+          <t>水利执法</t>
+        </is>
+      </c>
+      <c r="E133" s="1" t="inlineStr">
+        <is>
+          <t>水行政执法</t>
+        </is>
+      </c>
+      <c r="F133" s="1" t="inlineStr">
+        <is>
+          <t>平昌县水利局2024年法治政府建设年度报告</t>
+        </is>
+      </c>
+      <c r="G133" s="1" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/ztzl/yfzx/index.html</t>
+        </is>
+      </c>
+      <c r="H133" s="1" t="inlineStr">
+        <is>
+          <t>依法治县</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-07 09:11</t>
+        </is>
+      </c>
+      <c r="B134" s="1" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/ztzl/yfzx/13985120.html</t>
+        </is>
+      </c>
+      <c r="C134" s="1" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=177390e140824e778fa2150c8e102c80&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D134" s="1" t="inlineStr">
+        <is>
+          <t>水利执法</t>
+        </is>
+      </c>
+      <c r="E134" s="1" t="inlineStr">
+        <is>
+          <t>水行政执法</t>
+        </is>
+      </c>
+      <c r="F134" s="1" t="inlineStr">
+        <is>
+          <t>平昌县水利局2024年法治政府建设年度报告</t>
+        </is>
+      </c>
+      <c r="G134" s="1" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/ztzl/yfzx/index.html</t>
+        </is>
+      </c>
+      <c r="H134" s="1" t="inlineStr">
+        <is>
+          <t>依法治县</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-08 09:48</t>
+        </is>
+      </c>
+      <c r="B135" s="1" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/ztzl/yfzx/13982269.html</t>
+        </is>
+      </c>
+      <c r="C135" s="1" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=c81f72ff2f6b4bc4940a548e222f0607&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D135" s="1" t="inlineStr">
+        <is>
+          <t>“八五普法”</t>
+        </is>
+      </c>
+      <c r="E135" s="1" t="inlineStr">
+        <is>
+          <t>“八五”普法</t>
+        </is>
+      </c>
+      <c r="F135" s="1" t="inlineStr">
+        <is>
+          <t>平昌县市场监督管理局：2024年法治政府建设年度报告</t>
+        </is>
+      </c>
+      <c r="G135" s="1" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/ztzl/yfzx/index.html</t>
+        </is>
+      </c>
+      <c r="H135" s="1" t="inlineStr">
+        <is>
+          <t>依法治县</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>2025-03-08 09:48</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/ztzl/yfzx/13982269.html</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=ca4bdb83664c4fa3b7ef0e823e6c4761&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>行政执法三项制度</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>行政执法“三项制度”</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>平昌县市场监督管理局：2024年法治政府建设年度报告</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/ztzl/yfzx/index.html</t>
+        </is>
+      </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>依法治县</t>
         </is>
       </c>
     </row>

--- a/pcxzf/pcxzf/jiyuehua/kaipumodify/modifyfile/sendfile/网站改错记录.xlsx
+++ b/pcxzf/pcxzf/jiyuehua/kaipumodify/modifyfile/sendfile/网站改错记录.xlsx
@@ -1215,7 +1215,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H150"/>
+  <dimension ref="A1:H218"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="N14" sqref="N14"/>
@@ -7430,44 +7430,2820 @@
       </c>
     </row>
     <row r="150">
-      <c r="A150" t="inlineStr">
+      <c r="A150" s="0" t="inlineStr">
         <is>
           <t>2025-04-29 09:53</t>
         </is>
       </c>
-      <c r="B150" t="inlineStr">
+      <c r="B150" s="0" t="inlineStr">
         <is>
           <t>http://www.scpc.gov.cn/group3/M00/11/84/rBUtImY52Z6AOE-jAAA4S1okMcQ06.docx</t>
         </is>
       </c>
-      <c r="C150" t="inlineStr">
+      <c r="C150" s="0" t="inlineStr">
         <is>
           <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=66c3f8df010a4d9a8f890a522b178e6d&amp;type=0</t>
         </is>
       </c>
-      <c r="D150" t="inlineStr">
+      <c r="D150" s="0" t="inlineStr">
         <is>
           <t>》（征求意见稿）</t>
         </is>
       </c>
-      <c r="E150" t="inlineStr">
+      <c r="E150" s="0" t="inlineStr">
         <is>
           <t>（征求意见稿）》</t>
         </is>
       </c>
-      <c r="F150" t="inlineStr">
+      <c r="F150" s="0" t="inlineStr">
         <is>
           <t>关于《平昌县生态保护红线管理办法（试行）》（征求意见稿）的起草说明.docx</t>
         </is>
       </c>
-      <c r="G150" t="inlineStr">
+      <c r="G150" s="0" t="inlineStr">
         <is>
           <t>http://www.scpc.gov.cn/content/article/13939061</t>
         </is>
       </c>
-      <c r="H150" t="inlineStr">
+      <c r="H150" s="0" t="inlineStr">
         <is>
           <t>关于公开征求《平昌县生态保护红线管理办法（试行）》（征求意见稿)意见的公告</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="0" t="inlineStr">
+        <is>
+          <t>2025-04-29 18:39</t>
+        </is>
+      </c>
+      <c r="B151" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/public/6603661/13997143.html</t>
+        </is>
+      </c>
+      <c r="C151" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=63145f958ee5431ba612e17539360d37&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D151" s="0" t="inlineStr">
+        <is>
+          <t>习近平新时代特色社会主义</t>
+        </is>
+      </c>
+      <c r="E151" s="0" t="inlineStr">
+        <is>
+          <t>习近平新时代中国特色社会主义思想</t>
+        </is>
+      </c>
+      <c r="F151" s="0" t="inlineStr">
+        <is>
+          <t>泥龙镇2025年政府工作报告</t>
+        </is>
+      </c>
+      <c r="G151" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/public/column/6603661?type=4&amp;amp</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="0" t="inlineStr">
+        <is>
+          <t>2025-04-29 18:39</t>
+        </is>
+      </c>
+      <c r="B152" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/public/6603661/13997143.html</t>
+        </is>
+      </c>
+      <c r="C152" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=623d5f722ace430a929e95995769cd37&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D152" s="0" t="inlineStr">
+        <is>
+          <t>党政同责、一岗双责、齐抓共管、实职追责</t>
+        </is>
+      </c>
+      <c r="E152" s="0" t="inlineStr">
+        <is>
+          <t>党政同责、一岗双责、齐抓共管、失职追责</t>
+        </is>
+      </c>
+      <c r="F152" s="0" t="inlineStr">
+        <is>
+          <t>泥龙镇2025年政府工作报告</t>
+        </is>
+      </c>
+      <c r="G152" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/public/column/6603661?type=4&amp;amp</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="0" t="inlineStr">
+        <is>
+          <t>2025-04-29 18:39</t>
+        </is>
+      </c>
+      <c r="B153" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/public/6603661/13997143.html</t>
+        </is>
+      </c>
+      <c r="C153" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=180e8398bfe94cc0b5be6aed12bdf8ea&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D153" s="0" t="inlineStr">
+        <is>
+          <t>贯彻党中央国务院</t>
+        </is>
+      </c>
+      <c r="E153" s="0" t="inlineStr">
+        <is>
+          <t>贯彻党中央、国务院</t>
+        </is>
+      </c>
+      <c r="F153" s="0" t="inlineStr">
+        <is>
+          <t>泥龙镇2025年政府工作报告</t>
+        </is>
+      </c>
+      <c r="G153" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/public/column/6603661?type=4&amp;amp</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="0" t="inlineStr">
+        <is>
+          <t>2025-04-29 18:39</t>
+        </is>
+      </c>
+      <c r="B154" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/ywdt/pcyw/13978470.html</t>
+        </is>
+      </c>
+      <c r="C154" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=f371b543acb4412092b7af2d7a928057&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D154" s="0" t="inlineStr">
+        <is>
+          <t>走在前列、干在实处、勇立潮头</t>
+        </is>
+      </c>
+      <c r="E154" s="0" t="inlineStr">
+        <is>
+          <t>干在实处、走在前列、勇立潮头</t>
+        </is>
+      </c>
+      <c r="F154" s="0" t="inlineStr">
+        <is>
+          <t>【评论】扛鼎担责推动县域经济社会高质量发展</t>
+        </is>
+      </c>
+      <c r="G154" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/content/column/6789791?pageIndex=31</t>
+        </is>
+      </c>
+      <c r="H154" s="0" t="inlineStr">
+        <is>
+          <t>翻页</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="0" t="inlineStr">
+        <is>
+          <t>2025-04-29 18:40</t>
+        </is>
+      </c>
+      <c r="B155" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/ywdt/pcyw/13977474.html</t>
+        </is>
+      </c>
+      <c r="C155" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=114e00af6e4943579b27ecae90d17b46&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D155" s="0" t="inlineStr">
+        <is>
+          <t>党的党的二十届三中全会</t>
+        </is>
+      </c>
+      <c r="E155" s="0" t="inlineStr">
+        <is>
+          <t>党的二十届三中全会</t>
+        </is>
+      </c>
+      <c r="F155" s="0" t="inlineStr">
+        <is>
+          <t>中国共产党平昌县第十四届委员会第十次全体会议举行</t>
+        </is>
+      </c>
+      <c r="G155" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/content/column/6789791?pageIndex=32</t>
+        </is>
+      </c>
+      <c r="H155" s="0" t="inlineStr">
+        <is>
+          <t>翻页</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="0" t="inlineStr">
+        <is>
+          <t>2025-04-29 18:40</t>
+        </is>
+      </c>
+      <c r="B156" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/ywdt/pcyw/13977474.html</t>
+        </is>
+      </c>
+      <c r="C156" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=c5df624ad50a4992aaee8a7cd154fe58&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D156" s="0" t="inlineStr">
+        <is>
+          <t>党的党的党的</t>
+        </is>
+      </c>
+      <c r="E156" s="0" t="inlineStr">
+        <is>
+          <t>党的</t>
+        </is>
+      </c>
+      <c r="F156" s="0" t="inlineStr">
+        <is>
+          <t>中国共产党平昌县第十四届委员会第十次全体会议举行</t>
+        </is>
+      </c>
+      <c r="G156" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/content/column/6789791?pageIndex=32</t>
+        </is>
+      </c>
+      <c r="H156" s="0" t="inlineStr">
+        <is>
+          <t>翻页</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="0" t="inlineStr">
+        <is>
+          <t>2025-04-29 18:40</t>
+        </is>
+      </c>
+      <c r="B157" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/ywdt/pcyw/13977474.html</t>
+        </is>
+      </c>
+      <c r="C157" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=585d50124f194151800149aa041456aa&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D157" s="0" t="inlineStr">
+        <is>
+          <t>党的党的二十届三中全会</t>
+        </is>
+      </c>
+      <c r="E157" s="0" t="inlineStr">
+        <is>
+          <t>党的二十届三中全会</t>
+        </is>
+      </c>
+      <c r="F157" s="0" t="inlineStr">
+        <is>
+          <t>中国共产党平昌县第十四届委员会第十次全体会议举行</t>
+        </is>
+      </c>
+      <c r="G157" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/content/column/6789791?pageIndex=32</t>
+        </is>
+      </c>
+      <c r="H157" s="0" t="inlineStr">
+        <is>
+          <t>翻页</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="0" t="inlineStr">
+        <is>
+          <t>2025-04-29 18:40</t>
+        </is>
+      </c>
+      <c r="B158" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/ywdt/pcyw/13977474.html</t>
+        </is>
+      </c>
+      <c r="C158" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=eee85822fd9544acab66c12c86863ed4&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D158" s="0" t="inlineStr">
+        <is>
+          <t>党的党的二十届三中全会</t>
+        </is>
+      </c>
+      <c r="E158" s="0" t="inlineStr">
+        <is>
+          <t>党的二十届三中全会</t>
+        </is>
+      </c>
+      <c r="F158" s="0" t="inlineStr">
+        <is>
+          <t>中国共产党平昌县第十四届委员会第十次全体会议举行</t>
+        </is>
+      </c>
+      <c r="G158" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/content/column/6789791?pageIndex=32</t>
+        </is>
+      </c>
+      <c r="H158" s="0" t="inlineStr">
+        <is>
+          <t>翻页</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="0" t="inlineStr">
+        <is>
+          <t>2025-04-29 18:40</t>
+        </is>
+      </c>
+      <c r="B159" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/ywdt/pcyw/13977474.html</t>
+        </is>
+      </c>
+      <c r="C159" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=f24b9cdb3da84688ac3fe68e48ebd615&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D159" s="0" t="inlineStr">
+        <is>
+          <t>党的党的二十届三中全会</t>
+        </is>
+      </c>
+      <c r="E159" s="0" t="inlineStr">
+        <is>
+          <t>党的二十届三中全会</t>
+        </is>
+      </c>
+      <c r="F159" s="0" t="inlineStr">
+        <is>
+          <t>中国共产党平昌县第十四届委员会第十次全体会议举行</t>
+        </is>
+      </c>
+      <c r="G159" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/content/column/6789791?pageIndex=32</t>
+        </is>
+      </c>
+      <c r="H159" s="0" t="inlineStr">
+        <is>
+          <t>翻页</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="0" t="inlineStr">
+        <is>
+          <t>2025-04-29 18:40</t>
+        </is>
+      </c>
+      <c r="B160" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/public/6601841/13995099.html</t>
+        </is>
+      </c>
+      <c r="C160" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=49792b9715af4b4785c16109fb57b54d&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D160" s="0" t="inlineStr">
+        <is>
+          <t>全面贯彻党的二十大及二十届二中、三中全会精神</t>
+        </is>
+      </c>
+      <c r="E160" s="0" t="inlineStr">
+        <is>
+          <t>全面贯彻党的二十大和二十届二中、三中全会精神</t>
+        </is>
+      </c>
+      <c r="F160" s="0" t="inlineStr">
+        <is>
+          <t>2024年平昌县国民经济和社会发展统计公报</t>
+        </is>
+      </c>
+      <c r="G160" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/public/column/6601841?type=4&amp;action=list&amp;nav=2&amp;sub=2&amp;catId=6716721</t>
+        </is>
+      </c>
+      <c r="H160" s="0" t="inlineStr">
+        <is>
+          <t>统计公报</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="0" t="inlineStr">
+        <is>
+          <t>2025-04-29 18:40</t>
+        </is>
+      </c>
+      <c r="B161" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/ywdt/xzdt/13626591.html</t>
+        </is>
+      </c>
+      <c r="C161" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=f369c88285d241fca06561e5667fd267&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D161" s="0" t="inlineStr">
+        <is>
+          <t>食药品安全</t>
+        </is>
+      </c>
+      <c r="E161" s="0" t="inlineStr">
+        <is>
+          <t>食品药品安全</t>
+        </is>
+      </c>
+      <c r="F161" s="0" t="inlineStr">
+        <is>
+          <t>三十二梁镇:三举措抓实食药品安全工作</t>
+        </is>
+      </c>
+      <c r="G161" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/content/column/6789811?pageIndex=99</t>
+        </is>
+      </c>
+      <c r="H161" s="0" t="inlineStr">
+        <is>
+          <t>翻页</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="0" t="inlineStr">
+        <is>
+          <t>2025-04-29 18:40</t>
+        </is>
+      </c>
+      <c r="B162" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/ywdt/xzdt/13626591.html</t>
+        </is>
+      </c>
+      <c r="C162" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=2e4aa89bc5b3407e8838b06b9511e6a1&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D162" s="0" t="inlineStr">
+        <is>
+          <t>食药品安全</t>
+        </is>
+      </c>
+      <c r="E162" s="0" t="inlineStr">
+        <is>
+          <t>食品药品安全</t>
+        </is>
+      </c>
+      <c r="F162" s="0" t="inlineStr">
+        <is>
+          <t>三十二梁镇:三举措抓实食药品安全工作</t>
+        </is>
+      </c>
+      <c r="G162" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/content/column/6789811?pageIndex=99</t>
+        </is>
+      </c>
+      <c r="H162" s="0" t="inlineStr">
+        <is>
+          <t>翻页</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="0" t="inlineStr">
+        <is>
+          <t>2025-04-29 18:40</t>
+        </is>
+      </c>
+      <c r="B163" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/ywdt/xzdt/13626591.html</t>
+        </is>
+      </c>
+      <c r="C163" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=1dd5572f337f49628e971d2e57f38593&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D163" s="0" t="inlineStr">
+        <is>
+          <t>食药品安全</t>
+        </is>
+      </c>
+      <c r="E163" s="0" t="inlineStr">
+        <is>
+          <t>食品药品安全</t>
+        </is>
+      </c>
+      <c r="F163" s="0" t="inlineStr">
+        <is>
+          <t>三十二梁镇:三举措抓实食药品安全工作</t>
+        </is>
+      </c>
+      <c r="G163" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/content/column/6789811?pageIndex=99</t>
+        </is>
+      </c>
+      <c r="H163" s="0" t="inlineStr">
+        <is>
+          <t>翻页</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="0" t="inlineStr">
+        <is>
+          <t>2025-04-29 18:40</t>
+        </is>
+      </c>
+      <c r="B164" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/ywdt/xzdt/13626591.html</t>
+        </is>
+      </c>
+      <c r="C164" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=fc199de7c6864b2a98650f900a8ab71a&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D164" s="0" t="inlineStr">
+        <is>
+          <t>食药品安全</t>
+        </is>
+      </c>
+      <c r="E164" s="0" t="inlineStr">
+        <is>
+          <t>食品药品安全</t>
+        </is>
+      </c>
+      <c r="F164" s="0" t="inlineStr">
+        <is>
+          <t>三十二梁镇:三举措抓实食药品安全工作</t>
+        </is>
+      </c>
+      <c r="G164" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/content/column/6789811?pageIndex=99</t>
+        </is>
+      </c>
+      <c r="H164" s="0" t="inlineStr">
+        <is>
+          <t>翻页</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="0" t="inlineStr">
+        <is>
+          <t>2025-04-29 18:40</t>
+        </is>
+      </c>
+      <c r="B165" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/ywdt/xzdt/13626591.html</t>
+        </is>
+      </c>
+      <c r="C165" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=13b7c9fa7b844f77989ca3bed3eb4b9c&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D165" s="0" t="inlineStr">
+        <is>
+          <t>食药品安全</t>
+        </is>
+      </c>
+      <c r="E165" s="0" t="inlineStr">
+        <is>
+          <t>食品药品安全</t>
+        </is>
+      </c>
+      <c r="F165" s="0" t="inlineStr">
+        <is>
+          <t>三十二梁镇:三举措抓实食药品安全工作</t>
+        </is>
+      </c>
+      <c r="G165" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/content/column/6789811?pageIndex=99</t>
+        </is>
+      </c>
+      <c r="H165" s="0" t="inlineStr">
+        <is>
+          <t>翻页</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="0" t="inlineStr">
+        <is>
+          <t>2025-04-29 18:40</t>
+        </is>
+      </c>
+      <c r="B166" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/ywdt/xzdt/13626591.html</t>
+        </is>
+      </c>
+      <c r="C166" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=5cc3ee388a7846c284d2d6a445b72357&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D166" s="0" t="inlineStr">
+        <is>
+          <t>食药品安全</t>
+        </is>
+      </c>
+      <c r="E166" s="0" t="inlineStr">
+        <is>
+          <t>食品药品安全</t>
+        </is>
+      </c>
+      <c r="F166" s="0" t="inlineStr">
+        <is>
+          <t>三十二梁镇:三举措抓实食药品安全工作</t>
+        </is>
+      </c>
+      <c r="G166" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/content/column/6789811?pageIndex=99</t>
+        </is>
+      </c>
+      <c r="H166" s="0" t="inlineStr">
+        <is>
+          <t>翻页</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="0" t="inlineStr">
+        <is>
+          <t>2025-04-29 18:40</t>
+        </is>
+      </c>
+      <c r="B167" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/public/6603501/10924511.html</t>
+        </is>
+      </c>
+      <c r="C167" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=afabbf517328491eaf7b1351120bf1ff&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D167" s="0" t="inlineStr">
+        <is>
+          <t>《中华人民共和国食品安全法</t>
+        </is>
+      </c>
+      <c r="E167" s="0" t="inlineStr">
+        <is>
+          <t>《中华人民共和国食品安全法》</t>
+        </is>
+      </c>
+      <c r="F167" s="0" t="inlineStr">
+        <is>
+          <t>大寨镇食品药品安全突发事件应急预案</t>
+        </is>
+      </c>
+      <c r="G167" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/public/column/6603501?type=4&amp;action=list&amp;nav=2&amp;sub=5&amp;catId=6716071&amp;pageIndex=2</t>
+        </is>
+      </c>
+      <c r="H167" s="0" t="inlineStr">
+        <is>
+          <t>民生保障</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="0" t="inlineStr">
+        <is>
+          <t>2025-04-29 18:40</t>
+        </is>
+      </c>
+      <c r="B168" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/public/6603501/10924511.html</t>
+        </is>
+      </c>
+      <c r="C168" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=854901bf01bb4bd588b02db20ae12bed&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D168" s="0" t="inlineStr">
+        <is>
+          <t>《中华人民共和国食品安全法</t>
+        </is>
+      </c>
+      <c r="E168" s="0" t="inlineStr">
+        <is>
+          <t>《中华人民共和国食品安全法》</t>
+        </is>
+      </c>
+      <c r="F168" s="0" t="inlineStr">
+        <is>
+          <t>大寨镇食品药品安全突发事件应急预案</t>
+        </is>
+      </c>
+      <c r="G168" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/public/column/6603501?type=4&amp;action=list&amp;nav=2&amp;sub=5&amp;catId=6716071&amp;pageIndex=2</t>
+        </is>
+      </c>
+      <c r="H168" s="0" t="inlineStr">
+        <is>
+          <t>民生保障</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="0" t="inlineStr">
+        <is>
+          <t>2025-04-29 18:40</t>
+        </is>
+      </c>
+      <c r="B169" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/public/6603501/10924511.html</t>
+        </is>
+      </c>
+      <c r="C169" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=a8dc133c9edc47e5a0b7cd21166a891a&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D169" s="0" t="inlineStr">
+        <is>
+          <t>《中华人民共和国食品安全法</t>
+        </is>
+      </c>
+      <c r="E169" s="0" t="inlineStr">
+        <is>
+          <t>《中华人民共和国食品安全法》</t>
+        </is>
+      </c>
+      <c r="F169" s="0" t="inlineStr">
+        <is>
+          <t>大寨镇食品药品安全突发事件应急预案</t>
+        </is>
+      </c>
+      <c r="G169" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/public/column/6603501?type=4&amp;action=list&amp;nav=2&amp;sub=5&amp;catId=6716071&amp;pageIndex=3</t>
+        </is>
+      </c>
+      <c r="H169" s="0" t="inlineStr">
+        <is>
+          <t>翻页</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="0" t="inlineStr">
+        <is>
+          <t>2025-04-29 18:40</t>
+        </is>
+      </c>
+      <c r="B170" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/public/6603501/10924511.html</t>
+        </is>
+      </c>
+      <c r="C170" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=63131a38142a4611af8a521724ee8ed3&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D170" s="0" t="inlineStr">
+        <is>
+          <t>《中华人民共和国食品安全法</t>
+        </is>
+      </c>
+      <c r="E170" s="0" t="inlineStr">
+        <is>
+          <t>《中华人民共和国食品安全法》</t>
+        </is>
+      </c>
+      <c r="F170" s="0" t="inlineStr">
+        <is>
+          <t>大寨镇食品药品安全突发事件应急预案</t>
+        </is>
+      </c>
+      <c r="G170" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/public/column/6603501?type=4&amp;action=list&amp;nav=2&amp;sub=5&amp;catId=6716071&amp;pageIndex=2</t>
+        </is>
+      </c>
+      <c r="H170" s="0" t="inlineStr">
+        <is>
+          <t>民生保障</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="0" t="inlineStr">
+        <is>
+          <t>2025-04-29 18:40</t>
+        </is>
+      </c>
+      <c r="B171" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/public/6603281/13996972.html</t>
+        </is>
+      </c>
+      <c r="C171" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=2afe92b84ea3495181dd1b5f00688667&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D171" s="0" t="inlineStr">
+        <is>
+          <t>应预案</t>
+        </is>
+      </c>
+      <c r="E171" s="0" t="inlineStr">
+        <is>
+          <t>应急预案</t>
+        </is>
+      </c>
+      <c r="F171" s="0" t="inlineStr">
+        <is>
+          <t>望京镇人民政府关于印发《望京镇2025年地质灾害应急预案》的通知</t>
+        </is>
+      </c>
+      <c r="G171" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/public/column/6603281?type=4&amp;action=list&amp;nav=2&amp;sub=6&amp;catId=6716091</t>
+        </is>
+      </c>
+      <c r="H171" s="0" t="inlineStr">
+        <is>
+          <t>望京镇其他法定信息</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="0" t="inlineStr">
+        <is>
+          <t>2025-04-29 18:40</t>
+        </is>
+      </c>
+      <c r="B172" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/public/6603281/13996972.html</t>
+        </is>
+      </c>
+      <c r="C172" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=e73f6daf1d9e4d70af1d83a02e461456&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D172" s="0" t="inlineStr">
+        <is>
+          <t>救灾物质</t>
+        </is>
+      </c>
+      <c r="E172" s="0" t="inlineStr">
+        <is>
+          <t>救灾物资</t>
+        </is>
+      </c>
+      <c r="F172" s="0" t="inlineStr">
+        <is>
+          <t>望京镇人民政府关于印发《望京镇2025年地质灾害应急预案》的通知</t>
+        </is>
+      </c>
+      <c r="G172" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/public/column/6603281?type=4&amp;action=list&amp;nav=2&amp;sub=6&amp;catId=6716091</t>
+        </is>
+      </c>
+      <c r="H172" s="0" t="inlineStr">
+        <is>
+          <t>望京镇其他法定信息</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="0" t="inlineStr">
+        <is>
+          <t>2025-04-29 18:40</t>
+        </is>
+      </c>
+      <c r="B173" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/public/6603281/13996972.html</t>
+        </is>
+      </c>
+      <c r="C173" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=aa116083157c40669e44574d9fedaedf&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D173" s="0" t="inlineStr">
+        <is>
+          <t>下午18：00</t>
+        </is>
+      </c>
+      <c r="E173" s="0" t="inlineStr">
+        <is>
+          <t>疑似时间错误，注意区分12小时制和24小时制的时间表示方法</t>
+        </is>
+      </c>
+      <c r="F173" s="0" t="inlineStr">
+        <is>
+          <t>望京镇人民政府关于印发《望京镇2025年地质灾害应急预案》的通知</t>
+        </is>
+      </c>
+      <c r="G173" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/public/column/6603281?type=4&amp;action=list&amp;nav=2&amp;sub=6&amp;catId=6716091</t>
+        </is>
+      </c>
+      <c r="H173" s="0" t="inlineStr">
+        <is>
+          <t>望京镇其他法定信息</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="0" t="inlineStr">
+        <is>
+          <t>2025-04-30 08:33</t>
+        </is>
+      </c>
+      <c r="B174" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/content/article/13993206</t>
+        </is>
+      </c>
+      <c r="C174" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=075411814a83472da946bab31d04022f&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D174" s="0" t="inlineStr">
+        <is>
+          <t>十五五规划</t>
+        </is>
+      </c>
+      <c r="E174" s="0" t="inlineStr">
+        <is>
+          <t>“十五五”规划</t>
+        </is>
+      </c>
+      <c r="F174" s="0" t="inlineStr">
+        <is>
+          <t>望京镇万平村1社和金龙社区连接道路硬化建议</t>
+        </is>
+      </c>
+      <c r="G174" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/</t>
+        </is>
+      </c>
+      <c r="H174" s="0" t="inlineStr">
+        <is>
+          <t>平昌县人民政府</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="0" t="inlineStr">
+        <is>
+          <t>2025-04-30 08:33</t>
+        </is>
+      </c>
+      <c r="B175" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/content/article/11057941</t>
+        </is>
+      </c>
+      <c r="C175" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=e9c70792262a46beae1187afba3b6857&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D175" s="0" t="inlineStr">
+        <is>
+          <t>截止今天</t>
+        </is>
+      </c>
+      <c r="E175" s="0" t="inlineStr">
+        <is>
+          <t>截至今天</t>
+        </is>
+      </c>
+      <c r="F175" s="0" t="inlineStr">
+        <is>
+          <t>关于2016购房补贴发放</t>
+        </is>
+      </c>
+      <c r="G175" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/content/column/6790321?pageIndex=82</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="0" t="inlineStr">
+        <is>
+          <t>2025-04-30 08:33</t>
+        </is>
+      </c>
+      <c r="B176" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/ztzl/pcxczyjsgk/dwys/13992595.html</t>
+        </is>
+      </c>
+      <c r="C176" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=ab9cff8352004ab4abb0c6e1c06a0ff0&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D176" s="0" t="inlineStr">
+        <is>
+          <t>巩固脱贫攻坚成果同乡村振兴有效衔接</t>
+        </is>
+      </c>
+      <c r="E176" s="0" t="inlineStr">
+        <is>
+          <t>巩固拓展脱贫攻坚成果同乡村振兴有效衔接</t>
+        </is>
+      </c>
+      <c r="F176" s="0" t="inlineStr">
+        <is>
+          <t>平昌县财政信息中心2025年单位预算</t>
+        </is>
+      </c>
+      <c r="G176" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/content/column/6794789?pageIndex=7</t>
+        </is>
+      </c>
+      <c r="H176" s="0" t="inlineStr">
+        <is>
+          <t>翻页</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="0" t="inlineStr">
+        <is>
+          <t>2025-04-30 08:34</t>
+        </is>
+      </c>
+      <c r="B177" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/ztzl/pcxczyjsgk/bmys/13992629.html</t>
+        </is>
+      </c>
+      <c r="C177" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=81fe405f1b1845eebbdc998228c6cbbd&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D177" s="0" t="inlineStr">
+        <is>
+          <t>主要主要</t>
+        </is>
+      </c>
+      <c r="E177" s="0" t="inlineStr">
+        <is>
+          <t>主要</t>
+        </is>
+      </c>
+      <c r="F177" s="0" t="inlineStr">
+        <is>
+          <t>平昌县西兴镇人民政府2025年部门预算报表</t>
+        </is>
+      </c>
+      <c r="G177" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/content/column/6794785?pageIndex=2</t>
+        </is>
+      </c>
+      <c r="H177" s="0" t="inlineStr">
+        <is>
+          <t>翻页</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="0" t="inlineStr">
+        <is>
+          <t>2025-04-30 08:34</t>
+        </is>
+      </c>
+      <c r="B178" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/ztzl/pcxczyjsgk/bmys/13992610.html</t>
+        </is>
+      </c>
+      <c r="C178" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=0f6325f1494f40f187e429b36a7aaa5a&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D178" s="0" t="inlineStr">
+        <is>
+          <t>巩固拓展脱贫成果</t>
+        </is>
+      </c>
+      <c r="E178" s="0" t="inlineStr">
+        <is>
+          <t>巩固拓展脱贫攻坚成果</t>
+        </is>
+      </c>
+      <c r="F178" s="0" t="inlineStr">
+        <is>
+          <t>平昌县邱家镇人民政府2025年部门预算</t>
+        </is>
+      </c>
+      <c r="G178" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/content/column/6794785?pageIndex=3</t>
+        </is>
+      </c>
+      <c r="H178" s="0" t="inlineStr">
+        <is>
+          <t>翻页</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="0" t="inlineStr">
+        <is>
+          <t>2025-04-30 08:34</t>
+        </is>
+      </c>
+      <c r="B179" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/ztzl/pcxczyjsgk/bmys/13992657.html</t>
+        </is>
+      </c>
+      <c r="C179" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=633e814d31b54da6a9f365b4e7325565&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D179" s="0" t="inlineStr">
+        <is>
+          <t>县委政府</t>
+        </is>
+      </c>
+      <c r="E179" s="0" t="inlineStr">
+        <is>
+          <t>县委县政府</t>
+        </is>
+      </c>
+      <c r="F179" s="0" t="inlineStr">
+        <is>
+          <t>平昌县教育科技和体育局2025年部门预算</t>
+        </is>
+      </c>
+      <c r="G179" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/content/column/6794785?pageIndex=2</t>
+        </is>
+      </c>
+      <c r="H179" s="0" t="inlineStr">
+        <is>
+          <t>翻页</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="0" t="inlineStr">
+        <is>
+          <t>2025-04-30 08:34</t>
+        </is>
+      </c>
+      <c r="B180" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/zwgk/zdlyxxgk/bdcdj/13291001.html</t>
+        </is>
+      </c>
+      <c r="C180" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=279e4bb5083b4aa98e09082161e97910&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D180" s="0" t="inlineStr">
+        <is>
+          <t>国有土使用权</t>
+        </is>
+      </c>
+      <c r="E180" s="0" t="inlineStr">
+        <is>
+          <t>国有土地使用权</t>
+        </is>
+      </c>
+      <c r="F180" s="0" t="inlineStr">
+        <is>
+          <t>遗失公告（赵刚）</t>
+        </is>
+      </c>
+      <c r="G180" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/zwgk/zdlyxxgk/bdcdj/index.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="0" t="inlineStr">
+        <is>
+          <t>2025-04-30 08:34</t>
+        </is>
+      </c>
+      <c r="B181" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/zwgk/zdlyxxgk/bdcdj/13291001.html</t>
+        </is>
+      </c>
+      <c r="C181" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=ca30bbdb28d84ee8a17551f35bc4c00d&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D181" s="0" t="inlineStr">
+        <is>
+          <t>国有土使用权</t>
+        </is>
+      </c>
+      <c r="E181" s="0" t="inlineStr">
+        <is>
+          <t>国有土地使用权</t>
+        </is>
+      </c>
+      <c r="F181" s="0" t="inlineStr">
+        <is>
+          <t>遗失公告（赵刚）</t>
+        </is>
+      </c>
+      <c r="G181" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/zwgk/zdlyxxgk/bdcdj/index.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="0" t="inlineStr">
+        <is>
+          <t>2025-04-30 08:34</t>
+        </is>
+      </c>
+      <c r="B182" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/content/article/11271361</t>
+        </is>
+      </c>
+      <c r="C182" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=699881d7edd349bdb55768aa7d7c7da1&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D182" s="0" t="inlineStr">
+        <is>
+          <t>言语不和</t>
+        </is>
+      </c>
+      <c r="E182" s="0" t="inlineStr">
+        <is>
+          <t>言语不合</t>
+        </is>
+      </c>
+      <c r="F182" s="0" t="inlineStr">
+        <is>
+          <t>90岁老母独居</t>
+        </is>
+      </c>
+      <c r="G182" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/content/column/6790331?pageIndex=118</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="0" t="inlineStr">
+        <is>
+          <t>2025-04-30 08:34</t>
+        </is>
+      </c>
+      <c r="B183" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/ztzl/pcxczyjsgk/bmys/13992627.html</t>
+        </is>
+      </c>
+      <c r="C183" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=3f7bbcf6ce6942dfae192fbdbe1802c6&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D183" s="0" t="inlineStr">
+        <is>
+          <t>中央“八项规定”</t>
+        </is>
+      </c>
+      <c r="E183" s="0" t="inlineStr">
+        <is>
+          <t>中央八项规定</t>
+        </is>
+      </c>
+      <c r="F183" s="0" t="inlineStr">
+        <is>
+          <t>平昌县望京镇人民政府2025年部门预算</t>
+        </is>
+      </c>
+      <c r="G183" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/content/column/6794785?pageIndex=2</t>
+        </is>
+      </c>
+      <c r="H183" s="0" t="inlineStr">
+        <is>
+          <t>翻页</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="0" t="inlineStr">
+        <is>
+          <t>2025-04-30 08:34</t>
+        </is>
+      </c>
+      <c r="B184" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/ywdt/pcyw/12678011.html</t>
+        </is>
+      </c>
+      <c r="C184" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=67a8afdad1334d8f83f1b81b5b2b401c&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D184" s="0" t="inlineStr">
+        <is>
+          <t>稳重向好</t>
+        </is>
+      </c>
+      <c r="E184" s="0" t="inlineStr">
+        <is>
+          <t>稳中向好</t>
+        </is>
+      </c>
+      <c r="F184" s="0" t="inlineStr">
+        <is>
+          <t>平昌县蔬菜产业稳重向好</t>
+        </is>
+      </c>
+      <c r="G184" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/content/column/6789791?pageIndex=103</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="0" t="inlineStr">
+        <is>
+          <t>2025-04-30 08:34</t>
+        </is>
+      </c>
+      <c r="B185" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/ywdt/pcyw/12678011.html</t>
+        </is>
+      </c>
+      <c r="C185" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=3c58c4082c164915baa5accc68716484&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D185" s="0" t="inlineStr">
+        <is>
+          <t>稳重向好</t>
+        </is>
+      </c>
+      <c r="E185" s="0" t="inlineStr">
+        <is>
+          <t>稳中向好</t>
+        </is>
+      </c>
+      <c r="F185" s="0" t="inlineStr">
+        <is>
+          <t>平昌县蔬菜产业稳重向好</t>
+        </is>
+      </c>
+      <c r="G185" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/content/column/6789791?pageIndex=103</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="0" t="inlineStr">
+        <is>
+          <t>2025-04-30 08:34</t>
+        </is>
+      </c>
+      <c r="B186" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/ywdt/pcyw/12678011.html</t>
+        </is>
+      </c>
+      <c r="C186" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=8568458125724906af4c033ee99c3ec7&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D186" s="0" t="inlineStr">
+        <is>
+          <t>稳重向好</t>
+        </is>
+      </c>
+      <c r="E186" s="0" t="inlineStr">
+        <is>
+          <t>稳中向好</t>
+        </is>
+      </c>
+      <c r="F186" s="0" t="inlineStr">
+        <is>
+          <t>平昌县蔬菜产业稳重向好</t>
+        </is>
+      </c>
+      <c r="G186" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/content/column/6789791?pageIndex=103</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="0" t="inlineStr">
+        <is>
+          <t>2025-04-30 08:34</t>
+        </is>
+      </c>
+      <c r="B187" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/public/6602121/13942266.html</t>
+        </is>
+      </c>
+      <c r="C187" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=05d0334dee9d43e09bdfe67c1dd5a27c&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D187" s="0" t="inlineStr">
+        <is>
+          <t>习近平总书记对安全生产工作的重要论述</t>
+        </is>
+      </c>
+      <c r="E187" s="0" t="inlineStr">
+        <is>
+          <t>习近平总书记关于安全生产工作的重要论述</t>
+        </is>
+      </c>
+      <c r="F187" s="0" t="inlineStr">
+        <is>
+          <t>平昌县商务局关于印发《平昌县商务领域安全生产治本攻坚三年行动方案（2024—2026年）》的通知</t>
+        </is>
+      </c>
+      <c r="G187" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/public/column/6602121?type=4&amp;action=list&amp;nav=2&amp;sub=0&amp;catId=6717327</t>
+        </is>
+      </c>
+      <c r="H187" s="0" t="inlineStr">
+        <is>
+          <t>政  策</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="0" t="inlineStr">
+        <is>
+          <t>2025-04-30 08:34</t>
+        </is>
+      </c>
+      <c r="B188" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/ywdt/pcyw/10019041.html</t>
+        </is>
+      </c>
+      <c r="C188" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=85a981e5ef40458c890742ca45bc035f&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D188" s="0" t="inlineStr">
+        <is>
+          <t>坚定“两个维护”</t>
+        </is>
+      </c>
+      <c r="E188" s="0" t="inlineStr">
+        <is>
+          <t>做到“两个维护”</t>
+        </is>
+      </c>
+      <c r="F188" s="0" t="inlineStr">
+        <is>
+          <t>【图文】县政协党组召开2018年度民主生活会</t>
+        </is>
+      </c>
+      <c r="G188" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/content/column/6789791?pageIndex=777</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="0" t="inlineStr">
+        <is>
+          <t>2025-04-30 08:35</t>
+        </is>
+      </c>
+      <c r="B189" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/ztzl/pcxczyjsgk/dwys/13992828.html</t>
+        </is>
+      </c>
+      <c r="C189" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=3bea7d1f541c48069966210758d5448e&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D189" s="0" t="inlineStr">
+        <is>
+          <t>自然资源局和规划局</t>
+        </is>
+      </c>
+      <c r="E189" s="0" t="inlineStr">
+        <is>
+          <t>自然资源和规划局</t>
+        </is>
+      </c>
+      <c r="F189" s="0" t="inlineStr">
+        <is>
+          <t>平昌县自然资源和规划局2025年单位预算</t>
+        </is>
+      </c>
+      <c r="G189" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/content/column/6794789?pageIndex=5</t>
+        </is>
+      </c>
+      <c r="H189" s="0" t="inlineStr">
+        <is>
+          <t>翻页</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="0" t="inlineStr">
+        <is>
+          <t>2025-04-30 08:35</t>
+        </is>
+      </c>
+      <c r="B190" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/content/article/11060771</t>
+        </is>
+      </c>
+      <c r="C190" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=81a519ef85ca42c186ddfa8f054317fd&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D190" s="0" t="inlineStr">
+        <is>
+          <t>截止今天</t>
+        </is>
+      </c>
+      <c r="E190" s="0" t="inlineStr">
+        <is>
+          <t>截至今天</t>
+        </is>
+      </c>
+      <c r="F190" s="0" t="inlineStr">
+        <is>
+          <t>购房补贴</t>
+        </is>
+      </c>
+      <c r="G190" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/content/column/6790321?pageIndex=79</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="0" t="inlineStr">
+        <is>
+          <t>2025-04-30 08:35</t>
+        </is>
+      </c>
+      <c r="B191" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/ztzl/pcxczyjsgk/dwys/13992768.html</t>
+        </is>
+      </c>
+      <c r="C191" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=0ab312315bdf44779ea4b3ed1cf10d07&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D191" s="0" t="inlineStr">
+        <is>
+          <t>县委政府</t>
+        </is>
+      </c>
+      <c r="E191" s="0" t="inlineStr">
+        <is>
+          <t>县委县政府</t>
+        </is>
+      </c>
+      <c r="F191" s="0" t="inlineStr">
+        <is>
+          <t>平昌县疾病预防控制中心2025年单位预算</t>
+        </is>
+      </c>
+      <c r="G191" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/content/column/6794789?pageIndex=6</t>
+        </is>
+      </c>
+      <c r="H191" s="0" t="inlineStr">
+        <is>
+          <t>翻页</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="0" t="inlineStr">
+        <is>
+          <t>2025-04-30 08:35</t>
+        </is>
+      </c>
+      <c r="B192" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/content/article/11269701</t>
+        </is>
+      </c>
+      <c r="C192" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=34d9662333a74eea89548af74601d8b5&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D192" s="0" t="inlineStr">
+        <is>
+          <t>您们</t>
+        </is>
+      </c>
+      <c r="E192" s="0" t="inlineStr">
+        <is>
+          <t>请遵循传统语法规范，建议使用：诸位 | 各位 | 你们 | 您+数量词</t>
+        </is>
+      </c>
+      <c r="F192" s="0" t="inlineStr">
+        <is>
+          <t>人在外地如何办理准生证</t>
+        </is>
+      </c>
+      <c r="G192" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/content/column/6790331?pageIndex=128</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="0" t="inlineStr">
+        <is>
+          <t>2025-04-30 08:35</t>
+        </is>
+      </c>
+      <c r="B193" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/ztzl/pcxczyjsgk/dwys/13992765.html</t>
+        </is>
+      </c>
+      <c r="C193" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=86ea6bc1cc7045dcb425ba73dd324e83&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D193" s="0" t="inlineStr">
+        <is>
+          <t>县委政府</t>
+        </is>
+      </c>
+      <c r="E193" s="0" t="inlineStr">
+        <is>
+          <t>县委县政府</t>
+        </is>
+      </c>
+      <c r="F193" s="0" t="inlineStr">
+        <is>
+          <t>平昌县动物卫生监督所2025年单位预算</t>
+        </is>
+      </c>
+      <c r="G193" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/content/column/6794789?pageIndex=6</t>
+        </is>
+      </c>
+      <c r="H193" s="0" t="inlineStr">
+        <is>
+          <t>翻页</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="0" t="inlineStr">
+        <is>
+          <t>2025-04-30 08:35</t>
+        </is>
+      </c>
+      <c r="B194" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/ztzl/pcxczyjsgk/dwys/13992948.html</t>
+        </is>
+      </c>
+      <c r="C194" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=0c37ee1f14254eb48a32cbe4496c19f4&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D194" s="0" t="inlineStr">
+        <is>
+          <t>行使明主权利</t>
+        </is>
+      </c>
+      <c r="E194" s="0" t="inlineStr">
+        <is>
+          <t>行使民主权利</t>
+        </is>
+      </c>
+      <c r="F194" s="0" t="inlineStr">
+        <is>
+          <t>平昌县教育工会2025年单位预算</t>
+        </is>
+      </c>
+      <c r="G194" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/content/column/6794789?pageIndex=7</t>
+        </is>
+      </c>
+      <c r="H194" s="0" t="inlineStr">
+        <is>
+          <t>翻页</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="0" t="inlineStr">
+        <is>
+          <t>2025-04-30 08:35</t>
+        </is>
+      </c>
+      <c r="B195" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/public/6601841/13995108.html</t>
+        </is>
+      </c>
+      <c r="C195" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=af00ee07a56748cc93fc2505e8d83262&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D195" s="0" t="inlineStr">
+        <is>
+          <t>全面贯彻党的二十大及二十届二中、三中全会精神</t>
+        </is>
+      </c>
+      <c r="E195" s="0" t="inlineStr">
+        <is>
+          <t>全面贯彻党的二十大和二十届二中、三中全会精神</t>
+        </is>
+      </c>
+      <c r="F195" s="0" t="inlineStr">
+        <is>
+          <t>2024年平昌县国民经济和社会发展统计公报</t>
+        </is>
+      </c>
+      <c r="G195" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/public/column/6601841?action=list&amp;sub=2&amp;catId=6716731&amp;nav=2&amp;type=4</t>
+        </is>
+      </c>
+      <c r="H195" s="0" t="inlineStr">
+        <is>
+          <t>统计数据</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="0" t="inlineStr">
+        <is>
+          <t>2025-04-30 08:35</t>
+        </is>
+      </c>
+      <c r="B196" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/ztzl/pcxczyjsgk/dwys/13992830.html</t>
+        </is>
+      </c>
+      <c r="C196" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=e060128581484873973ea0734be805bd&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D196" s="0" t="inlineStr">
+        <is>
+          <t>县委政府</t>
+        </is>
+      </c>
+      <c r="E196" s="0" t="inlineStr">
+        <is>
+          <t>县委县政府</t>
+        </is>
+      </c>
+      <c r="F196" s="0" t="inlineStr">
+        <is>
+          <t>平昌县交通运输局2025年单位预算</t>
+        </is>
+      </c>
+      <c r="G196" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/content/column/6794789?pageIndex=5</t>
+        </is>
+      </c>
+      <c r="H196" s="0" t="inlineStr">
+        <is>
+          <t>翻页</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="0" t="inlineStr">
+        <is>
+          <t>2025-04-30 08:35</t>
+        </is>
+      </c>
+      <c r="B197" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/ztzl/pcxczyjsgk/dwys/13992830.html</t>
+        </is>
+      </c>
+      <c r="C197" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=b4a8ffc01eed4f74b7f8e3d94e6974b1&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D197" s="0" t="inlineStr">
+        <is>
+          <t>行政执法三项制度</t>
+        </is>
+      </c>
+      <c r="E197" s="0" t="inlineStr">
+        <is>
+          <t>行政执法“三项制度”</t>
+        </is>
+      </c>
+      <c r="F197" s="0" t="inlineStr">
+        <is>
+          <t>平昌县交通运输局2025年单位预算</t>
+        </is>
+      </c>
+      <c r="G197" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/content/column/6794789?pageIndex=5</t>
+        </is>
+      </c>
+      <c r="H197" s="0" t="inlineStr">
+        <is>
+          <t>翻页</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="0" t="inlineStr">
+        <is>
+          <t>2025-04-30 08:53</t>
+        </is>
+      </c>
+      <c r="B198" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/ztzl/pcxczyjsgk/bmys/13992676.html</t>
+        </is>
+      </c>
+      <c r="C198" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=61b0095c34294e54956eb8a0558498be&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D198" s="0" t="inlineStr">
+        <is>
+          <t>规划化</t>
+        </is>
+      </c>
+      <c r="E198" s="0" t="inlineStr">
+        <is>
+          <t>规范化|规模化</t>
+        </is>
+      </c>
+      <c r="F198" s="0" t="inlineStr">
+        <is>
+          <t>平昌县水利局2025年部门预算</t>
+        </is>
+      </c>
+      <c r="G198" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/content/column/6794785?pageIndex=2</t>
+        </is>
+      </c>
+      <c r="H198" s="0" t="inlineStr">
+        <is>
+          <t>翻页</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="0" t="inlineStr">
+        <is>
+          <t>2025-04-30 09:19</t>
+        </is>
+      </c>
+      <c r="B199" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/zwgk/jbxxgk/tjxx/13995093.html</t>
+        </is>
+      </c>
+      <c r="C199" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=3f0a19e8801c42d59041460d25c2747b&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D199" s="0" t="inlineStr">
+        <is>
+          <t>全面贯彻党的二十大及二十届二中、三中全会精神</t>
+        </is>
+      </c>
+      <c r="E199" s="0" t="inlineStr">
+        <is>
+          <t>全面贯彻党的二十大和二十届二中、三中全会精神</t>
+        </is>
+      </c>
+      <c r="F199" s="0" t="inlineStr">
+        <is>
+          <t>2024年平昌县国民经济和社会发展统计公报</t>
+        </is>
+      </c>
+      <c r="G199" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/index.html</t>
+        </is>
+      </c>
+      <c r="H199" s="0" t="inlineStr">
+        <is>
+          <t>网站首页</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="0" t="inlineStr">
+        <is>
+          <t>2025-04-30 14:52</t>
+        </is>
+      </c>
+      <c r="B200" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/ztzl/pcxczyjsgk/bmys/13992600.html</t>
+        </is>
+      </c>
+      <c r="C200" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=291ecc9d2809466e85f11a60fc6a1641&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D200" s="0" t="inlineStr">
+        <is>
+          <t>秸杆</t>
+        </is>
+      </c>
+      <c r="E200" s="0" t="inlineStr">
+        <is>
+          <t>秸秆</t>
+        </is>
+      </c>
+      <c r="F200" s="0" t="inlineStr">
+        <is>
+          <t>平昌县江口水乡水利风景区建设管理局2025年部门预算</t>
+        </is>
+      </c>
+      <c r="G200" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/content/column/6794785?pageIndex=3</t>
+        </is>
+      </c>
+      <c r="H200" s="0" t="inlineStr">
+        <is>
+          <t>翻页</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="0" t="inlineStr">
+        <is>
+          <t>2025-04-30 14:52</t>
+        </is>
+      </c>
+      <c r="B201" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/ztzl/pcxczyjsgk/bmys/13992482.html</t>
+        </is>
+      </c>
+      <c r="C201" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=f106579739984ca0a74a2035fccd5a9d&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D201" s="0" t="inlineStr">
+        <is>
+          <t>“两会”</t>
+        </is>
+      </c>
+      <c r="E201" s="0" t="inlineStr">
+        <is>
+          <t>注意区分是全国两会还是地方两会</t>
+        </is>
+      </c>
+      <c r="F201" s="0" t="inlineStr">
+        <is>
+          <t>平昌县信访局2025年部门预算</t>
+        </is>
+      </c>
+      <c r="G201" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/content/column/6794785?pageIndex=5</t>
+        </is>
+      </c>
+      <c r="H201" s="0" t="inlineStr">
+        <is>
+          <t>翻页</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="0" t="inlineStr">
+        <is>
+          <t>2025-04-30 14:52</t>
+        </is>
+      </c>
+      <c r="B202" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/ztzl/pcxczyjsgk/bmys/13992482.html</t>
+        </is>
+      </c>
+      <c r="C202" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=33355d7a212a42e79cea6665e58434ba&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D202" s="0" t="inlineStr">
+        <is>
+          <t>“两会”</t>
+        </is>
+      </c>
+      <c r="E202" s="0" t="inlineStr">
+        <is>
+          <t>注意区分是全国两会还是地方两会</t>
+        </is>
+      </c>
+      <c r="F202" s="0" t="inlineStr">
+        <is>
+          <t>平昌县信访局2025年部门预算</t>
+        </is>
+      </c>
+      <c r="G202" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/content/column/6794785?pageIndex=5</t>
+        </is>
+      </c>
+      <c r="H202" s="0" t="inlineStr">
+        <is>
+          <t>翻页</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="0" t="inlineStr">
+        <is>
+          <t>2025-04-30 14:52</t>
+        </is>
+      </c>
+      <c r="B203" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/ztzl/pcxczyjsgk/bmys/13992482.html</t>
+        </is>
+      </c>
+      <c r="C203" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=115e3cf6d5744385bec7a4dd9f15b83e&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D203" s="0" t="inlineStr">
+        <is>
+          <t>“两会”</t>
+        </is>
+      </c>
+      <c r="E203" s="0" t="inlineStr">
+        <is>
+          <t>注意区分是全国两会还是地方两会</t>
+        </is>
+      </c>
+      <c r="F203" s="0" t="inlineStr">
+        <is>
+          <t>平昌县信访局2025年部门预算</t>
+        </is>
+      </c>
+      <c r="G203" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/content/column/6794785?pageIndex=5</t>
+        </is>
+      </c>
+      <c r="H203" s="0" t="inlineStr">
+        <is>
+          <t>翻页</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="0" t="inlineStr">
+        <is>
+          <t>2025-04-30 14:52</t>
+        </is>
+      </c>
+      <c r="B204" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/zwgk/jbxxgk/tjxx/13995105.html</t>
+        </is>
+      </c>
+      <c r="C204" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=15f78bd3dca24a9b89aa71a9358c833f&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D204" s="0" t="inlineStr">
+        <is>
+          <t>全面贯彻党的二十大及二十届二中、三中全会精神</t>
+        </is>
+      </c>
+      <c r="E204" s="0" t="inlineStr">
+        <is>
+          <t>全面贯彻党的二十大和二十届二中、三中全会精神</t>
+        </is>
+      </c>
+      <c r="F204" s="0" t="inlineStr">
+        <is>
+          <t>2024年平昌县国民经济和社会发展统计公报</t>
+        </is>
+      </c>
+      <c r="G204" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/index.html</t>
+        </is>
+      </c>
+      <c r="H204" s="0" t="inlineStr">
+        <is>
+          <t>网站首页</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="0" t="inlineStr">
+        <is>
+          <t>2025-04-30 14:52</t>
+        </is>
+      </c>
+      <c r="B205" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/ztzl/pcxczyjsgk/bmys/13992624.html</t>
+        </is>
+      </c>
+      <c r="C205" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=2a0b406144f5431ab5e7335094b1859b&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D205" s="0" t="inlineStr">
+        <is>
+          <t>《妇女权益保护法》</t>
+        </is>
+      </c>
+      <c r="E205" s="0" t="inlineStr">
+        <is>
+          <t>《中华人民共和国妇女权益保障法》</t>
+        </is>
+      </c>
+      <c r="F205" s="0" t="inlineStr">
+        <is>
+          <t>平昌县土兴镇人民政府2025年部门预算</t>
+        </is>
+      </c>
+      <c r="G205" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/content/column/6794785?pageIndex=3</t>
+        </is>
+      </c>
+      <c r="H205" s="0" t="inlineStr">
+        <is>
+          <t>翻页</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="0" t="inlineStr">
+        <is>
+          <t>2025-04-30 14:52</t>
+        </is>
+      </c>
+      <c r="B206" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/ywdt/xzdt/12677871.html</t>
+        </is>
+      </c>
+      <c r="C206" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=3062d19e87ca49b9b2e66c9c3371364f&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D206" s="0" t="inlineStr">
+        <is>
+          <t>党的十九大精神和十九届二中、三中、四中全会精神</t>
+        </is>
+      </c>
+      <c r="E206" s="0" t="inlineStr">
+        <is>
+          <t>党的十九大和十九届二中、三中、四中全会精神</t>
+        </is>
+      </c>
+      <c r="F206" s="0" t="inlineStr">
+        <is>
+          <t>云台小学召开党员教职工政治理论学习会议</t>
+        </is>
+      </c>
+      <c r="G206" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/content/column/6789811?pageIndex=245</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="0" t="inlineStr">
+        <is>
+          <t>2025-04-30 14:52</t>
+        </is>
+      </c>
+      <c r="B207" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/ztzl/pcxczyjsgk/bmys/13992634.html</t>
+        </is>
+      </c>
+      <c r="C207" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=68e6775db3d340c7a0e2ed93c2ac7026&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D207" s="0" t="inlineStr">
+        <is>
+          <t>以学习习近平新时代中国特色社会主义思想为指导</t>
+        </is>
+      </c>
+      <c r="E207" s="0" t="inlineStr">
+        <is>
+          <t>以习近平新时代中国特色社会主义思想为指导</t>
+        </is>
+      </c>
+      <c r="F207" s="0" t="inlineStr">
+        <is>
+          <t>平昌县岩口镇人民政府2025年部门预算</t>
+        </is>
+      </c>
+      <c r="G207" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/content/column/6794785?pageIndex=2</t>
+        </is>
+      </c>
+      <c r="H207" s="0" t="inlineStr">
+        <is>
+          <t>翻页</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="0" t="inlineStr">
+        <is>
+          <t>2025-04-30 14:52</t>
+        </is>
+      </c>
+      <c r="B208" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/ztzl/pcxczyjsgk/bmys/13992634.html</t>
+        </is>
+      </c>
+      <c r="C208" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=0a0ac5f3cd3c4ee489671bb0d9b7f245&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D208" s="0" t="inlineStr">
+        <is>
+          <t>镇人民政</t>
+        </is>
+      </c>
+      <c r="E208" s="0" t="inlineStr">
+        <is>
+          <t>镇人民政府</t>
+        </is>
+      </c>
+      <c r="F208" s="0" t="inlineStr">
+        <is>
+          <t>平昌县岩口镇人民政府2025年部门预算</t>
+        </is>
+      </c>
+      <c r="G208" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/content/column/6794785?pageIndex=2</t>
+        </is>
+      </c>
+      <c r="H208" s="0" t="inlineStr">
+        <is>
+          <t>翻页</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="0" t="inlineStr">
+        <is>
+          <t>2025-04-30 14:52</t>
+        </is>
+      </c>
+      <c r="B209" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/ztzl/pcxczyjsgk/dwys/13992576.html</t>
+        </is>
+      </c>
+      <c r="C209" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=a2aff5325a9e4299bad153d9d282cf27&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D209" s="0" t="inlineStr">
+        <is>
+          <t>巩固脱贫攻坚成果同乡村振兴有效衔接</t>
+        </is>
+      </c>
+      <c r="E209" s="0" t="inlineStr">
+        <is>
+          <t>巩固拓展脱贫攻坚成果同乡村振兴有效衔接</t>
+        </is>
+      </c>
+      <c r="F209" s="0" t="inlineStr">
+        <is>
+          <t>平昌县财政局2025年单位预算</t>
+        </is>
+      </c>
+      <c r="G209" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/content/column/6794789?pageIndex=7</t>
+        </is>
+      </c>
+      <c r="H209" s="0" t="inlineStr">
+        <is>
+          <t>翻页</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="0" t="inlineStr">
+        <is>
+          <t>2025-04-30 14:52</t>
+        </is>
+      </c>
+      <c r="B210" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/ywdt/pcyw/10003771.html</t>
+        </is>
+      </c>
+      <c r="C210" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=587a7e4ae853478d95551f9709da1af0&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D210" s="0" t="inlineStr">
+        <is>
+          <t>抓住关键少数</t>
+        </is>
+      </c>
+      <c r="E210" s="0" t="inlineStr">
+        <is>
+          <t>抓住“关键少数”</t>
+        </is>
+      </c>
+      <c r="F210" s="0" t="inlineStr">
+        <is>
+          <t>【人民时评】对环境问题要“一盯到底”</t>
+        </is>
+      </c>
+      <c r="G210" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/content/column/6789791?pageIndex=295</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="0" t="inlineStr">
+        <is>
+          <t>2025-04-30 14:52</t>
+        </is>
+      </c>
+      <c r="B211" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/ztzl/pcxczyjsgk/bmys/13992598.html</t>
+        </is>
+      </c>
+      <c r="C211" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=3f53f6e144784432ab38ff9d20d36d2a&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D211" s="0" t="inlineStr">
+        <is>
+          <t>中央“八项规定”</t>
+        </is>
+      </c>
+      <c r="E211" s="0" t="inlineStr">
+        <is>
+          <t>中央八项规定</t>
+        </is>
+      </c>
+      <c r="F211" s="0" t="inlineStr">
+        <is>
+          <t>平昌县泥龙镇2025年部门预算</t>
+        </is>
+      </c>
+      <c r="G211" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/content/column/6794785?pageIndex=3</t>
+        </is>
+      </c>
+      <c r="H211" s="0" t="inlineStr">
+        <is>
+          <t>翻页</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="0" t="inlineStr">
+        <is>
+          <t>2025-04-30 14:52</t>
+        </is>
+      </c>
+      <c r="B212" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/public/6602841/10504651.html</t>
+        </is>
+      </c>
+      <c r="C212" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=783dc4d32e154e3cbcee148b4b67c7a4&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D212" s="0" t="inlineStr">
+        <is>
+          <t>意识淡泊</t>
+        </is>
+      </c>
+      <c r="E212" s="0" t="inlineStr">
+        <is>
+          <t>意识淡薄</t>
+        </is>
+      </c>
+      <c r="F212" s="0" t="inlineStr">
+        <is>
+          <t>岁末年初危险化学品和烟花爆竹安全生产专项整治工作总结</t>
+        </is>
+      </c>
+      <c r="G212" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/public/column/6602841?type=4&amp;action=list</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="0" t="inlineStr">
+        <is>
+          <t>2025-04-30 14:52</t>
+        </is>
+      </c>
+      <c r="B213" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/ztzl/pcxczyjsgk/bmys/13992447.html</t>
+        </is>
+      </c>
+      <c r="C213" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=9d10a7b17b53468788ccb91875b6f630&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D213" s="0" t="inlineStr">
+        <is>
+          <t>党委办厅</t>
+        </is>
+      </c>
+      <c r="E213" s="0" t="inlineStr">
+        <is>
+          <t>党委办公厅</t>
+        </is>
+      </c>
+      <c r="F213" s="0" t="inlineStr">
+        <is>
+          <t>平昌县目标绩效评估中心2025年部门预算</t>
+        </is>
+      </c>
+      <c r="G213" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/content/column/6794785?pageIndex=5</t>
+        </is>
+      </c>
+      <c r="H213" s="0" t="inlineStr">
+        <is>
+          <t>翻页</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="0" t="inlineStr">
+        <is>
+          <t>2025-04-30 14:52</t>
+        </is>
+      </c>
+      <c r="B214" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/ztzl/pcxczyjsgk/bmys/13992447.html</t>
+        </is>
+      </c>
+      <c r="C214" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=a4d1d5f446d44acda16e716d6b446143&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D214" s="0" t="inlineStr">
+        <is>
+          <t>党委办厅</t>
+        </is>
+      </c>
+      <c r="E214" s="0" t="inlineStr">
+        <is>
+          <t>党委办公厅</t>
+        </is>
+      </c>
+      <c r="F214" s="0" t="inlineStr">
+        <is>
+          <t>平昌县目标绩效评估中心2025年部门预算</t>
+        </is>
+      </c>
+      <c r="G214" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/content/column/6794785?pageIndex=5</t>
+        </is>
+      </c>
+      <c r="H214" s="0" t="inlineStr">
+        <is>
+          <t>翻页</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="0" t="inlineStr">
+        <is>
+          <t>2025-04-30 14:52</t>
+        </is>
+      </c>
+      <c r="B215" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/ztzl/pcxczyjsgk/bmys/13992447.html</t>
+        </is>
+      </c>
+      <c r="C215" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=3b60a4e688dc4d4ca957f5052411694d&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D215" s="0" t="inlineStr">
+        <is>
+          <t>党委办厅</t>
+        </is>
+      </c>
+      <c r="E215" s="0" t="inlineStr">
+        <is>
+          <t>党委办公厅</t>
+        </is>
+      </c>
+      <c r="F215" s="0" t="inlineStr">
+        <is>
+          <t>平昌县目标绩效评估中心2025年部门预算</t>
+        </is>
+      </c>
+      <c r="G215" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/content/column/6794785?pageIndex=5</t>
+        </is>
+      </c>
+      <c r="H215" s="0" t="inlineStr">
+        <is>
+          <t>翻页</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="0" t="inlineStr">
+        <is>
+          <t>2025-04-30 14:52</t>
+        </is>
+      </c>
+      <c r="B216" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/ztzl/pcxczyjsgk/bmys/13992447.html</t>
+        </is>
+      </c>
+      <c r="C216" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=759852206c31445dadaffcdeec74b30b&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D216" s="0" t="inlineStr">
+        <is>
+          <t>党委办厅</t>
+        </is>
+      </c>
+      <c r="E216" s="0" t="inlineStr">
+        <is>
+          <t>党委办公厅</t>
+        </is>
+      </c>
+      <c r="F216" s="0" t="inlineStr">
+        <is>
+          <t>平昌县目标绩效评估中心2025年部门预算</t>
+        </is>
+      </c>
+      <c r="G216" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/content/column/6794785?pageIndex=5</t>
+        </is>
+      </c>
+      <c r="H216" s="0" t="inlineStr">
+        <is>
+          <t>翻页</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="0" t="inlineStr">
+        <is>
+          <t>2025-04-30 14:52</t>
+        </is>
+      </c>
+      <c r="B217" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/ztzl/pcxczyjsgk/bmys/13992447.html</t>
+        </is>
+      </c>
+      <c r="C217" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=6b497f697a324035bafb0f96b0ab8bcd&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D217" s="0" t="inlineStr">
+        <is>
+          <t>党委办厅</t>
+        </is>
+      </c>
+      <c r="E217" s="0" t="inlineStr">
+        <is>
+          <t>党委办公厅</t>
+        </is>
+      </c>
+      <c r="F217" s="0" t="inlineStr">
+        <is>
+          <t>平昌县目标绩效评估中心2025年部门预算</t>
+        </is>
+      </c>
+      <c r="G217" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/content/column/6794785?pageIndex=5</t>
+        </is>
+      </c>
+      <c r="H217" s="0" t="inlineStr">
+        <is>
+          <t>翻页</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>2025-04-30 14:52</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/ztzl/pcxczyjsgk/bmys/13992447.html</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=c08e70d9eb6b488488639cad1e56a45a&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>党委办厅</t>
+        </is>
+      </c>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>党委办公厅</t>
+        </is>
+      </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>平昌县目标绩效评估中心2025年部门预算</t>
+        </is>
+      </c>
+      <c r="G218" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/content/column/6794785?pageIndex=5</t>
+        </is>
+      </c>
+      <c r="H218" t="inlineStr">
+        <is>
+          <t>翻页</t>
         </is>
       </c>
     </row>

--- a/pcxzf/pcxzf/jiyuehua/kaipumodify/modifyfile/sendfile/网站改错记录.xlsx
+++ b/pcxzf/pcxzf/jiyuehua/kaipumodify/modifyfile/sendfile/网站改错记录.xlsx
@@ -1215,7 +1215,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H218"/>
+  <dimension ref="A1:H326"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="N14" sqref="N14"/>
@@ -10206,44 +10206,4490 @@
       </c>
     </row>
     <row r="218">
-      <c r="A218" t="inlineStr">
+      <c r="A218" s="0" t="inlineStr">
         <is>
           <t>2025-04-30 14:52</t>
         </is>
       </c>
-      <c r="B218" t="inlineStr">
+      <c r="B218" s="0" t="inlineStr">
         <is>
           <t>http://www.scpc.gov.cn/ztzl/pcxczyjsgk/bmys/13992447.html</t>
         </is>
       </c>
-      <c r="C218" t="inlineStr">
+      <c r="C218" s="0" t="inlineStr">
         <is>
           <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=c08e70d9eb6b488488639cad1e56a45a&amp;type=0</t>
         </is>
       </c>
-      <c r="D218" t="inlineStr">
+      <c r="D218" s="0" t="inlineStr">
         <is>
           <t>党委办厅</t>
         </is>
       </c>
-      <c r="E218" t="inlineStr">
+      <c r="E218" s="0" t="inlineStr">
         <is>
           <t>党委办公厅</t>
         </is>
       </c>
-      <c r="F218" t="inlineStr">
+      <c r="F218" s="0" t="inlineStr">
         <is>
           <t>平昌县目标绩效评估中心2025年部门预算</t>
         </is>
       </c>
-      <c r="G218" t="inlineStr">
+      <c r="G218" s="0" t="inlineStr">
         <is>
           <t>http://www.scpc.gov.cn/content/column/6794785?pageIndex=5</t>
         </is>
       </c>
-      <c r="H218" t="inlineStr">
+      <c r="H218" s="0" t="inlineStr">
         <is>
           <t>翻页</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="0" t="inlineStr">
+        <is>
+          <t>2025-05-04 10:02</t>
+        </is>
+      </c>
+      <c r="B219" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/ztzl/yfzx/13984728.html</t>
+        </is>
+      </c>
+      <c r="C219" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=2314706632ec4005b6bf265ab85c68b0&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D219" s="0" t="inlineStr">
+        <is>
+          <t>《党政主要负责人履行推进法治政府建设第一责任人职责规定》</t>
+        </is>
+      </c>
+      <c r="E219" s="0" t="inlineStr">
+        <is>
+          <t>《党政主要负责人履行推进法治建设第一责任人职责规定》</t>
+        </is>
+      </c>
+      <c r="F219" s="0" t="inlineStr">
+        <is>
+          <t>平昌县土兴镇人民政府2024年度法治政府建设工作情况报告</t>
+        </is>
+      </c>
+      <c r="G219" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/ztzl/yfzx/index.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="0" t="inlineStr">
+        <is>
+          <t>2025-05-04 10:02</t>
+        </is>
+      </c>
+      <c r="B220" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/content/article/13987086</t>
+        </is>
+      </c>
+      <c r="C220" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=bad001e8811f4ac2ad0f3908b385b999&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D220" s="0" t="inlineStr">
+        <is>
+          <t>4日11日</t>
+        </is>
+      </c>
+      <c r="E220" s="0" t="inlineStr">
+        <is>
+          <t>疑似日期错误，建议修改</t>
+        </is>
+      </c>
+      <c r="F220" s="0" t="inlineStr">
+        <is>
+          <t>平昌县人力资源和社会保障局 关于公开征集提升人力资源和社会保障公共服务意见建议的公告</t>
+        </is>
+      </c>
+      <c r="G220" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="0" t="inlineStr">
+        <is>
+          <t>2025-05-04 10:02</t>
+        </is>
+      </c>
+      <c r="B221" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/public/6603221/11323461.html</t>
+        </is>
+      </c>
+      <c r="C221" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=9a418f5c6da4411f8808ede71ebf618c&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D221" s="0" t="inlineStr">
+        <is>
+          <t>涉及到</t>
+        </is>
+      </c>
+      <c r="E221" s="0" t="inlineStr">
+        <is>
+          <t>语义重复：涉及指“关联到或牵涉到”；及指“至或到达”。</t>
+        </is>
+      </c>
+      <c r="F221" s="0" t="inlineStr">
+        <is>
+          <t>关于做好非洲猪瘟防控工作的通知</t>
+        </is>
+      </c>
+      <c r="G221" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/public/column/6603221?type=4&amp;action=list&amp;nav=2&amp;sub=6&amp;catId=6716091&amp;pageIndex=2</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="0" t="inlineStr">
+        <is>
+          <t>2025-05-04 10:02</t>
+        </is>
+      </c>
+      <c r="B222" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/public/6604081/12993301.html</t>
+        </is>
+      </c>
+      <c r="C222" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=d55c68c5d0be4037b2e68e58f1fa6613&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D222" s="0" t="inlineStr">
+        <is>
+          <t>涉及到</t>
+        </is>
+      </c>
+      <c r="E222" s="0" t="inlineStr">
+        <is>
+          <t>语义重复：涉及指“关联到或牵涉到”；及指“至或到达”。</t>
+        </is>
+      </c>
+      <c r="F222" s="0" t="inlineStr">
+        <is>
+          <t>关于2019年财政预算执行情况及2020年财政预算（草案）的报告</t>
+        </is>
+      </c>
+      <c r="G222" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/public/column/6604081?type=4&amp;action=list&amp;nav=2&amp;sub=3&amp;catId=6716031</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="0" t="inlineStr">
+        <is>
+          <t>2025-05-04 10:02</t>
+        </is>
+      </c>
+      <c r="B223" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/ywdt/pcyw/13955845.html</t>
+        </is>
+      </c>
+      <c r="C223" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=0a8e288736ce4dabaee8faf0a6efc7ff&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D223" s="0" t="inlineStr">
+        <is>
+          <t>坚持以新时代中国特色社会主义思想为指导</t>
+        </is>
+      </c>
+      <c r="E223" s="0" t="inlineStr">
+        <is>
+          <t>坚持以习近平新时代中国特色社会主义思想为指导</t>
+        </is>
+      </c>
+      <c r="F223" s="0" t="inlineStr">
+        <is>
+          <t>习近平对退役军人工作作出重要指示强调 切实把退役军人接收安置好服务保障好教育管理好作用发挥好权益维护好</t>
+        </is>
+      </c>
+      <c r="G223" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/content/column/6789791?pageIndex=74</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="0" t="inlineStr">
+        <is>
+          <t>2025-05-04 10:02</t>
+        </is>
+      </c>
+      <c r="B224" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/ywdt/pcyw/13955845.html</t>
+        </is>
+      </c>
+      <c r="C224" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=b8e8e81a6d35412490dbaf1545a128c4&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D224" s="0" t="inlineStr">
+        <is>
+          <t>坚持以新时代中国特色社会主义思想为指导</t>
+        </is>
+      </c>
+      <c r="E224" s="0" t="inlineStr">
+        <is>
+          <t>坚持以习近平新时代中国特色社会主义思想为指导</t>
+        </is>
+      </c>
+      <c r="F224" s="0" t="inlineStr">
+        <is>
+          <t>习近平对退役军人工作作出重要指示强调 切实把退役军人接收安置好服务保障好教育管理好作用发挥好权益维护好</t>
+        </is>
+      </c>
+      <c r="G224" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/content/column/6789791?pageIndex=74</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="0" t="inlineStr">
+        <is>
+          <t>2025-05-04 10:02</t>
+        </is>
+      </c>
+      <c r="B225" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/ywdt/pcyw/13955845.html</t>
+        </is>
+      </c>
+      <c r="C225" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=61ee0ea3b0db40459c42125d013f4e5c&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D225" s="0" t="inlineStr">
+        <is>
+          <t>坚持以新时代中国特色社会主义思想为指导</t>
+        </is>
+      </c>
+      <c r="E225" s="0" t="inlineStr">
+        <is>
+          <t>坚持以习近平新时代中国特色社会主义思想为指导</t>
+        </is>
+      </c>
+      <c r="F225" s="0" t="inlineStr">
+        <is>
+          <t>习近平对退役军人工作作出重要指示强调 切实把退役军人接收安置好服务保障好教育管理好作用发挥好权益维护好</t>
+        </is>
+      </c>
+      <c r="G225" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/content/column/6789791?pageIndex=74</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="0" t="inlineStr">
+        <is>
+          <t>2025-05-04 10:02</t>
+        </is>
+      </c>
+      <c r="B226" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/ywdt/xzdt/13270001.html</t>
+        </is>
+      </c>
+      <c r="C226" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=5ca164fc565145e1aaae7dfea4eb6f20&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D226" s="0" t="inlineStr">
+        <is>
+          <t>截止今天</t>
+        </is>
+      </c>
+      <c r="E226" s="0" t="inlineStr">
+        <is>
+          <t>截至今天</t>
+        </is>
+      </c>
+      <c r="F226" s="0" t="inlineStr">
+        <is>
+          <t>粉壁镇：再接再厉，持续做好疫苗接种工作</t>
+        </is>
+      </c>
+      <c r="G226" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/content/column/6789811?pageIndex=169</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="0" t="inlineStr">
+        <is>
+          <t>2025-05-04 10:02</t>
+        </is>
+      </c>
+      <c r="B227" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/ywdt/xzdt/13270001.html</t>
+        </is>
+      </c>
+      <c r="C227" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=f5c6cbaf2cfd408a93f43f31297dc414&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D227" s="0" t="inlineStr">
+        <is>
+          <t>截止今天</t>
+        </is>
+      </c>
+      <c r="E227" s="0" t="inlineStr">
+        <is>
+          <t>截至今天</t>
+        </is>
+      </c>
+      <c r="F227" s="0" t="inlineStr">
+        <is>
+          <t>粉壁镇：再接再厉，持续做好疫苗接种工作</t>
+        </is>
+      </c>
+      <c r="G227" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/content/column/6789811?pageIndex=169</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="0" t="inlineStr">
+        <is>
+          <t>2025-05-04 10:02</t>
+        </is>
+      </c>
+      <c r="B228" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/ywdt/pcyw/13981119.html</t>
+        </is>
+      </c>
+      <c r="C228" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=07a05bbfa9e84475876e810b82cf6c0e&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D228" s="0" t="inlineStr">
+        <is>
+          <t>烟火表演</t>
+        </is>
+      </c>
+      <c r="E228" s="0" t="inlineStr">
+        <is>
+          <t>焰火表演</t>
+        </is>
+      </c>
+      <c r="F228" s="0" t="inlineStr">
+        <is>
+          <t>【特稿】和气致祥 和实生物 和合共生</t>
+        </is>
+      </c>
+      <c r="G228" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/content/column/6789791?pageIndex=15</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="0" t="inlineStr">
+        <is>
+          <t>2025-05-06 09:24</t>
+        </is>
+      </c>
+      <c r="B229" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/ywdt/bmdt/13325311.html</t>
+        </is>
+      </c>
+      <c r="C229" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=abb0c9b20894429a891496ba741e6251&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D229" s="0" t="inlineStr">
+        <is>
+          <t>抓住关键少数</t>
+        </is>
+      </c>
+      <c r="E229" s="0" t="inlineStr">
+        <is>
+          <t>抓住“关键少数”</t>
+        </is>
+      </c>
+      <c r="F229" s="0" t="inlineStr">
+        <is>
+          <t>县商务局：再部署再推进，吹响党风廉政建设“集结号”</t>
+        </is>
+      </c>
+      <c r="G229" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/content/column/6789801?pageIndex=166</t>
+        </is>
+      </c>
+      <c r="H229" s="0" t="inlineStr">
+        <is>
+          <t>翻页</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="0" t="inlineStr">
+        <is>
+          <t>2025-05-06 09:24</t>
+        </is>
+      </c>
+      <c r="B230" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/zwgk/jbxxgk/jcygk/yjzj/13985233.html</t>
+        </is>
+      </c>
+      <c r="C230" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=abf2c6be8e0648779cd803eda44bcee0&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D230" s="0" t="inlineStr">
+        <is>
+          <t>》（征求意见稿）</t>
+        </is>
+      </c>
+      <c r="E230" s="0" t="inlineStr">
+        <is>
+          <t>（征求意见稿）》</t>
+        </is>
+      </c>
+      <c r="F230" s="0" t="inlineStr">
+        <is>
+          <t>平昌县民政局 关于公开征求《平昌县火葬区和土葬改革区调整划定方案（征求意见稿）》意见建议的公告</t>
+        </is>
+      </c>
+      <c r="G230" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/zwgk/jbxxgk/jcygk/index.html</t>
+        </is>
+      </c>
+      <c r="H230" s="0" t="inlineStr">
+        <is>
+          <t>决策预公开</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="0" t="inlineStr">
+        <is>
+          <t>2025-05-06 09:24</t>
+        </is>
+      </c>
+      <c r="B231" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/ztzl/qzjd100zn/13254321.html</t>
+        </is>
+      </c>
+      <c r="C231" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=843bb9733a284b1a80c92dca6fbbc15e&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D231" s="0" t="inlineStr">
+        <is>
+          <t>十九届五中全会精神</t>
+        </is>
+      </c>
+      <c r="E231" s="0" t="inlineStr">
+        <is>
+          <t>党的十九届五中全会精神</t>
+        </is>
+      </c>
+      <c r="F231" s="0" t="inlineStr">
+        <is>
+          <t>【学习贯彻五中全会精神】党史办：深学笃行十九届五中全会精神</t>
+        </is>
+      </c>
+      <c r="G231" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/content/column/6794261?pageIndex=20</t>
+        </is>
+      </c>
+      <c r="H231" s="0" t="inlineStr">
+        <is>
+          <t>翻页</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="0" t="inlineStr">
+        <is>
+          <t>2025-05-06 09:24</t>
+        </is>
+      </c>
+      <c r="B232" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/ztzl/qzjd100zn/13254321.html</t>
+        </is>
+      </c>
+      <c r="C232" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=76510afc9dfd4931aa8e093fc2372f2f&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D232" s="0" t="inlineStr">
+        <is>
+          <t>十九届五中全会精神</t>
+        </is>
+      </c>
+      <c r="E232" s="0" t="inlineStr">
+        <is>
+          <t>党的十九届五中全会精神</t>
+        </is>
+      </c>
+      <c r="F232" s="0" t="inlineStr">
+        <is>
+          <t>【学习贯彻五中全会精神】党史办：深学笃行十九届五中全会精神</t>
+        </is>
+      </c>
+      <c r="G232" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/content/column/6794261?pageIndex=20</t>
+        </is>
+      </c>
+      <c r="H232" s="0" t="inlineStr">
+        <is>
+          <t>翻页</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="0" t="inlineStr">
+        <is>
+          <t>2025-05-06 09:24</t>
+        </is>
+      </c>
+      <c r="B233" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/public/6601841/13814358.html</t>
+        </is>
+      </c>
+      <c r="C233" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=511c872a0f11458b93c9cf1799acbf73&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D233" s="0" t="inlineStr">
+        <is>
+          <t>党政同责、一岗双责，齐抓共管、失职追责</t>
+        </is>
+      </c>
+      <c r="E233" s="0" t="inlineStr">
+        <is>
+          <t>党政同责、一岗双责、齐抓共管、失职追责</t>
+        </is>
+      </c>
+      <c r="F233" s="0" t="inlineStr">
+        <is>
+          <t>平昌县人民政府办公室 关于印发《平昌县突发地质灾害应急预案（试行）》的通知</t>
+        </is>
+      </c>
+      <c r="G233" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/public/column/6601841?type=4&amp;action=list&amp;nav=2&amp;sub=2&amp;catId=6717181&amp;pageIndex=3</t>
+        </is>
+      </c>
+      <c r="H233" s="0" t="inlineStr">
+        <is>
+          <t>翻页</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="0" t="inlineStr">
+        <is>
+          <t>2025-05-06 09:24</t>
+        </is>
+      </c>
+      <c r="B234" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/ywdt/bmdt/10100221.html</t>
+        </is>
+      </c>
+      <c r="C234" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=24f307d2e572496f9251f33466e00ce5&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D234" s="0" t="inlineStr">
+        <is>
+          <t>党的十九大及十九届二中、三中全会精神</t>
+        </is>
+      </c>
+      <c r="E234" s="0" t="inlineStr">
+        <is>
+          <t>党的十九大和十九届二中、三中全会精神</t>
+        </is>
+      </c>
+      <c r="F234" s="0" t="inlineStr">
+        <is>
+          <t>县委编办“五个一”庆祝建党98周年</t>
+        </is>
+      </c>
+      <c r="G234" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/content/column/6789801?pageIndex=276</t>
+        </is>
+      </c>
+      <c r="H234" s="0" t="inlineStr">
+        <is>
+          <t>翻页</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="0" t="inlineStr">
+        <is>
+          <t>2025-05-06 09:24</t>
+        </is>
+      </c>
+      <c r="B235" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/public/6603481/13952238.html</t>
+        </is>
+      </c>
+      <c r="C235" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=b0d0e3157d6a49e989cc45deabc9c2b8&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D235" s="0" t="inlineStr">
+        <is>
+          <t>严格落实中央八项规定及实施细则精神</t>
+        </is>
+      </c>
+      <c r="E235" s="0" t="inlineStr">
+        <is>
+          <t>严格落实中央八项规定及其实施细则精神</t>
+        </is>
+      </c>
+      <c r="F235" s="0" t="inlineStr">
+        <is>
+          <t>土兴镇2024年政府工作报告</t>
+        </is>
+      </c>
+      <c r="G235" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/public/column/6603481?type=4&amp;action=list&amp;nav=2&amp;sub=1&amp;catId=6715991</t>
+        </is>
+      </c>
+      <c r="H235" s="0" t="inlineStr">
+        <is>
+          <t>政府工作报告</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="0" t="inlineStr">
+        <is>
+          <t>2025-05-06 09:24</t>
+        </is>
+      </c>
+      <c r="B236" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/public/6604071/13920717.html</t>
+        </is>
+      </c>
+      <c r="C236" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=973e449c253c401d8065fbbb6cbb2e30&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D236" s="0" t="inlineStr">
+        <is>
+          <t>持续纠正“四风”</t>
+        </is>
+      </c>
+      <c r="E236" s="0" t="inlineStr">
+        <is>
+          <t>持续纠治“四风”</t>
+        </is>
+      </c>
+      <c r="F236" s="0" t="inlineStr">
+        <is>
+          <t>界牌乡2019年政府工作报告</t>
+        </is>
+      </c>
+      <c r="G236" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/public/column/6604071?type=4&amp;action=list&amp;nav=2&amp;sub=1&amp;catId=6715991</t>
+        </is>
+      </c>
+      <c r="H236" s="0" t="inlineStr">
+        <is>
+          <t>政府工作报告</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="0" t="inlineStr">
+        <is>
+          <t>2025-05-06 09:24</t>
+        </is>
+      </c>
+      <c r="B237" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/ywdt/bmdt/13145861.html</t>
+        </is>
+      </c>
+      <c r="C237" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=32f572acae5042b6a965f33b616f113a&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D237" s="0" t="inlineStr">
+        <is>
+          <t>粉粹</t>
+        </is>
+      </c>
+      <c r="E237" s="0" t="inlineStr">
+        <is>
+          <t>粉碎</t>
+        </is>
+      </c>
+      <c r="F237" s="0" t="inlineStr">
+        <is>
+          <t>平昌县大力发展农业特色产业</t>
+        </is>
+      </c>
+      <c r="G237" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/content/column/6789801?pageIndex=187</t>
+        </is>
+      </c>
+      <c r="H237" s="0" t="inlineStr">
+        <is>
+          <t>翻页</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="0" t="inlineStr">
+        <is>
+          <t>2025-05-06 16:03</t>
+        </is>
+      </c>
+      <c r="B238" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/public/6601901/10632701.html</t>
+        </is>
+      </c>
+      <c r="C238" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=c0cb75818a21409d902672baaef61d4d&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D238" s="0" t="inlineStr">
+        <is>
+          <t>“两会”</t>
+        </is>
+      </c>
+      <c r="E238" s="0" t="inlineStr">
+        <is>
+          <t>注意区分是全国两会还是地方两会</t>
+        </is>
+      </c>
+      <c r="F238" s="0" t="inlineStr">
+        <is>
+          <t>平昌县教育科技体育局 关于印发《2018年人大代表建议和政协委员 提案办理工作方案》的通知</t>
+        </is>
+      </c>
+      <c r="G238" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/public/column/6601901?type=4&amp;catId=6715951&amp;action=list&amp;pageIndex=3</t>
+        </is>
+      </c>
+      <c r="H238" s="0" t="inlineStr">
+        <is>
+          <t>翻页</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="0" t="inlineStr">
+        <is>
+          <t>2025-05-06 16:03</t>
+        </is>
+      </c>
+      <c r="B239" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/public/6602201/13819611.html</t>
+        </is>
+      </c>
+      <c r="C239" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=438a6909d58843089c946ba841aed2c3&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D239" s="0" t="inlineStr">
+        <is>
+          <t>粉粹</t>
+        </is>
+      </c>
+      <c r="E239" s="0" t="inlineStr">
+        <is>
+          <t>粉碎</t>
+        </is>
+      </c>
+      <c r="F239" s="0" t="inlineStr">
+        <is>
+          <t>平昌县俱兴建材有限公司“4.6”机械伤害事故调查报告</t>
+        </is>
+      </c>
+      <c r="G239" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/public/column/6602201?type=4&amp;action=list&amp;nav=2&amp;sub=4&amp;catId=6715921&amp;pageIndex=4</t>
+        </is>
+      </c>
+      <c r="H239" s="0" t="inlineStr">
+        <is>
+          <t>翻页</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="0" t="inlineStr">
+        <is>
+          <t>2025-05-06 16:03</t>
+        </is>
+      </c>
+      <c r="B240" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/public/6602201/13819611.html</t>
+        </is>
+      </c>
+      <c r="C240" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=500d50dd613249faa95cd93a05cedd5e&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D240" s="0" t="inlineStr">
+        <is>
+          <t>粉粹</t>
+        </is>
+      </c>
+      <c r="E240" s="0" t="inlineStr">
+        <is>
+          <t>粉碎</t>
+        </is>
+      </c>
+      <c r="F240" s="0" t="inlineStr">
+        <is>
+          <t>平昌县俱兴建材有限公司“4.6”机械伤害事故调查报告</t>
+        </is>
+      </c>
+      <c r="G240" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/public/column/6602201?type=4&amp;action=list&amp;nav=2&amp;sub=4&amp;catId=6715921&amp;pageIndex=4</t>
+        </is>
+      </c>
+      <c r="H240" s="0" t="inlineStr">
+        <is>
+          <t>翻页</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="0" t="inlineStr">
+        <is>
+          <t>2025-05-06 16:03</t>
+        </is>
+      </c>
+      <c r="B241" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/public/6602201/13819611.html</t>
+        </is>
+      </c>
+      <c r="C241" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=28557d969794439b811a5acaf0c2e02b&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D241" s="0" t="inlineStr">
+        <is>
+          <t>粉粹</t>
+        </is>
+      </c>
+      <c r="E241" s="0" t="inlineStr">
+        <is>
+          <t>粉碎</t>
+        </is>
+      </c>
+      <c r="F241" s="0" t="inlineStr">
+        <is>
+          <t>平昌县俱兴建材有限公司“4.6”机械伤害事故调查报告</t>
+        </is>
+      </c>
+      <c r="G241" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/public/column/6602201?type=4&amp;action=list&amp;nav=2&amp;sub=4&amp;catId=6715921&amp;pageIndex=4</t>
+        </is>
+      </c>
+      <c r="H241" s="0" t="inlineStr">
+        <is>
+          <t>翻页</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="0" t="inlineStr">
+        <is>
+          <t>2025-05-06 16:03</t>
+        </is>
+      </c>
+      <c r="B242" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/public/6602201/13819611.html</t>
+        </is>
+      </c>
+      <c r="C242" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=a77362eefaab4596a1c5aae5ee1d1823&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D242" s="0" t="inlineStr">
+        <is>
+          <t>粉粹</t>
+        </is>
+      </c>
+      <c r="E242" s="0" t="inlineStr">
+        <is>
+          <t>粉碎</t>
+        </is>
+      </c>
+      <c r="F242" s="0" t="inlineStr">
+        <is>
+          <t>平昌县俱兴建材有限公司“4.6”机械伤害事故调查报告</t>
+        </is>
+      </c>
+      <c r="G242" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/public/column/6602201?type=4&amp;action=list&amp;nav=2&amp;sub=4&amp;catId=6715921&amp;pageIndex=4</t>
+        </is>
+      </c>
+      <c r="H242" s="0" t="inlineStr">
+        <is>
+          <t>翻页</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="0" t="inlineStr">
+        <is>
+          <t>2025-05-06 16:03</t>
+        </is>
+      </c>
+      <c r="B243" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/public/6602201/13819611.html</t>
+        </is>
+      </c>
+      <c r="C243" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=5b71a53bab594f87994b7a6b0cabc8b4&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D243" s="0" t="inlineStr">
+        <is>
+          <t>粉粹</t>
+        </is>
+      </c>
+      <c r="E243" s="0" t="inlineStr">
+        <is>
+          <t>粉碎</t>
+        </is>
+      </c>
+      <c r="F243" s="0" t="inlineStr">
+        <is>
+          <t>平昌县俱兴建材有限公司“4.6”机械伤害事故调查报告</t>
+        </is>
+      </c>
+      <c r="G243" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/public/column/6602201?type=4&amp;action=list&amp;nav=2&amp;sub=4&amp;catId=6715921&amp;pageIndex=4</t>
+        </is>
+      </c>
+      <c r="H243" s="0" t="inlineStr">
+        <is>
+          <t>翻页</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="0" t="inlineStr">
+        <is>
+          <t>2025-05-06 16:03</t>
+        </is>
+      </c>
+      <c r="B244" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/public/6602201/13819611.html</t>
+        </is>
+      </c>
+      <c r="C244" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=903977468cb140ae96ec37bb6eed54ab&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D244" s="0" t="inlineStr">
+        <is>
+          <t>粉粹</t>
+        </is>
+      </c>
+      <c r="E244" s="0" t="inlineStr">
+        <is>
+          <t>粉碎</t>
+        </is>
+      </c>
+      <c r="F244" s="0" t="inlineStr">
+        <is>
+          <t>平昌县俱兴建材有限公司“4.6”机械伤害事故调查报告</t>
+        </is>
+      </c>
+      <c r="G244" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/public/column/6602201?type=4&amp;action=list&amp;nav=2&amp;sub=4&amp;catId=6715921&amp;pageIndex=4</t>
+        </is>
+      </c>
+      <c r="H244" s="0" t="inlineStr">
+        <is>
+          <t>翻页</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="0" t="inlineStr">
+        <is>
+          <t>2025-05-06 16:03</t>
+        </is>
+      </c>
+      <c r="B245" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/public/6602201/13819611.html</t>
+        </is>
+      </c>
+      <c r="C245" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=1f99ec5fc0ea44a0a1c2989ff39c43d9&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D245" s="0" t="inlineStr">
+        <is>
+          <t>粉粹</t>
+        </is>
+      </c>
+      <c r="E245" s="0" t="inlineStr">
+        <is>
+          <t>粉碎</t>
+        </is>
+      </c>
+      <c r="F245" s="0" t="inlineStr">
+        <is>
+          <t>平昌县俱兴建材有限公司“4.6”机械伤害事故调查报告</t>
+        </is>
+      </c>
+      <c r="G245" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/public/column/6602201?type=4&amp;action=list&amp;nav=2&amp;sub=4&amp;catId=6715921&amp;pageIndex=4</t>
+        </is>
+      </c>
+      <c r="H245" s="0" t="inlineStr">
+        <is>
+          <t>翻页</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="0" t="inlineStr">
+        <is>
+          <t>2025-05-06 16:04</t>
+        </is>
+      </c>
+      <c r="B246" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/ztzl/zl70nfdxsd/10190251.html</t>
+        </is>
+      </c>
+      <c r="C246" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=9f528cafac664f62bb75fefdf5f759ae&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D246" s="0" t="inlineStr">
+        <is>
+          <t>持续纠正“四风”</t>
+        </is>
+      </c>
+      <c r="E246" s="0" t="inlineStr">
+        <is>
+          <t>持续纠治“四风”</t>
+        </is>
+      </c>
+      <c r="F246" s="0" t="inlineStr">
+        <is>
+          <t>【图文】县委办公室支部委员会开展“大学习 大讨论 大调研”活动</t>
+        </is>
+      </c>
+      <c r="G246" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/content/column/6790261?pageIndex=7</t>
+        </is>
+      </c>
+      <c r="H246" s="0" t="inlineStr">
+        <is>
+          <t>翻页</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="0" t="inlineStr">
+        <is>
+          <t>2025-05-06 16:04</t>
+        </is>
+      </c>
+      <c r="B247" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/ywdt/bmdt/13740871.html</t>
+        </is>
+      </c>
+      <c r="C247" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=73f02389d52a4a7d9c3f91e33bfa68be&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D247" s="0" t="inlineStr">
+        <is>
+          <t>持续纠正“四风”</t>
+        </is>
+      </c>
+      <c r="E247" s="0" t="inlineStr">
+        <is>
+          <t>持续纠治“四风”</t>
+        </is>
+      </c>
+      <c r="F247" s="0" t="inlineStr">
+        <is>
+          <t>县财政局：多措并举抓实机关党建工作</t>
+        </is>
+      </c>
+      <c r="G247" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/content/column/6789801?pageIndex=99</t>
+        </is>
+      </c>
+      <c r="H247" s="0" t="inlineStr">
+        <is>
+          <t>翻页</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="0" t="inlineStr">
+        <is>
+          <t>2025-05-06 16:04</t>
+        </is>
+      </c>
+      <c r="B248" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/public/6602161/12731991.html</t>
+        </is>
+      </c>
+      <c r="C248" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=7715552cdde241478214b4ddab52156d&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D248" s="0" t="inlineStr">
+        <is>
+          <t>查帐</t>
+        </is>
+      </c>
+      <c r="E248" s="0" t="inlineStr">
+        <is>
+          <t>查账</t>
+        </is>
+      </c>
+      <c r="F248" s="0" t="inlineStr">
+        <is>
+          <t>关于印发《平昌县妇幼健康服务质量控制方案》的通知</t>
+        </is>
+      </c>
+      <c r="G248" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/public/column/6602161?type=4&amp;catId=6715951&amp;action=list&amp;pageIndex=5</t>
+        </is>
+      </c>
+      <c r="H248" s="0" t="inlineStr">
+        <is>
+          <t>翻页</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="0" t="inlineStr">
+        <is>
+          <t>2025-05-06 16:04</t>
+        </is>
+      </c>
+      <c r="B249" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/ywdt/pcyw/10001851.html</t>
+        </is>
+      </c>
+      <c r="C249" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=7cee55715d914a25be6b34c10404301d&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D249" s="0" t="inlineStr">
+        <is>
+          <t>持续纠正“四风”</t>
+        </is>
+      </c>
+      <c r="E249" s="0" t="inlineStr">
+        <is>
+          <t>持续纠治“四风”</t>
+        </is>
+      </c>
+      <c r="F249" s="0" t="inlineStr">
+        <is>
+          <t>【图文】县委办公室支部委员会开展“大学习 大讨论 大调研”活动</t>
+        </is>
+      </c>
+      <c r="G249" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/content/column/6789791?pageIndex=863</t>
+        </is>
+      </c>
+      <c r="H249" s="0" t="inlineStr">
+        <is>
+          <t>翻页</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="0" t="inlineStr">
+        <is>
+          <t>2025-05-06 16:04</t>
+        </is>
+      </c>
+      <c r="B250" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/ywdt/pcyw/13271411.html</t>
+        </is>
+      </c>
+      <c r="C250" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=270bbb2a7b7f40839248bde494a62109&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D250" s="0" t="inlineStr">
+        <is>
+          <t>抓住关键少数</t>
+        </is>
+      </c>
+      <c r="E250" s="0" t="inlineStr">
+        <is>
+          <t>抓住“关键少数”</t>
+        </is>
+      </c>
+      <c r="F250" s="0" t="inlineStr">
+        <is>
+          <t>【党史学习教育】“学+看+讲+写”扎实开展专题学习</t>
+        </is>
+      </c>
+      <c r="G250" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/content/column/6789791?pageIndex=535</t>
+        </is>
+      </c>
+      <c r="H250" s="0" t="inlineStr">
+        <is>
+          <t>翻页</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="0" t="inlineStr">
+        <is>
+          <t>2025-05-06 16:04</t>
+        </is>
+      </c>
+      <c r="B251" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/ywdt/pcyw/13867530.html</t>
+        </is>
+      </c>
+      <c r="C251" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=4244c1360db84c258ea33efd8b5e73cb&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D251" s="0" t="inlineStr">
+        <is>
+          <t>抓住关键少数</t>
+        </is>
+      </c>
+      <c r="E251" s="0" t="inlineStr">
+        <is>
+          <t>抓住“关键少数”</t>
+        </is>
+      </c>
+      <c r="F251" s="0" t="inlineStr">
+        <is>
+          <t>同州街道：“三举措”推动升学季党员干部大操大办治理</t>
+        </is>
+      </c>
+      <c r="G251" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/content/column/6789791?pageIndex=250</t>
+        </is>
+      </c>
+      <c r="H251" s="0" t="inlineStr">
+        <is>
+          <t>翻页</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="0" t="inlineStr">
+        <is>
+          <t>2025-05-07 09:15</t>
+        </is>
+      </c>
+      <c r="B252" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/ywdt/pcyw/13562321.html</t>
+        </is>
+      </c>
+      <c r="C252" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=7a425a13d78d4074b7aa382814fb91da&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D252" s="0" t="inlineStr">
+        <is>
+          <t>学习贯彻习近平总书记关于党的自我革命的战略思想</t>
+        </is>
+      </c>
+      <c r="E252" s="0" t="inlineStr">
+        <is>
+          <t>学习贯彻习近平总书记关于党的自我革命的重要思想</t>
+        </is>
+      </c>
+      <c r="F252" s="0" t="inlineStr">
+        <is>
+          <t>中国共产党第十九届中央纪律检查委员会第六次全体会议公报</t>
+        </is>
+      </c>
+      <c r="G252" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/content/column/6789791?pageIndex=472</t>
+        </is>
+      </c>
+      <c r="H252" s="0" t="inlineStr">
+        <is>
+          <t>翻页</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="0" t="inlineStr">
+        <is>
+          <t>2025-05-07 09:15</t>
+        </is>
+      </c>
+      <c r="B253" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/ywdt/pcyw/13826568.html</t>
+        </is>
+      </c>
+      <c r="C253" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=335ee6f242454f5d847a2cacaddb20aa&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D253" s="0" t="inlineStr">
+        <is>
+          <t>严格执行中央八项规定和实施细则精神</t>
+        </is>
+      </c>
+      <c r="E253" s="0" t="inlineStr">
+        <is>
+          <t>严格执行中央八项规定及其实施细则精神</t>
+        </is>
+      </c>
+      <c r="F253" s="0" t="inlineStr">
+        <is>
+          <t>【图文】张廷发主持召开2023年度党建暨党风廉政建设工作会</t>
+        </is>
+      </c>
+      <c r="G253" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/content/column/6789791?pageIndex=308</t>
+        </is>
+      </c>
+      <c r="H253" s="0" t="inlineStr">
+        <is>
+          <t>翻页</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="0" t="inlineStr">
+        <is>
+          <t>2025-05-07 09:15</t>
+        </is>
+      </c>
+      <c r="B254" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/ztzl/yfzx/13995375.html</t>
+        </is>
+      </c>
+      <c r="C254" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=189c42f4739243d9afef2d4b49e7c4db&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D254" s="0" t="inlineStr">
+        <is>
+          <t>“12.4”国家宪法日</t>
+        </is>
+      </c>
+      <c r="E254" s="0" t="inlineStr">
+        <is>
+          <t>“12·4”国家宪法日</t>
+        </is>
+      </c>
+      <c r="F254" s="0" t="inlineStr">
+        <is>
+          <t>平昌县佛头山文化产业园管理委员会2024年法治政府建设年度报告</t>
+        </is>
+      </c>
+      <c r="G254" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/content/column/6790051?pageIndex=2</t>
+        </is>
+      </c>
+      <c r="H254" s="0" t="inlineStr">
+        <is>
+          <t>翻页</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="0" t="inlineStr">
+        <is>
+          <t>2025-05-07 09:15</t>
+        </is>
+      </c>
+      <c r="B255" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/ztzl/yfzx/13995375.html</t>
+        </is>
+      </c>
+      <c r="C255" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=b1ce9cfb2947401eaba66f113d2dc5c6&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D255" s="0" t="inlineStr">
+        <is>
+          <t>“12.4”国家宪法日</t>
+        </is>
+      </c>
+      <c r="E255" s="0" t="inlineStr">
+        <is>
+          <t>“12·4”国家宪法日</t>
+        </is>
+      </c>
+      <c r="F255" s="0" t="inlineStr">
+        <is>
+          <t>平昌县佛头山文化产业园管理委员会2024年法治政府建设年度报告</t>
+        </is>
+      </c>
+      <c r="G255" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/content/column/6790051?pageIndex=2</t>
+        </is>
+      </c>
+      <c r="H255" s="0" t="inlineStr">
+        <is>
+          <t>翻页</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="0" t="inlineStr">
+        <is>
+          <t>2025-05-07 09:15</t>
+        </is>
+      </c>
+      <c r="B256" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/ywdt/bmdt/10102131.html</t>
+        </is>
+      </c>
+      <c r="C256" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=215566f6af0740c58287847113fb002a&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D256" s="0" t="inlineStr">
+        <is>
+          <t>晚19：00</t>
+        </is>
+      </c>
+      <c r="E256" s="0" t="inlineStr">
+        <is>
+          <t>疑似时间错误，注意区分12小时制和24小时制的时间表示方法</t>
+        </is>
+      </c>
+      <c r="F256" s="0" t="inlineStr">
+        <is>
+          <t>经开区双创园（花椒交易中心）通公交车</t>
+        </is>
+      </c>
+      <c r="G256" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/content/column/6789801?pageIndex=264</t>
+        </is>
+      </c>
+      <c r="H256" s="0" t="inlineStr">
+        <is>
+          <t>翻页</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="0" t="inlineStr">
+        <is>
+          <t>2025-05-07 09:15</t>
+        </is>
+      </c>
+      <c r="B257" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/ywdt/xzdt/10158271.html</t>
+        </is>
+      </c>
+      <c r="C257" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=8041838f74e54d49bc61c8c3b5ebd3d6&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D257" s="0" t="inlineStr">
+        <is>
+          <t>“不忘初心·牢记使命”主题教育</t>
+        </is>
+      </c>
+      <c r="E257" s="0" t="inlineStr">
+        <is>
+          <t>“不忘初心、牢记使命”主题教育</t>
+        </is>
+      </c>
+      <c r="F257" s="0" t="inlineStr">
+        <is>
+          <t>岳家小学团总支：召开“不忘初心、牢记使命”主题教育组织生活会</t>
+        </is>
+      </c>
+      <c r="G257" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/content/column/6789811?pageIndex=262</t>
+        </is>
+      </c>
+      <c r="H257" s="0" t="inlineStr">
+        <is>
+          <t>翻页</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="0" t="inlineStr">
+        <is>
+          <t>2025-05-07 09:18</t>
+        </is>
+      </c>
+      <c r="B258" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/content/article/13984434</t>
+        </is>
+      </c>
+      <c r="C258" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=650dd4fd64244e37a376dfbf80b9e47b&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D258" s="0" t="inlineStr">
+        <is>
+          <t>帐目</t>
+        </is>
+      </c>
+      <c r="E258" s="0" t="inlineStr">
+        <is>
+          <t>账目</t>
+        </is>
+      </c>
+      <c r="F258" s="0" t="inlineStr">
+        <is>
+          <t>求助</t>
+        </is>
+      </c>
+      <c r="G258" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/content/column/6790321?pageIndex=3</t>
+        </is>
+      </c>
+      <c r="H258" s="0" t="inlineStr">
+        <is>
+          <t>翻页</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="0" t="inlineStr">
+        <is>
+          <t>2025-05-07 09:18</t>
+        </is>
+      </c>
+      <c r="B259" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/group3/M00/11/2E/rBUtImXlOFyAMnAnAAJmAEdSHmA886.xls</t>
+        </is>
+      </c>
+      <c r="C259" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=8259aab428f44492a3236b50282b503b&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D259" s="0" t="inlineStr">
+        <is>
+          <t>》（试行）</t>
+        </is>
+      </c>
+      <c r="E259" s="0" t="inlineStr">
+        <is>
+          <t>（试行）》</t>
+        </is>
+      </c>
+      <c r="F259" s="0" t="inlineStr">
+        <is>
+          <t>巴中市平昌县交通运输局政府信息主动公开基本目录(最新)(1).xls</t>
+        </is>
+      </c>
+      <c r="G259" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/ztzl/zfxxzdgkjbml/xjbm/12633571.html</t>
+        </is>
+      </c>
+      <c r="H259" s="0" t="inlineStr">
+        <is>
+          <t>巴中市平昌县交通运输局政府信息主动公开基本目录</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="0" t="inlineStr">
+        <is>
+          <t>2025-05-07 09:18</t>
+        </is>
+      </c>
+      <c r="B260" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/content/article/11292071</t>
+        </is>
+      </c>
+      <c r="C260" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=46cefa8ee219466e89121cb5ec7e15e7&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D260" s="0" t="inlineStr">
+        <is>
+          <t>截至日期</t>
+        </is>
+      </c>
+      <c r="E260" s="0" t="inlineStr">
+        <is>
+          <t>截止日期</t>
+        </is>
+      </c>
+      <c r="F260" s="0" t="inlineStr">
+        <is>
+          <t>外地社保能否转入到新农保账户上</t>
+        </is>
+      </c>
+      <c r="G260" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/content/column/6790331?pageIndex=45</t>
+        </is>
+      </c>
+      <c r="H260" s="0" t="inlineStr">
+        <is>
+          <t>翻页</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="0" t="inlineStr">
+        <is>
+          <t>2025-05-07 09:18</t>
+        </is>
+      </c>
+      <c r="B261" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/ywdt/xzdt/13266231.html</t>
+        </is>
+      </c>
+      <c r="C261" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=f2888cd4bd874310bdc11f0adbaaf613&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D261" s="0" t="inlineStr">
+        <is>
+          <t>抓住关键少数</t>
+        </is>
+      </c>
+      <c r="E261" s="0" t="inlineStr">
+        <is>
+          <t>抓住“关键少数”</t>
+        </is>
+      </c>
+      <c r="F261" s="0" t="inlineStr">
+        <is>
+          <t>平昌县笔山职中：三举措抓实“关键少数”党史学习教育</t>
+        </is>
+      </c>
+      <c r="G261" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/content/column/6789811?pageIndex=172</t>
+        </is>
+      </c>
+      <c r="H261" s="0" t="inlineStr">
+        <is>
+          <t>翻页</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="0" t="inlineStr">
+        <is>
+          <t>2025-05-07 09:18</t>
+        </is>
+      </c>
+      <c r="B262" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/ztzl/qzjd100zn/13285811.html</t>
+        </is>
+      </c>
+      <c r="C262" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=38528d6602904be88a48bd3a265eeef0&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D262" s="0" t="inlineStr">
+        <is>
+          <t>抓住关键少数</t>
+        </is>
+      </c>
+      <c r="E262" s="0" t="inlineStr">
+        <is>
+          <t>抓住“关键少数”</t>
+        </is>
+      </c>
+      <c r="F262" s="0" t="inlineStr">
+        <is>
+          <t>【党史学习教育】“学+看+讲+写”扎实开展专题学习</t>
+        </is>
+      </c>
+      <c r="G262" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/content/column/6794261?pageIndex=4</t>
+        </is>
+      </c>
+      <c r="H262" s="0" t="inlineStr">
+        <is>
+          <t>翻页</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="0" t="inlineStr">
+        <is>
+          <t>2025-05-07 09:18</t>
+        </is>
+      </c>
+      <c r="B263" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/content/article/11284801</t>
+        </is>
+      </c>
+      <c r="C263" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=1d405ceb1a06414cbd0b651873735f12&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D263" s="0" t="inlineStr">
+        <is>
+          <t>死亡抚血</t>
+        </is>
+      </c>
+      <c r="E263" s="0" t="inlineStr">
+        <is>
+          <t>死亡抚恤</t>
+        </is>
+      </c>
+      <c r="F263" s="0" t="inlineStr">
+        <is>
+          <t>事业单位死亡抚血金和安葬费</t>
+        </is>
+      </c>
+      <c r="G263" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/content/column/6790331?pageIndex=86</t>
+        </is>
+      </c>
+      <c r="H263" s="0" t="inlineStr">
+        <is>
+          <t>翻页</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="0" t="inlineStr">
+        <is>
+          <t>2025-05-07 09:18</t>
+        </is>
+      </c>
+      <c r="B264" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/content/article/11284801</t>
+        </is>
+      </c>
+      <c r="C264" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=0a6f8256b17d45a1a7e816c6a4c13510&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D264" s="0" t="inlineStr">
+        <is>
+          <t>死亡抚血</t>
+        </is>
+      </c>
+      <c r="E264" s="0" t="inlineStr">
+        <is>
+          <t>死亡抚恤</t>
+        </is>
+      </c>
+      <c r="F264" s="0" t="inlineStr">
+        <is>
+          <t>事业单位死亡抚血金和安葬费</t>
+        </is>
+      </c>
+      <c r="G264" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/content/column/6790331?pageIndex=86</t>
+        </is>
+      </c>
+      <c r="H264" s="0" t="inlineStr">
+        <is>
+          <t>翻页</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="0" t="inlineStr">
+        <is>
+          <t>2025-05-07 09:18</t>
+        </is>
+      </c>
+      <c r="B265" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/content/article/11284801</t>
+        </is>
+      </c>
+      <c r="C265" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=72b93d58769d40ebbda2db9bd431fbea&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D265" s="0" t="inlineStr">
+        <is>
+          <t>死亡抚血</t>
+        </is>
+      </c>
+      <c r="E265" s="0" t="inlineStr">
+        <is>
+          <t>死亡抚恤</t>
+        </is>
+      </c>
+      <c r="F265" s="0" t="inlineStr">
+        <is>
+          <t>事业单位死亡抚血金和安葬费</t>
+        </is>
+      </c>
+      <c r="G265" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/content/column/6790331?pageIndex=86</t>
+        </is>
+      </c>
+      <c r="H265" s="0" t="inlineStr">
+        <is>
+          <t>翻页</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="0" t="inlineStr">
+        <is>
+          <t>2025-05-07 09:18</t>
+        </is>
+      </c>
+      <c r="B266" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/content/article/11284801</t>
+        </is>
+      </c>
+      <c r="C266" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=5e9ae2663d934fef8081479e157d4590&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D266" s="0" t="inlineStr">
+        <is>
+          <t>死亡抚血</t>
+        </is>
+      </c>
+      <c r="E266" s="0" t="inlineStr">
+        <is>
+          <t>死亡抚恤</t>
+        </is>
+      </c>
+      <c r="F266" s="0" t="inlineStr">
+        <is>
+          <t>事业单位死亡抚血金和安葬费</t>
+        </is>
+      </c>
+      <c r="G266" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/content/column/6790331?pageIndex=86</t>
+        </is>
+      </c>
+      <c r="H266" s="0" t="inlineStr">
+        <is>
+          <t>翻页</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="0" t="inlineStr">
+        <is>
+          <t>2025-05-07 09:18</t>
+        </is>
+      </c>
+      <c r="B267" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/public/6603121/11152951.html</t>
+        </is>
+      </c>
+      <c r="C267" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=e5ea5d3172c24594b3b4357a0701266d&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D267" s="0" t="inlineStr">
+        <is>
+          <t>派出所长</t>
+        </is>
+      </c>
+      <c r="E267" s="0" t="inlineStr">
+        <is>
+          <t>派出所所长</t>
+        </is>
+      </c>
+      <c r="F267" s="0" t="inlineStr">
+        <is>
+          <t>关于成立平长路（笔山场镇）路段养护修复工程工作领导小组的通知</t>
+        </is>
+      </c>
+      <c r="G267" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/public/column/6603121?type=4&amp;action=list&amp;nav=2&amp;sub=6&amp;catId=6716091&amp;pageIndex=3</t>
+        </is>
+      </c>
+      <c r="H267" s="0" t="inlineStr">
+        <is>
+          <t>翻页</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="0" t="inlineStr">
+        <is>
+          <t>2025-05-07 09:18</t>
+        </is>
+      </c>
+      <c r="B268" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/public/6602061/11086751.html</t>
+        </is>
+      </c>
+      <c r="C268" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=c960f4e21f47442ea47313a2b2970f9d&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D268" s="0" t="inlineStr">
+        <is>
+          <t>晚19：00</t>
+        </is>
+      </c>
+      <c r="E268" s="0" t="inlineStr">
+        <is>
+          <t>疑似时间错误，注意区分12小时制和24小时制的时间表示方法</t>
+        </is>
+      </c>
+      <c r="F268" s="0" t="inlineStr">
+        <is>
+          <t>关于经开区双创园（花椒交易中心）公交线路开行的公示</t>
+        </is>
+      </c>
+      <c r="G268" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/public/column/6602061?type=4&amp;action=list&amp;nav=2&amp;sub=6&amp;catId=6715951&amp;pageIndex=4</t>
+        </is>
+      </c>
+      <c r="H268" s="0" t="inlineStr">
+        <is>
+          <t>翻页</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="0" t="inlineStr">
+        <is>
+          <t>2025-05-07 09:18</t>
+        </is>
+      </c>
+      <c r="B269" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/ywdt/bmxx/10986321.html</t>
+        </is>
+      </c>
+      <c r="C269" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=e9127b940aa74752b127402ff8dbb8f1&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D269" s="0" t="inlineStr">
+        <is>
+          <t>晚20：00</t>
+        </is>
+      </c>
+      <c r="E269" s="0" t="inlineStr">
+        <is>
+          <t>疑似时间错误，注意区分12小时制和24小时制的时间表示方法</t>
+        </is>
+      </c>
+      <c r="F269" s="0" t="inlineStr">
+        <is>
+          <t>停水通知</t>
+        </is>
+      </c>
+      <c r="G269" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/content/column/6789851?pageIndex=24</t>
+        </is>
+      </c>
+      <c r="H269" s="0" t="inlineStr">
+        <is>
+          <t>翻页</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" s="0" t="inlineStr">
+        <is>
+          <t>2025-05-07 09:18</t>
+        </is>
+      </c>
+      <c r="B270" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/ywdt/bmxx/13855880.html</t>
+        </is>
+      </c>
+      <c r="C270" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=8441ad63dbae4be480b127fd27512279&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D270" s="0" t="inlineStr">
+        <is>
+          <t>晚23:00</t>
+        </is>
+      </c>
+      <c r="E270" s="0" t="inlineStr">
+        <is>
+          <t>疑似时间错误，注意区分12小时制和24小时制的时间表示方法</t>
+        </is>
+      </c>
+      <c r="F270" s="0" t="inlineStr">
+        <is>
+          <t>停水通知（5月16日）</t>
+        </is>
+      </c>
+      <c r="G270" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/content/column/6789851?pageIndex=9</t>
+        </is>
+      </c>
+      <c r="H270" s="0" t="inlineStr">
+        <is>
+          <t>翻页</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" s="0" t="inlineStr">
+        <is>
+          <t>2025-05-07 09:18</t>
+        </is>
+      </c>
+      <c r="B271" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/ywdt/bmxx/13479791.html</t>
+        </is>
+      </c>
+      <c r="C271" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=1fa3758587c84262b9d7b34cc7d0e4a1&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D271" s="0" t="inlineStr">
+        <is>
+          <t>晚19:00</t>
+        </is>
+      </c>
+      <c r="E271" s="0" t="inlineStr">
+        <is>
+          <t>疑似时间错误，注意区分12小时制和24小时制的时间表示方法</t>
+        </is>
+      </c>
+      <c r="F271" s="0" t="inlineStr">
+        <is>
+          <t>2021年11月23日公交总站无法办理公交卡业务</t>
+        </is>
+      </c>
+      <c r="G271" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/content/column/6789851?pageIndex=15</t>
+        </is>
+      </c>
+      <c r="H271" s="0" t="inlineStr">
+        <is>
+          <t>翻页</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" s="0" t="inlineStr">
+        <is>
+          <t>2025-05-07 09:18</t>
+        </is>
+      </c>
+      <c r="B272" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/ywdt/bmxx/13866236.html</t>
+        </is>
+      </c>
+      <c r="C272" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=8684cd45d94e44299a628d1451139476&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D272" s="0" t="inlineStr">
+        <is>
+          <t>晚23:00</t>
+        </is>
+      </c>
+      <c r="E272" s="0" t="inlineStr">
+        <is>
+          <t>疑似时间错误，注意区分12小时制和24小时制的时间表示方法</t>
+        </is>
+      </c>
+      <c r="F272" s="0" t="inlineStr">
+        <is>
+          <t>停水通知（6月12日至6月13日）</t>
+        </is>
+      </c>
+      <c r="G272" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/content/column/6789851?pageIndex=8</t>
+        </is>
+      </c>
+      <c r="H272" s="0" t="inlineStr">
+        <is>
+          <t>翻页</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" s="0" t="inlineStr">
+        <is>
+          <t>2025-05-07 09:19</t>
+        </is>
+      </c>
+      <c r="B273" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/ywdt/pcyw/9973591.html</t>
+        </is>
+      </c>
+      <c r="C273" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=92c876adeffc4047960b54619803343e&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D273" s="0" t="inlineStr">
+        <is>
+          <t>牢记习近平总书记的殷殷重托</t>
+        </is>
+      </c>
+      <c r="E273" s="0" t="inlineStr">
+        <is>
+          <t>牢记习近平总书记殷殷嘱托</t>
+        </is>
+      </c>
+      <c r="F273" s="0" t="inlineStr">
+        <is>
+          <t>【评论】做好创新创造这篇大文章</t>
+        </is>
+      </c>
+      <c r="G273" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/content/column/6789791?pageIndex=977</t>
+        </is>
+      </c>
+      <c r="H273" s="0" t="inlineStr">
+        <is>
+          <t>翻页</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" s="0" t="inlineStr">
+        <is>
+          <t>2025-05-07 09:19</t>
+        </is>
+      </c>
+      <c r="B274" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/ywdt/bmdt/13020901.html</t>
+        </is>
+      </c>
+      <c r="C274" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=bf5ee514eb48495386be585fbfc5f6a0&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D274" s="0" t="inlineStr">
+        <is>
+          <t>中央八项规定和实施细则精神</t>
+        </is>
+      </c>
+      <c r="E274" s="0" t="inlineStr">
+        <is>
+          <t>中央八项规定及其实施细则精神</t>
+        </is>
+      </c>
+      <c r="F274" s="0" t="inlineStr">
+        <is>
+          <t>【图文】县政协机关党组召开2020年度民主生活会暨巡察整改专题民主生活会</t>
+        </is>
+      </c>
+      <c r="G274" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/content/column/6789801?pageIndex=199</t>
+        </is>
+      </c>
+      <c r="H274" s="0" t="inlineStr">
+        <is>
+          <t>翻页</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" s="0" t="inlineStr">
+        <is>
+          <t>2025-05-07 09:19</t>
+        </is>
+      </c>
+      <c r="B275" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/ywdt/xzdt/13384751.html</t>
+        </is>
+      </c>
+      <c r="C275" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=d34522081ac341209b71e410c2d2029c&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D275" s="0" t="inlineStr">
+        <is>
+          <t>习近平总书记防汛救灾重要指示精神</t>
+        </is>
+      </c>
+      <c r="E275" s="0" t="inlineStr">
+        <is>
+          <t>习近平总书记关于防汛救灾的重要指示精神</t>
+        </is>
+      </c>
+      <c r="F275" s="0" t="inlineStr">
+        <is>
+          <t>英烈纪念园“三项举措”保障“双节”安全</t>
+        </is>
+      </c>
+      <c r="G275" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/content/column/6789811?pageIndex=155</t>
+        </is>
+      </c>
+      <c r="H275" s="0" t="inlineStr">
+        <is>
+          <t>翻页</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" s="0" t="inlineStr">
+        <is>
+          <t>2025-05-07 09:19</t>
+        </is>
+      </c>
+      <c r="B276" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/ywdt/bmdt/13763231.html</t>
+        </is>
+      </c>
+      <c r="C276" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=fdb973451e574fdabbaf64063038ee1c&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D276" s="0" t="inlineStr">
+        <is>
+          <t>晚21:00</t>
+        </is>
+      </c>
+      <c r="E276" s="0" t="inlineStr">
+        <is>
+          <t>疑似时间错误，注意区分12小时制和24小时制的时间表示方法</t>
+        </is>
+      </c>
+      <c r="F276" s="0" t="inlineStr">
+        <is>
+          <t>县交运局圆满完成重庆至巴中动车滞留旅客转运任务</t>
+        </is>
+      </c>
+      <c r="G276" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/content/column/6789801?pageIndex=93</t>
+        </is>
+      </c>
+      <c r="H276" s="0" t="inlineStr">
+        <is>
+          <t>翻页</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" s="0" t="inlineStr">
+        <is>
+          <t>2025-05-07 09:19</t>
+        </is>
+      </c>
+      <c r="B277" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/public/6601841/13455421.html</t>
+        </is>
+      </c>
+      <c r="C277" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=c128db276a8044ccac1adc7a9f3a3bae&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D277" s="0" t="inlineStr">
+        <is>
+          <t>习近平总书记防汛救灾重要指示精神</t>
+        </is>
+      </c>
+      <c r="E277" s="0" t="inlineStr">
+        <is>
+          <t>习近平总书记关于防汛救灾的重要指示精神</t>
+        </is>
+      </c>
+      <c r="F277" s="0" t="inlineStr">
+        <is>
+          <t>英烈纪念园“三项举措”保障“双节”安全</t>
+        </is>
+      </c>
+      <c r="G277" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/public/column/6601841?type=4&amp;action=list&amp;nav=&amp;sub=&amp;catId=6716851&amp;pageIndex=4</t>
+        </is>
+      </c>
+      <c r="H277" s="0" t="inlineStr">
+        <is>
+          <t>翻页</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" s="0" t="inlineStr">
+        <is>
+          <t>2025-05-07 09:19</t>
+        </is>
+      </c>
+      <c r="B278" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/ztzl/hbdc/gzbs/13421071.html</t>
+        </is>
+      </c>
+      <c r="C278" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=b0b3071daa324b32b9b13241352cdeb9&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D278" s="0" t="inlineStr">
+        <is>
+          <t>晚20:00</t>
+        </is>
+      </c>
+      <c r="E278" s="0" t="inlineStr">
+        <is>
+          <t>疑似时间错误，注意区分12小时制和24小时制的时间表示方法</t>
+        </is>
+      </c>
+      <c r="F278" s="0" t="inlineStr">
+        <is>
+          <t>第二轮第四批中央生态环境保护督察全面完成督察进驻工作</t>
+        </is>
+      </c>
+      <c r="G278" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/content/column/6792041?pageIndex=2</t>
+        </is>
+      </c>
+      <c r="H278" s="0" t="inlineStr">
+        <is>
+          <t>翻页</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" s="0" t="inlineStr">
+        <is>
+          <t>2025-05-07 09:19</t>
+        </is>
+      </c>
+      <c r="B279" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/ywdt/bmdt/13281981.html</t>
+        </is>
+      </c>
+      <c r="C279" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=c2dccc32d9964347b7f4563b7ecde418&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D279" s="0" t="inlineStr">
+        <is>
+          <t>晚20：30</t>
+        </is>
+      </c>
+      <c r="E279" s="0" t="inlineStr">
+        <is>
+          <t>疑似时间错误，注意区分12小时制和24小时制的时间表示方法</t>
+        </is>
+      </c>
+      <c r="F279" s="0" t="inlineStr">
+        <is>
+          <t>平昌交通全力以赴，奋战抗洪抢险第一线</t>
+        </is>
+      </c>
+      <c r="G279" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/content/column/6789801?pageIndex=171</t>
+        </is>
+      </c>
+      <c r="H279" s="0" t="inlineStr">
+        <is>
+          <t>翻页</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" s="0" t="inlineStr">
+        <is>
+          <t>2025-05-07 09:19</t>
+        </is>
+      </c>
+      <c r="B280" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/public/6602201/13819530.html</t>
+        </is>
+      </c>
+      <c r="C280" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=414d50f7076a4a48857e408bf21ea1b0&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D280" s="0" t="inlineStr">
+        <is>
+          <t>粉粹</t>
+        </is>
+      </c>
+      <c r="E280" s="0" t="inlineStr">
+        <is>
+          <t>粉碎</t>
+        </is>
+      </c>
+      <c r="F280" s="0" t="inlineStr">
+        <is>
+          <t>平昌县应急管理局2020年三季度安全生产监督检查计划执行情况</t>
+        </is>
+      </c>
+      <c r="G280" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/public/column/6602201?type=4&amp;action=list&amp;nav=2&amp;sub=4&amp;catId=6715921&amp;pageIndex=4</t>
+        </is>
+      </c>
+      <c r="H280" s="0" t="inlineStr">
+        <is>
+          <t>翻页</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" s="0" t="inlineStr">
+        <is>
+          <t>2025-05-07 09:19</t>
+        </is>
+      </c>
+      <c r="B281" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/public/6602201/13819530.html</t>
+        </is>
+      </c>
+      <c r="C281" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=c9e1ec0152a049e681abf685a45c761f&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D281" s="0" t="inlineStr">
+        <is>
+          <t>粉粹</t>
+        </is>
+      </c>
+      <c r="E281" s="0" t="inlineStr">
+        <is>
+          <t>粉碎</t>
+        </is>
+      </c>
+      <c r="F281" s="0" t="inlineStr">
+        <is>
+          <t>平昌县应急管理局2020年三季度安全生产监督检查计划执行情况</t>
+        </is>
+      </c>
+      <c r="G281" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/public/column/6602201?type=4&amp;action=list&amp;nav=2&amp;sub=4&amp;catId=6715921&amp;pageIndex=4</t>
+        </is>
+      </c>
+      <c r="H281" s="0" t="inlineStr">
+        <is>
+          <t>翻页</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" s="0" t="inlineStr">
+        <is>
+          <t>2025-05-07 09:19</t>
+        </is>
+      </c>
+      <c r="B282" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/public/6603501/13997816.html</t>
+        </is>
+      </c>
+      <c r="C282" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=8cb84d8236344e9393a94dbae3115ea7&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D282" s="0" t="inlineStr">
+        <is>
+          <t>“三公经费”</t>
+        </is>
+      </c>
+      <c r="E282" s="0" t="inlineStr">
+        <is>
+          <t>“三公”经费</t>
+        </is>
+      </c>
+      <c r="F282" s="0" t="inlineStr">
+        <is>
+          <t>大寨镇2025年政府工作报告</t>
+        </is>
+      </c>
+      <c r="G282" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/public/column/6603501?type=4&amp;action=list&amp;nav=2&amp;sub=1&amp;catId=6715991</t>
+        </is>
+      </c>
+      <c r="H282" s="0" t="inlineStr">
+        <is>
+          <t>大寨镇政府工作报告</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" s="0" t="inlineStr">
+        <is>
+          <t>2025-05-07 09:19</t>
+        </is>
+      </c>
+      <c r="B283" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/public/6603501/13997816.html</t>
+        </is>
+      </c>
+      <c r="C283" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=5caed0349d8b4a5cae160a9e19012011&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D283" s="0" t="inlineStr">
+        <is>
+          <t>增强“四个意识”，坚定“四个自信”，做到“两个维护”</t>
+        </is>
+      </c>
+      <c r="E283" s="0" t="inlineStr">
+        <is>
+          <t>增强“四个意识”、坚定“四个自信”、做到“两个维护”</t>
+        </is>
+      </c>
+      <c r="F283" s="0" t="inlineStr">
+        <is>
+          <t>大寨镇2025年政府工作报告</t>
+        </is>
+      </c>
+      <c r="G283" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/public/column/6603501?type=4&amp;action=list&amp;nav=2&amp;sub=1&amp;catId=6715991</t>
+        </is>
+      </c>
+      <c r="H283" s="0" t="inlineStr">
+        <is>
+          <t>大寨镇政府工作报告</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" s="0" t="inlineStr">
+        <is>
+          <t>2025-05-07 09:19</t>
+        </is>
+      </c>
+      <c r="B284" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/ywdt/pcyw/9975721.html</t>
+        </is>
+      </c>
+      <c r="C284" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=49c8c272059e42c288419a42b51c733c&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D284" s="0" t="inlineStr">
+        <is>
+          <t>抓住关键少数</t>
+        </is>
+      </c>
+      <c r="E284" s="0" t="inlineStr">
+        <is>
+          <t>抓住“关键少数”</t>
+        </is>
+      </c>
+      <c r="F284" s="0" t="inlineStr">
+        <is>
+          <t>【图文】我县召开依法治县暨维护社会和谐稳定工作会议</t>
+        </is>
+      </c>
+      <c r="G284" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/content/column/6789791?pageIndex=969</t>
+        </is>
+      </c>
+      <c r="H284" s="0" t="inlineStr">
+        <is>
+          <t>翻页</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" s="0" t="inlineStr">
+        <is>
+          <t>2025-05-08 08:22</t>
+        </is>
+      </c>
+      <c r="B285" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/ztzl/yfzx/13991448.html</t>
+        </is>
+      </c>
+      <c r="C285" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=95d5a2ac27524e3a93f85490c76b55e5&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D285" s="0" t="inlineStr">
+        <is>
+          <t>4.15全民国家安全教育日</t>
+        </is>
+      </c>
+      <c r="E285" s="0" t="inlineStr">
+        <is>
+          <t>“4·15”全民国家安全教育日</t>
+        </is>
+      </c>
+      <c r="F285" s="0" t="inlineStr">
+        <is>
+          <t>岩口镇2024年法治政府建设年度报告</t>
+        </is>
+      </c>
+      <c r="G285" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/ztzl/yfzx/index.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" s="0" t="inlineStr">
+        <is>
+          <t>2025-05-08 08:22</t>
+        </is>
+      </c>
+      <c r="B286" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/ztzl/yfzx/13991448.html</t>
+        </is>
+      </c>
+      <c r="C286" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=1d17e318f0d14181a245671a47964503&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D286" s="0" t="inlineStr">
+        <is>
+          <t>履职尽职</t>
+        </is>
+      </c>
+      <c r="E286" s="0" t="inlineStr">
+        <is>
+          <t>履职尽责</t>
+        </is>
+      </c>
+      <c r="F286" s="0" t="inlineStr">
+        <is>
+          <t>岩口镇2024年法治政府建设年度报告</t>
+        </is>
+      </c>
+      <c r="G286" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/ztzl/yfzx/index.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" s="0" t="inlineStr">
+        <is>
+          <t>2025-05-08 08:22</t>
+        </is>
+      </c>
+      <c r="B287" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/ztzl/yfzx/13991261.html</t>
+        </is>
+      </c>
+      <c r="C287" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=b5652e6738c94722866051c05c45af27&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D287" s="0" t="inlineStr">
+        <is>
+          <t>理论中心组</t>
+        </is>
+      </c>
+      <c r="E287" s="0" t="inlineStr">
+        <is>
+          <t>理论学习中心组</t>
+        </is>
+      </c>
+      <c r="F287" s="0" t="inlineStr">
+        <is>
+          <t>平昌县招商局2024年法治政府建设年度报告</t>
+        </is>
+      </c>
+      <c r="G287" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/ztzl/yfzx/index.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" s="0" t="inlineStr">
+        <is>
+          <t>2025-05-08 08:22</t>
+        </is>
+      </c>
+      <c r="B288" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/ztzl/yfzx/13991204.html</t>
+        </is>
+      </c>
+      <c r="C288" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=01988b72e3124bf283e38b643f7332e3&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D288" s="0" t="inlineStr">
+        <is>
+          <t>理论中心组</t>
+        </is>
+      </c>
+      <c r="E288" s="0" t="inlineStr">
+        <is>
+          <t>理论学习中心组</t>
+        </is>
+      </c>
+      <c r="F288" s="0" t="inlineStr">
+        <is>
+          <t>平昌县笔山镇人民政府关于2024年法治政府建设的工作报告</t>
+        </is>
+      </c>
+      <c r="G288" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/ztzl/yfzx/index.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" s="0" t="inlineStr">
+        <is>
+          <t>2025-05-08 08:22</t>
+        </is>
+      </c>
+      <c r="B289" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/ztzl/yfzx/13989781.html</t>
+        </is>
+      </c>
+      <c r="C289" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=2ebbfa185b8044efb6e4e44769df4d8f&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D289" s="0" t="inlineStr">
+        <is>
+          <t>习近平新时代中国特色社会主义法治思想</t>
+        </is>
+      </c>
+      <c r="E289" s="0" t="inlineStr">
+        <is>
+          <t>习近平法治思想</t>
+        </is>
+      </c>
+      <c r="F289" s="0" t="inlineStr">
+        <is>
+          <t>平昌县综合行政执法局2024年度法治政府建设年度报告</t>
+        </is>
+      </c>
+      <c r="G289" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/content/column/6790051?pageIndex=3</t>
+        </is>
+      </c>
+      <c r="H289" s="0" t="inlineStr">
+        <is>
+          <t>翻页</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" s="0" t="inlineStr">
+        <is>
+          <t>2025-05-08 08:22</t>
+        </is>
+      </c>
+      <c r="B290" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/ztzl/pcxczyjsgk/bmys/13992532.html</t>
+        </is>
+      </c>
+      <c r="C290" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=e817fd39c3504d2d8ab673cdf238e765&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D290" s="0" t="inlineStr">
+        <is>
+          <t>收人</t>
+        </is>
+      </c>
+      <c r="E290" s="0" t="inlineStr">
+        <is>
+          <t>收入</t>
+        </is>
+      </c>
+      <c r="F290" s="0" t="inlineStr">
+        <is>
+          <t>中国共产党平昌县委员会组织部2025年部门预算</t>
+        </is>
+      </c>
+      <c r="G290" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/content/column/6794785?pageIndex=4</t>
+        </is>
+      </c>
+      <c r="H290" s="0" t="inlineStr">
+        <is>
+          <t>翻页</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" s="0" t="inlineStr">
+        <is>
+          <t>2025-05-09 09:30</t>
+        </is>
+      </c>
+      <c r="B291" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/ywdt/xzdt/12659641.html</t>
+        </is>
+      </c>
+      <c r="C291" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=603991e18f1a4cff8c01aa556f18b001&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D291" s="0" t="inlineStr">
+        <is>
+          <t>重要讲话和指示批示精神</t>
+        </is>
+      </c>
+      <c r="E291" s="0" t="inlineStr">
+        <is>
+          <t>重要讲话和重要指示批示精神</t>
+        </is>
+      </c>
+      <c r="F291" s="0" t="inlineStr">
+        <is>
+          <t>板庙小学：学习教育成为党员能力发展新引擎</t>
+        </is>
+      </c>
+      <c r="G291" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/content/column/6789811?pageIndex=248</t>
+        </is>
+      </c>
+      <c r="H291" s="0" t="inlineStr">
+        <is>
+          <t>翻页</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" s="0" t="inlineStr">
+        <is>
+          <t>2025-05-09 09:30</t>
+        </is>
+      </c>
+      <c r="B292" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/ywdt/pcyw/13421551.html</t>
+        </is>
+      </c>
+      <c r="C292" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=3ebb3d9a075e4b2cb2e1fa0a8092c857&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D292" s="0" t="inlineStr">
+        <is>
+          <t>重要讲话和指示批示精神</t>
+        </is>
+      </c>
+      <c r="E292" s="0" t="inlineStr">
+        <is>
+          <t>重要讲话和重要指示批示精神</t>
+        </is>
+      </c>
+      <c r="F292" s="0" t="inlineStr">
+        <is>
+          <t>【图文】市委第二巡察组对平昌县粮食购销领域 开展专项巡察工作汇报会召开</t>
+        </is>
+      </c>
+      <c r="G292" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/content/column/6789791?pageIndex=505</t>
+        </is>
+      </c>
+      <c r="H292" s="0" t="inlineStr">
+        <is>
+          <t>翻页</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" s="0" t="inlineStr">
+        <is>
+          <t>2025-05-09 09:30</t>
+        </is>
+      </c>
+      <c r="B293" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/ywdt/pcyw/13998117.html</t>
+        </is>
+      </c>
+      <c r="C293" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=4c98c312b48d4eee88266ad8a6b1f645&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D293" s="0" t="inlineStr">
+        <is>
+          <t>学习贯彻总书记重要讲话精神</t>
+        </is>
+      </c>
+      <c r="E293" s="0" t="inlineStr">
+        <is>
+          <t>学习贯彻习近平总书记重要讲话精神</t>
+        </is>
+      </c>
+      <c r="F293" s="0" t="inlineStr">
+        <is>
+          <t>省委常委会召开会议</t>
+        </is>
+      </c>
+      <c r="G293" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/</t>
+        </is>
+      </c>
+      <c r="H293" s="0" t="inlineStr">
+        <is>
+          <t>平昌县人民政府</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" s="0" t="inlineStr">
+        <is>
+          <t>2025-05-09 09:30</t>
+        </is>
+      </c>
+      <c r="B294" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/ywdt/pcyw/13998117.html</t>
+        </is>
+      </c>
+      <c r="C294" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=e927092bf48744ed89b2fd407775350f&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D294" s="0" t="inlineStr">
+        <is>
+          <t>学习贯彻总书记重要讲话精神</t>
+        </is>
+      </c>
+      <c r="E294" s="0" t="inlineStr">
+        <is>
+          <t>学习贯彻习近平总书记重要讲话精神</t>
+        </is>
+      </c>
+      <c r="F294" s="0" t="inlineStr">
+        <is>
+          <t>省委常委会召开会议</t>
+        </is>
+      </c>
+      <c r="G294" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/</t>
+        </is>
+      </c>
+      <c r="H294" s="0" t="inlineStr">
+        <is>
+          <t>平昌县人民政府</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" s="0" t="inlineStr">
+        <is>
+          <t>2025-05-09 09:30</t>
+        </is>
+      </c>
+      <c r="B295" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/ywdt/pcyw/13998117.html</t>
+        </is>
+      </c>
+      <c r="C295" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=16dee18d35c44084adafbe73b24fb122&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D295" s="0" t="inlineStr">
+        <is>
+          <t>今年是“十四五”收官之年</t>
+        </is>
+      </c>
+      <c r="E295" s="0" t="inlineStr">
+        <is>
+          <t>今年是“十四五”规划收官之年</t>
+        </is>
+      </c>
+      <c r="F295" s="0" t="inlineStr">
+        <is>
+          <t>省委常委会召开会议</t>
+        </is>
+      </c>
+      <c r="G295" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/</t>
+        </is>
+      </c>
+      <c r="H295" s="0" t="inlineStr">
+        <is>
+          <t>平昌县人民政府</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" s="0" t="inlineStr">
+        <is>
+          <t>2025-05-10 12:06</t>
+        </is>
+      </c>
+      <c r="B296" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/group3/M00/16/15/rBUtImgdqiiANWv0ACjHtF5z1rY054.pdf</t>
+        </is>
+      </c>
+      <c r="C296" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=b603fb4e92eb4efd859c492838e43b1b&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D296" s="0" t="inlineStr">
+        <is>
+          <t>》（试行）</t>
+        </is>
+      </c>
+      <c r="E296" s="0" t="inlineStr">
+        <is>
+          <t>（试行）》</t>
+        </is>
+      </c>
+      <c r="F296" s="0" t="inlineStr">
+        <is>
+          <t>平昌县“天府菜油”融合发展暨产油大县和2021年粮油产业高质量发展项目--公示本.pdf</t>
+        </is>
+      </c>
+      <c r="G296" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/public/6602261/13998344.html</t>
+        </is>
+      </c>
+      <c r="H296" s="0" t="inlineStr">
+        <is>
+          <t>关于2025年5月9日已受理建设项目环评文件公告</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" s="0" t="inlineStr">
+        <is>
+          <t>2025-05-10 12:06</t>
+        </is>
+      </c>
+      <c r="B297" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/group3/M00/16/15/rBUtImgdqiiANWv0ACjHtF5z1rY054.pdf</t>
+        </is>
+      </c>
+      <c r="C297" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=8c9ed9ce8af446298378470c30b0b611&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D297" s="0" t="inlineStr">
+        <is>
+          <t>》（试行）</t>
+        </is>
+      </c>
+      <c r="E297" s="0" t="inlineStr">
+        <is>
+          <t>（试行）》</t>
+        </is>
+      </c>
+      <c r="F297" s="0" t="inlineStr">
+        <is>
+          <t>平昌县“天府菜油”融合发展暨产油大县和2021年粮油产业高质量发展项目--公示本.pdf</t>
+        </is>
+      </c>
+      <c r="G297" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/public/6602261/13998344.html</t>
+        </is>
+      </c>
+      <c r="H297" s="0" t="inlineStr">
+        <is>
+          <t>关于2025年5月9日已受理建设项目环评文件公告</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" s="0" t="inlineStr">
+        <is>
+          <t>2025-05-10 12:06</t>
+        </is>
+      </c>
+      <c r="B298" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/group3/M00/16/15/rBUtImgdqiiANWv0ACjHtF5z1rY054.pdf</t>
+        </is>
+      </c>
+      <c r="C298" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=2371d8be936f4188a53765271375f8e8&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D298" s="0" t="inlineStr">
+        <is>
+          <t>》（试行）</t>
+        </is>
+      </c>
+      <c r="E298" s="0" t="inlineStr">
+        <is>
+          <t>（试行）》</t>
+        </is>
+      </c>
+      <c r="F298" s="0" t="inlineStr">
+        <is>
+          <t>平昌县“天府菜油”融合发展暨产油大县和2021年粮油产业高质量发展项目--公示本.pdf</t>
+        </is>
+      </c>
+      <c r="G298" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/public/6602261/13998344.html</t>
+        </is>
+      </c>
+      <c r="H298" s="0" t="inlineStr">
+        <is>
+          <t>关于2025年5月9日已受理建设项目环评文件公告</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" s="0" t="inlineStr">
+        <is>
+          <t>2025-05-10 12:06</t>
+        </is>
+      </c>
+      <c r="B299" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/group3/M00/16/15/rBUtImgdqiiANWv0ACjHtF5z1rY054.pdf</t>
+        </is>
+      </c>
+      <c r="C299" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=bb3cace68e5a4160ba38b727bc043394&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D299" s="0" t="inlineStr">
+        <is>
+          <t>》（试行）</t>
+        </is>
+      </c>
+      <c r="E299" s="0" t="inlineStr">
+        <is>
+          <t>（试行）》</t>
+        </is>
+      </c>
+      <c r="F299" s="0" t="inlineStr">
+        <is>
+          <t>平昌县“天府菜油”融合发展暨产油大县和2021年粮油产业高质量发展项目--公示本.pdf</t>
+        </is>
+      </c>
+      <c r="G299" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/public/6602261/13998344.html</t>
+        </is>
+      </c>
+      <c r="H299" s="0" t="inlineStr">
+        <is>
+          <t>关于2025年5月9日已受理建设项目环评文件公告</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" s="0" t="inlineStr">
+        <is>
+          <t>2025-05-10 12:06</t>
+        </is>
+      </c>
+      <c r="B300" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/group3/M00/16/15/rBUtImgdqiiANWv0ACjHtF5z1rY054.pdf</t>
+        </is>
+      </c>
+      <c r="C300" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=47ff72d72cc243588ceb958fccf257a9&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D300" s="0" t="inlineStr">
+        <is>
+          <t>》（试行）</t>
+        </is>
+      </c>
+      <c r="E300" s="0" t="inlineStr">
+        <is>
+          <t>（试行）》</t>
+        </is>
+      </c>
+      <c r="F300" s="0" t="inlineStr">
+        <is>
+          <t>平昌县“天府菜油”融合发展暨产油大县和2021年粮油产业高质量发展项目--公示本.pdf</t>
+        </is>
+      </c>
+      <c r="G300" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/public/6602261/13998344.html</t>
+        </is>
+      </c>
+      <c r="H300" s="0" t="inlineStr">
+        <is>
+          <t>关于2025年5月9日已受理建设项目环评文件公告</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" s="0" t="inlineStr">
+        <is>
+          <t>2025-05-10 12:06</t>
+        </is>
+      </c>
+      <c r="B301" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/public/6603181/13998256.html</t>
+        </is>
+      </c>
+      <c r="C301" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=50db0a8e18444dfca441f051aac91861&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D301" s="0" t="inlineStr">
+        <is>
+          <t>习近平生态文明理念</t>
+        </is>
+      </c>
+      <c r="E301" s="0" t="inlineStr">
+        <is>
+          <t>习近平生态文明思想</t>
+        </is>
+      </c>
+      <c r="F301" s="0" t="inlineStr">
+        <is>
+          <t>云台镇2025年政府工作报告</t>
+        </is>
+      </c>
+      <c r="G301" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/public/column/6603181?type=4&amp;action=list&amp;nav=2&amp;sub=1&amp;catId=6715991</t>
+        </is>
+      </c>
+      <c r="H301" s="0" t="inlineStr">
+        <is>
+          <t>云台镇政府工作报告</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" s="0" t="inlineStr">
+        <is>
+          <t>2025-05-10 12:06</t>
+        </is>
+      </c>
+      <c r="B302" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/public/6602841/13998317.html</t>
+        </is>
+      </c>
+      <c r="C302" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=b1ecaf9fbe174e6baeeb01d6fd52a813&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D302" s="0" t="inlineStr">
+        <is>
+          <t>全面贯彻党的二十大全会精神</t>
+        </is>
+      </c>
+      <c r="E302" s="0" t="inlineStr">
+        <is>
+          <t>全面贯彻党的二十大精神</t>
+        </is>
+      </c>
+      <c r="F302" s="0" t="inlineStr">
+        <is>
+          <t>金宝新区全面推行林长制实施方案</t>
+        </is>
+      </c>
+      <c r="G302" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/public/column/6602841?type=4&amp;action=list&amp;nav=2&amp;sub=0&amp;catId=6717326</t>
+        </is>
+      </c>
+      <c r="H302" s="0" t="inlineStr">
+        <is>
+          <t>金宝管委会政策</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" s="0" t="inlineStr">
+        <is>
+          <t>2025-05-10 12:06</t>
+        </is>
+      </c>
+      <c r="B303" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/public/6603661/13997981.html</t>
+        </is>
+      </c>
+      <c r="C303" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=31ffc11fbd3e4641b93a323392be401d&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D303" s="0" t="inlineStr">
+        <is>
+          <t>“三公经费”</t>
+        </is>
+      </c>
+      <c r="E303" s="0" t="inlineStr">
+        <is>
+          <t>“三公”经费</t>
+        </is>
+      </c>
+      <c r="F303" s="0" t="inlineStr">
+        <is>
+          <t>泥龙镇2024年财政预算执行情况和2025年财政预算</t>
+        </is>
+      </c>
+      <c r="G303" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/public/column/6603661?type=4&amp;action=list&amp;nav=2&amp;sub=4&amp;catId=6716031</t>
+        </is>
+      </c>
+      <c r="H303" s="0" t="inlineStr">
+        <is>
+          <t>泥龙镇预决算</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" s="0" t="inlineStr">
+        <is>
+          <t>2025-05-10 12:06</t>
+        </is>
+      </c>
+      <c r="B304" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/public/6603661/13997981.html</t>
+        </is>
+      </c>
+      <c r="C304" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=bfa084ff2d934955b3303d6f3cb3cdde&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D304" s="0" t="inlineStr">
+        <is>
+          <t>中央“八项规定”</t>
+        </is>
+      </c>
+      <c r="E304" s="0" t="inlineStr">
+        <is>
+          <t>中央八项规定</t>
+        </is>
+      </c>
+      <c r="F304" s="0" t="inlineStr">
+        <is>
+          <t>泥龙镇2024年财政预算执行情况和2025年财政预算</t>
+        </is>
+      </c>
+      <c r="G304" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/public/column/6603661?type=4&amp;action=list&amp;nav=2&amp;sub=4&amp;catId=6716031</t>
+        </is>
+      </c>
+      <c r="H304" s="0" t="inlineStr">
+        <is>
+          <t>泥龙镇预决算</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" s="0" t="inlineStr">
+        <is>
+          <t>2025-05-10 12:06</t>
+        </is>
+      </c>
+      <c r="B305" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/public/6603661/13997981.html</t>
+        </is>
+      </c>
+      <c r="C305" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=14779c0268154685872443be8154edf3&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D305" s="0" t="inlineStr">
+        <is>
+          <t>“三公经费”</t>
+        </is>
+      </c>
+      <c r="E305" s="0" t="inlineStr">
+        <is>
+          <t>“三公”经费</t>
+        </is>
+      </c>
+      <c r="F305" s="0" t="inlineStr">
+        <is>
+          <t>泥龙镇2024年财政预算执行情况和2025年财政预算</t>
+        </is>
+      </c>
+      <c r="G305" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/public/column/6603661?type=4&amp;action=list&amp;nav=2&amp;sub=4&amp;catId=6716031</t>
+        </is>
+      </c>
+      <c r="H305" s="0" t="inlineStr">
+        <is>
+          <t>泥龙镇预决算</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" s="0" t="inlineStr">
+        <is>
+          <t>2025-05-10 12:06</t>
+        </is>
+      </c>
+      <c r="B306" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/public/6603661/13997981.html</t>
+        </is>
+      </c>
+      <c r="C306" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=84505afb0dd44ffd8a673cb6f07b91a1&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D306" s="0" t="inlineStr">
+        <is>
+          <t>帐务处理</t>
+        </is>
+      </c>
+      <c r="E306" s="0" t="inlineStr">
+        <is>
+          <t>账务处理</t>
+        </is>
+      </c>
+      <c r="F306" s="0" t="inlineStr">
+        <is>
+          <t>泥龙镇2024年财政预算执行情况和2025年财政预算</t>
+        </is>
+      </c>
+      <c r="G306" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/public/column/6603661?type=4&amp;action=list&amp;nav=2&amp;sub=4&amp;catId=6716031</t>
+        </is>
+      </c>
+      <c r="H306" s="0" t="inlineStr">
+        <is>
+          <t>泥龙镇预决算</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" s="0" t="inlineStr">
+        <is>
+          <t>2025-05-10 12:06</t>
+        </is>
+      </c>
+      <c r="B307" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/public/6603661/13997981.html</t>
+        </is>
+      </c>
+      <c r="C307" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=ce1b09b37cf24ca5aacef2fb1a6f65a7&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D307" s="0" t="inlineStr">
+        <is>
+          <t>的的</t>
+        </is>
+      </c>
+      <c r="E307" s="0" t="inlineStr">
+        <is>
+          <t>的</t>
+        </is>
+      </c>
+      <c r="F307" s="0" t="inlineStr">
+        <is>
+          <t>泥龙镇2024年财政预算执行情况和2025年财政预算</t>
+        </is>
+      </c>
+      <c r="G307" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/public/column/6603661?type=4&amp;action=list&amp;nav=2&amp;sub=4&amp;catId=6716031</t>
+        </is>
+      </c>
+      <c r="H307" s="0" t="inlineStr">
+        <is>
+          <t>泥龙镇预决算</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" s="0" t="inlineStr">
+        <is>
+          <t>2025-05-10 12:06</t>
+        </is>
+      </c>
+      <c r="B308" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/public/6603661/13997981.html</t>
+        </is>
+      </c>
+      <c r="C308" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=2eb83404a21f43a491b6d5cfab6eb6d2&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D308" s="0" t="inlineStr">
+        <is>
+          <t>帐务</t>
+        </is>
+      </c>
+      <c r="E308" s="0" t="inlineStr">
+        <is>
+          <t>账务</t>
+        </is>
+      </c>
+      <c r="F308" s="0" t="inlineStr">
+        <is>
+          <t>泥龙镇2024年财政预算执行情况和2025年财政预算</t>
+        </is>
+      </c>
+      <c r="G308" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/public/column/6603661?type=4&amp;action=list&amp;nav=2&amp;sub=4&amp;catId=6716031</t>
+        </is>
+      </c>
+      <c r="H308" s="0" t="inlineStr">
+        <is>
+          <t>泥龙镇预决算</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" s="0" t="inlineStr">
+        <is>
+          <t>2025-05-10 12:06</t>
+        </is>
+      </c>
+      <c r="B309" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/group3/M00/16/12/rBUtImgcDlCAG8dUAAQaeZbbLnY821.pdf</t>
+        </is>
+      </c>
+      <c r="C309" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=38162c45cd18409e93b037b855b92ead&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D309" s="0" t="inlineStr">
+        <is>
+          <t>》（试行）</t>
+        </is>
+      </c>
+      <c r="E309" s="0" t="inlineStr">
+        <is>
+          <t>（试行）》</t>
+        </is>
+      </c>
+      <c r="F309" s="0" t="inlineStr">
+        <is>
+          <t>平昌县匠世家食材及预制菜生产项目.pdf</t>
+        </is>
+      </c>
+      <c r="G309" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/public/6601841/13998057.html</t>
+        </is>
+      </c>
+      <c r="H309" s="0" t="inlineStr">
+        <is>
+          <t>关于2025年5月8日作出的建设项目环境影响评价文件审批决定的公告</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" s="0" t="inlineStr">
+        <is>
+          <t>2025-05-12 17:25</t>
+        </is>
+      </c>
+      <c r="B310" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/public/6603101/13847644.html</t>
+        </is>
+      </c>
+      <c r="C310" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=2eea89a318ad4897bb0939176be4f97e&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D310" s="0" t="inlineStr">
+        <is>
+          <t>坚持以习近平新时代中国特色社会主义思想凝心铸魂</t>
+        </is>
+      </c>
+      <c r="E310" s="0" t="inlineStr">
+        <is>
+          <t>坚持用习近平新时代中国特色社会主义思想凝心铸魂</t>
+        </is>
+      </c>
+      <c r="F310" s="0" t="inlineStr">
+        <is>
+          <t>响滩镇2023年政府工作报告</t>
+        </is>
+      </c>
+      <c r="G310" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/public/column/6603101?type=4&amp;action=list&amp;nav=2&amp;sub=1&amp;catId=6715991</t>
+        </is>
+      </c>
+      <c r="H310" s="0" t="inlineStr">
+        <is>
+          <t>政府工作报告</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" s="0" t="inlineStr">
+        <is>
+          <t>2025-05-13 09:01</t>
+        </is>
+      </c>
+      <c r="B311" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/group3/M00/16/16/rBUtImghtyuAbrjxAA4RyUm5Ppc212.pdf</t>
+        </is>
+      </c>
+      <c r="C311" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=e84e2fd3c68b4ae392edeca6a7aec3ed&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D311" s="0" t="inlineStr">
+        <is>
+          <t>投拆</t>
+        </is>
+      </c>
+      <c r="E311" s="0" t="inlineStr">
+        <is>
+          <t>投诉</t>
+        </is>
+      </c>
+      <c r="F311" s="0" t="inlineStr">
+        <is>
+          <t>平昌县2025年4月行政许可信用信息公示数据汇总表.pdf</t>
+        </is>
+      </c>
+      <c r="G311" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/ztzl/xyxxsgs/xzxk/13998670.html</t>
+        </is>
+      </c>
+      <c r="H311" s="0" t="inlineStr">
+        <is>
+          <t>平昌县2025年4月行政许可信用信息公示数据汇总表</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" s="0" t="inlineStr">
+        <is>
+          <t>2025-05-13 09:01</t>
+        </is>
+      </c>
+      <c r="B312" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/group3/M00/16/16/rBUtImghtyuAbrjxAA4RyUm5Ppc212.pdf</t>
+        </is>
+      </c>
+      <c r="C312" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=f3d3ddea3c604dea813bbbab3b492ccb&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D312" s="0" t="inlineStr">
+        <is>
+          <t>租凭</t>
+        </is>
+      </c>
+      <c r="E312" s="0" t="inlineStr">
+        <is>
+          <t>租赁</t>
+        </is>
+      </c>
+      <c r="F312" s="0" t="inlineStr">
+        <is>
+          <t>平昌县2025年4月行政许可信用信息公示数据汇总表.pdf</t>
+        </is>
+      </c>
+      <c r="G312" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/ztzl/xyxxsgs/xzxk/13998670.html</t>
+        </is>
+      </c>
+      <c r="H312" s="0" t="inlineStr">
+        <is>
+          <t>平昌县2025年4月行政许可信用信息公示数据汇总表</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" s="0" t="inlineStr">
+        <is>
+          <t>2025-05-13 09:01</t>
+        </is>
+      </c>
+      <c r="B313" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/group3/M00/16/16/rBUtImghtyuAbrjxAA4RyUm5Ppc212.pdf</t>
+        </is>
+      </c>
+      <c r="C313" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=41716b668ac746038d0d2e8719695f84&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D313" s="0" t="inlineStr">
+        <is>
+          <t>投拆</t>
+        </is>
+      </c>
+      <c r="E313" s="0" t="inlineStr">
+        <is>
+          <t>投诉</t>
+        </is>
+      </c>
+      <c r="F313" s="0" t="inlineStr">
+        <is>
+          <t>平昌县2025年4月行政许可信用信息公示数据汇总表.pdf</t>
+        </is>
+      </c>
+      <c r="G313" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/ztzl/xyxxsgs/xzxk/13998670.html</t>
+        </is>
+      </c>
+      <c r="H313" s="0" t="inlineStr">
+        <is>
+          <t>平昌县2025年4月行政许可信用信息公示数据汇总表</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" s="0" t="inlineStr">
+        <is>
+          <t>2025-05-14 09:31</t>
+        </is>
+      </c>
+      <c r="B314" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/ywdt/pcyw/13998878.html</t>
+        </is>
+      </c>
+      <c r="C314" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=3c9b219e438546c7a112ee9c71bd421b&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D314" s="0" t="inlineStr">
+        <is>
+          <t>中央八项规定精神学习教育</t>
+        </is>
+      </c>
+      <c r="E314" s="0" t="inlineStr">
+        <is>
+          <t>深入贯彻中央八项规定精神学习教育</t>
+        </is>
+      </c>
+      <c r="F314" s="0" t="inlineStr">
+        <is>
+          <t>县政府党组落实省委巡视反馈问题整改工作调度会召开</t>
+        </is>
+      </c>
+      <c r="G314" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/ywdt/pcyw/index.html</t>
+        </is>
+      </c>
+      <c r="H314" s="0" t="inlineStr">
+        <is>
+          <t>要闻动态</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" s="0" t="inlineStr">
+        <is>
+          <t>2025-05-16 09:08</t>
+        </is>
+      </c>
+      <c r="B315" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/public/6603081/13998995.html</t>
+        </is>
+      </c>
+      <c r="C315" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=a8aa91f2c78f4661884e307722f0e2fa&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D315" s="0" t="inlineStr">
+        <is>
+          <t>巩固脱贫攻坚成果同乡村振兴有效衔接</t>
+        </is>
+      </c>
+      <c r="E315" s="0" t="inlineStr">
+        <is>
+          <t>巩固拓展脱贫攻坚成果同乡村振兴有效衔接</t>
+        </is>
+      </c>
+      <c r="F315" s="0" t="inlineStr">
+        <is>
+          <t>白衣镇机关简介</t>
+        </is>
+      </c>
+      <c r="G315" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/public/column/6603081?type=4&amp;amp</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" s="0" t="inlineStr">
+        <is>
+          <t>2025-05-16 09:08</t>
+        </is>
+      </c>
+      <c r="B316" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/public/6603141/13979434.html</t>
+        </is>
+      </c>
+      <c r="C316" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=f7d22775818049b0a146a63a55ea2854&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D316" s="0" t="inlineStr">
+        <is>
+          <t>巩固拓展脱贫成果</t>
+        </is>
+      </c>
+      <c r="E316" s="0" t="inlineStr">
+        <is>
+          <t>巩固拓展脱贫攻坚成果</t>
+        </is>
+      </c>
+      <c r="F316" s="0" t="inlineStr">
+        <is>
+          <t>镇龙镇2025年政府工作报告</t>
+        </is>
+      </c>
+      <c r="G316" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/public/column/6603141?type=4&amp;action=list&amp;nav=2&amp;sub=1&amp;catId=6715991</t>
+        </is>
+      </c>
+      <c r="H316" s="0" t="inlineStr">
+        <is>
+          <t>政府工作报告</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" s="0" t="inlineStr">
+        <is>
+          <t>2025-05-19 09:19</t>
+        </is>
+      </c>
+      <c r="B317" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/ywdt/pcyw/13999552.html</t>
+        </is>
+      </c>
+      <c r="C317" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=0a23deefa86341c8867c95de3570f65d&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D317" s="0" t="inlineStr">
+        <is>
+          <t>中央八项规定精神学习教育</t>
+        </is>
+      </c>
+      <c r="E317" s="0" t="inlineStr">
+        <is>
+          <t>深入贯彻中央八项规定精神学习教育</t>
+        </is>
+      </c>
+      <c r="F317" s="0" t="inlineStr">
+        <is>
+          <t>张勋主持召开十四届县委常委会第130次会议</t>
+        </is>
+      </c>
+      <c r="G317" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/</t>
+        </is>
+      </c>
+      <c r="H317" s="0" t="inlineStr">
+        <is>
+          <t>平昌县人民政府</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" s="0" t="inlineStr">
+        <is>
+          <t>2025-05-19 09:19</t>
+        </is>
+      </c>
+      <c r="B318" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/ztzl/yfzx/13990347.html</t>
+        </is>
+      </c>
+      <c r="C318" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=456f81bc1eac4da585180bd4ff6cc6c9&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D318" s="0" t="inlineStr">
+        <is>
+          <t>“12.4国家宪法日”</t>
+        </is>
+      </c>
+      <c r="E318" s="0" t="inlineStr">
+        <is>
+          <t>“12·4”国家宪法日</t>
+        </is>
+      </c>
+      <c r="F318" s="0" t="inlineStr">
+        <is>
+          <t>金宝新区管委会2024年度法治政府建设工作情况报告</t>
+        </is>
+      </c>
+      <c r="G318" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/content/column/6790051?pageIndex=2</t>
+        </is>
+      </c>
+      <c r="H318" s="0" t="inlineStr">
+        <is>
+          <t>翻页</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" s="0" t="inlineStr">
+        <is>
+          <t>2025-05-19 09:19</t>
+        </is>
+      </c>
+      <c r="B319" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/ywdt/pcyw/9975041.html</t>
+        </is>
+      </c>
+      <c r="C319" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=18606e9a9e1e499c86e2c471ddc8f573&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D319" s="0" t="inlineStr">
+        <is>
+          <t>”十三五“</t>
+        </is>
+      </c>
+      <c r="E319" s="0" t="inlineStr">
+        <is>
+          <t>“十三五”</t>
+        </is>
+      </c>
+      <c r="F319" s="0" t="inlineStr">
+        <is>
+          <t>【图文】我县召开人力资源和社会保障工作会议</t>
+        </is>
+      </c>
+      <c r="G319" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/content/column/6789791?pageIndex=975</t>
+        </is>
+      </c>
+      <c r="H319" s="0" t="inlineStr">
+        <is>
+          <t>翻页</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" s="0" t="inlineStr">
+        <is>
+          <t>2025-05-19 09:20</t>
+        </is>
+      </c>
+      <c r="B320" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/public/6603621/13998990.html</t>
+        </is>
+      </c>
+      <c r="C320" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=1df135af3f724eee827fdb3dc40c5474&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D320" s="0" t="inlineStr">
+        <is>
+          <t>习近平总书记来川视察指示精神</t>
+        </is>
+      </c>
+      <c r="E320" s="0" t="inlineStr">
+        <is>
+          <t>习近平总书记来川视察重要指示精神</t>
+        </is>
+      </c>
+      <c r="F320" s="0" t="inlineStr">
+        <is>
+          <t>关于印发《青云镇安全生产隐患大排查大整治工作方案》的通知</t>
+        </is>
+      </c>
+      <c r="G320" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/public/column/6603621?type=4&amp;action=list&amp;nav=2&amp;sub=0&amp;catId=6717326</t>
+        </is>
+      </c>
+      <c r="H320" s="0" t="inlineStr">
+        <is>
+          <t>青云镇政策</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" s="0" t="inlineStr">
+        <is>
+          <t>2025-05-21 09:06</t>
+        </is>
+      </c>
+      <c r="B321" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/public/6601841/13819774.html</t>
+        </is>
+      </c>
+      <c r="C321" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=65e76e1376864cb2a14cb02148c59bf9&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D321" s="0" t="inlineStr">
+        <is>
+          <t>巩固扩展脱贫成果同乡村振兴有效衔接</t>
+        </is>
+      </c>
+      <c r="E321" s="0" t="inlineStr">
+        <is>
+          <t>巩固拓展脱贫攻坚成果同乡村振兴有效衔接</t>
+        </is>
+      </c>
+      <c r="F321" s="0" t="inlineStr">
+        <is>
+          <t>平昌县江口水乡水利风景区建设管理局</t>
+        </is>
+      </c>
+      <c r="G321" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/public/column/6601841?sub=0&amp;catId=6716661&amp;nav=2&amp;type=4&amp;action=list</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" s="0" t="inlineStr">
+        <is>
+          <t>2025-05-21 09:06</t>
+        </is>
+      </c>
+      <c r="B322" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/public/6601841/13819774.html</t>
+        </is>
+      </c>
+      <c r="C322" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=7973363117d74353aad060bd94aad03d&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D322" s="0" t="inlineStr">
+        <is>
+          <t>巩固扩展脱贫成果同乡村振兴有效衔接</t>
+        </is>
+      </c>
+      <c r="E322" s="0" t="inlineStr">
+        <is>
+          <t>巩固拓展脱贫攻坚成果同乡村振兴有效衔接</t>
+        </is>
+      </c>
+      <c r="F322" s="0" t="inlineStr">
+        <is>
+          <t>平昌县江口水乡水利风景区建设管理局</t>
+        </is>
+      </c>
+      <c r="G322" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/public/column/6601841?sub=0&amp;catId=6716661&amp;nav=2&amp;type=4&amp;action=list</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" s="0" t="inlineStr">
+        <is>
+          <t>2025-05-21 09:06</t>
+        </is>
+      </c>
+      <c r="B323" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/public/6603041/13999656.html</t>
+        </is>
+      </c>
+      <c r="C323" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=ef1a942dc0354fb3acf7c2a2c0244e46&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D323" s="0" t="inlineStr">
+        <is>
+          <t>人命群众</t>
+        </is>
+      </c>
+      <c r="E323" s="0" t="inlineStr">
+        <is>
+          <t>人民群众</t>
+        </is>
+      </c>
+      <c r="F323" s="0" t="inlineStr">
+        <is>
+          <t>江口街道2025年防溺水工作实施方案</t>
+        </is>
+      </c>
+      <c r="G323" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/public/column/6603041?type=4&amp;action=list&amp;nav=2&amp;sub=5&amp;catId=6716091</t>
+        </is>
+      </c>
+      <c r="H323" s="0" t="inlineStr">
+        <is>
+          <t>江口街道办其他法定信息</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" s="0" t="inlineStr">
+        <is>
+          <t>2025-05-21 09:06</t>
+        </is>
+      </c>
+      <c r="B324" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/ywdt/pcyw/13999881.html</t>
+        </is>
+      </c>
+      <c r="C324" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=e9b167d84303405bb39d6f165a5dbb41&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D324" s="0" t="inlineStr">
+        <is>
+          <t>学习领会总书记重要指示精神</t>
+        </is>
+      </c>
+      <c r="E324" s="0" t="inlineStr">
+        <is>
+          <t>学习习近平总书记重要指示精神</t>
+        </is>
+      </c>
+      <c r="F324" s="0" t="inlineStr">
+        <is>
+          <t>【特稿】把顶层设计和问计于民统一起来</t>
+        </is>
+      </c>
+      <c r="G324" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/</t>
+        </is>
+      </c>
+      <c r="H324" s="0" t="inlineStr">
+        <is>
+          <t>平昌县人民政府</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" s="0" t="inlineStr">
+        <is>
+          <t>2025-05-21 09:06</t>
+        </is>
+      </c>
+      <c r="B325" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/public/6601901/13999986.html</t>
+        </is>
+      </c>
+      <c r="C325" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=3979b1803e374ef4b06b799dc3e5a850&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D325" s="0" t="inlineStr">
+        <is>
+          <t>下午14:00</t>
+        </is>
+      </c>
+      <c r="E325" s="0" t="inlineStr">
+        <is>
+          <t>疑似时间错误，注意区分12小时制和24小时制的时间表示方法</t>
+        </is>
+      </c>
+      <c r="F325" s="0" t="inlineStr">
+        <is>
+          <t>平昌县教育科技局关于公开遴选招标代理机构的公告</t>
+        </is>
+      </c>
+      <c r="G325" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/public/column/6601901?type=4&amp;amp</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>2025-05-21 09:06</t>
+        </is>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/content/article/13999377</t>
+        </is>
+      </c>
+      <c r="C326" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=6c9c4007f3f64d958f147c4970136f8b&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D326" t="inlineStr">
+        <is>
+          <t>的的</t>
+        </is>
+      </c>
+      <c r="E326" t="inlineStr">
+        <is>
+          <t>的</t>
+        </is>
+      </c>
+      <c r="F326" t="inlineStr">
+        <is>
+          <t>应届毕业生档案邮寄问题</t>
+        </is>
+      </c>
+      <c r="G326" t="inlineStr">
+        <is>
+          <t>http://www.scpc.gov.cn/hdjl/index.html</t>
+        </is>
+      </c>
+      <c r="H326" t="inlineStr">
+        <is>
+          <t>互动交流</t>
         </is>
       </c>
     </row>
